--- a/code.xlsx
+++ b/code.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Effects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A976BB4-8A47-4BF6-AB78-03390E17DECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D643E0-2B20-4C7D-9E08-14E767CC67C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="109">
   <si>
     <t>2020-2021TextAnimation</t>
   </si>
@@ -254,9 +254,6 @@
     <t>NeumorphismPricingCardUIDesign</t>
   </si>
   <si>
-    <t>OhMyWebSite</t>
-  </si>
-  <si>
     <t>PepsiCardHoverEffects</t>
   </si>
   <si>
@@ -285,30 +282,6 @@
   </si>
   <si>
     <t>RandomColorSlotGentor</t>
-  </si>
-  <si>
-    <t>ResponsiveCardHover</t>
-  </si>
-  <si>
-    <t>ResponsiveDesignCSSImageHoverOverlayEffects</t>
-  </si>
-  <si>
-    <t>ResponsiveFooterCSSGrid</t>
-  </si>
-  <si>
-    <t>ResponsiveHeaderUsingCSSFlex</t>
-  </si>
-  <si>
-    <t>ResponsiveTestimonialSlider</t>
-  </si>
-  <si>
-    <t>ResponsiveWebsite-02</t>
-  </si>
-  <si>
-    <t>ResponsiveWebsite-03VideoSlider</t>
-  </si>
-  <si>
-    <t>ResponsiveWebsiteFood</t>
   </si>
   <si>
     <t>SignIn_SignUpForm02</t>
@@ -759,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -781,31 +754,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -813,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G2" s="3" t="str">
         <f>_xlfn.CONCAT($B2,$A2,$C2,$A2,$D2)</f>
@@ -877,19 +850,19 @@
         <v>2021</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G67" si="0">_xlfn.CONCAT($B3,$A3,$C3,$A3,$D3)</f>
@@ -941,19 +914,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1005,19 +978,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1069,19 +1042,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1133,19 +1106,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1197,19 +1170,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1261,19 +1234,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1325,19 +1298,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1389,19 +1362,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1453,19 +1426,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1517,19 +1490,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1581,19 +1554,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1645,19 +1618,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1709,19 +1682,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1773,19 +1746,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1837,19 +1810,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1901,19 +1874,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1965,19 +1938,19 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2029,19 +2002,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2093,19 +2066,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2157,19 +2130,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2221,19 +2194,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2285,19 +2258,19 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2349,19 +2322,19 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2413,19 +2386,19 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2477,19 +2450,19 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2541,19 +2514,19 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2605,19 +2578,19 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2669,19 +2642,19 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2733,19 +2706,19 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2794,22 +2767,22 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2861,19 +2834,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2925,19 +2898,19 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2989,19 +2962,19 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3053,19 +3026,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3117,19 +3090,19 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G38" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3181,19 +3154,19 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G39" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3245,19 +3218,19 @@
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G40" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3309,19 +3282,19 @@
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G41" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3373,19 +3346,19 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G42" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3437,19 +3410,19 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G43" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3501,19 +3474,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G44" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3565,19 +3538,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3629,19 +3602,19 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3693,19 +3666,19 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3757,19 +3730,19 @@
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G48" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3821,19 +3794,19 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3885,19 +3858,19 @@
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G50" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3949,19 +3922,19 @@
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4013,19 +3986,19 @@
         <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G52" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4077,19 +4050,19 @@
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4141,19 +4114,19 @@
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G54" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4205,19 +4178,19 @@
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G55" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4269,19 +4242,19 @@
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G56" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4333,19 +4306,19 @@
         <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G57" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4397,19 +4370,19 @@
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G58" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4461,19 +4434,19 @@
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G59" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4525,19 +4498,19 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G60" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4589,19 +4562,19 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G61" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4653,19 +4626,19 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G62" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4717,19 +4690,19 @@
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G63" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4781,19 +4754,19 @@
         <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G64" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4845,19 +4818,19 @@
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G65" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4909,19 +4882,19 @@
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G66" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4973,19 +4946,19 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G67" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5037,22 +5010,22 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f t="shared" ref="G68:G106" si="3">_xlfn.CONCAT($B68,$A68,$C68,$A68,$D68)</f>
+        <f t="shared" ref="G68:G97" si="3">_xlfn.CONCAT($B68,$A68,$C68,$A68,$D68)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/LoadingAnimationEffects/index.html" target="_blank"&gt;LoadingAnimationEffects&lt;/a&gt;
@@ -5062,7 +5035,7 @@
             title="</v>
       </c>
       <c r="H68" s="3" t="str">
-        <f t="shared" ref="H68:H106" si="4">_xlfn.CONCAT($A68,$E68,$A68,$F68)</f>
+        <f t="shared" ref="H68:H97" si="4">_xlfn.CONCAT($A68,$E68,$A68,$F68)</f>
         <v xml:space="preserve">LoadingAnimationEffects"
             width="460"
             height="315"
@@ -5076,7 +5049,7 @@
       </v>
       </c>
       <c r="I68" s="7" t="str">
-        <f t="shared" ref="I68:I106" si="5">_xlfn.CONCAT($G68,$H68)</f>
+        <f t="shared" ref="I68:I97" si="5">_xlfn.CONCAT($G68,$H68)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/LoadingAnimationEffects/index.html" target="_blank"&gt;LoadingAnimationEffects&lt;/a&gt;
@@ -5101,19 +5074,19 @@
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G69" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5165,19 +5138,19 @@
         <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G70" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5229,19 +5202,19 @@
         <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G71" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5293,19 +5266,19 @@
         <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G72" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5357,19 +5330,19 @@
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G73" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5421,19 +5394,19 @@
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G74" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5485,19 +5458,19 @@
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G75" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5549,19 +5522,19 @@
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G76" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5610,28 +5583,28 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G77" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
+        &lt;a href="src/PaintBrushTextEffects/index.html" target="_blank"&gt;PaintBrushTextEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5639,10 +5612,10 @@
       </c>
       <c r="H77" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">OhMyWebSite"
-            width="460"
-            height="315"
-            src="src/OhMyWebSite/index.html"
+        <v xml:space="preserve">PaintBrushTextEffects"
+            width="460"
+            height="315"
+            src="src/PaintBrushTextEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5655,14 +5628,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/OhMyWebSite/index.html" target="_blank"&gt;OhMyWebSite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="OhMyWebSite"
-            width="460"
-            height="315"
-            src="src/OhMyWebSite/index.html"
+        &lt;a href="src/PaintBrushTextEffects/index.html" target="_blank"&gt;PaintBrushTextEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PaintBrushTextEffects"
+            width="460"
+            height="315"
+            src="src/PaintBrushTextEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5674,28 +5647,28 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="4" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G78" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PaintBrushTextEffects/index.html" target="_blank"&gt;PaintBrushTextEffects&lt;/a&gt;
+        &lt;a href="src/PepsiCardHoverEffects/index.html" target="_blank"&gt;PepsiCardHoverEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5703,10 +5676,10 @@
       </c>
       <c r="H78" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PaintBrushTextEffects"
-            width="460"
-            height="315"
-            src="src/PaintBrushTextEffects/index.html"
+        <v xml:space="preserve">PepsiCardHoverEffects"
+            width="460"
+            height="315"
+            src="src/PepsiCardHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5719,14 +5692,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PaintBrushTextEffects/index.html" target="_blank"&gt;PaintBrushTextEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PaintBrushTextEffects"
-            width="460"
-            height="315"
-            src="src/PaintBrushTextEffects/index.html"
+        &lt;a href="src/PepsiCardHoverEffects/index.html" target="_blank"&gt;PepsiCardHoverEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PepsiCardHoverEffects"
+            width="460"
+            height="315"
+            src="src/PepsiCardHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5741,25 +5714,25 @@
         <v>74</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G79" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PepsiCardHoverEffects/index.html" target="_blank"&gt;PepsiCardHoverEffects&lt;/a&gt;
+        &lt;a href="src/PersonalPortfolio/index.html" target="_blank"&gt;PersonalPortfolio&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5767,10 +5740,10 @@
       </c>
       <c r="H79" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PepsiCardHoverEffects"
-            width="460"
-            height="315"
-            src="src/PepsiCardHoverEffects/index.html"
+        <v xml:space="preserve">PersonalPortfolio"
+            width="460"
+            height="315"
+            src="src/PersonalPortfolio/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5783,14 +5756,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PepsiCardHoverEffects/index.html" target="_blank"&gt;PepsiCardHoverEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PepsiCardHoverEffects"
-            width="460"
-            height="315"
-            src="src/PepsiCardHoverEffects/index.html"
+        &lt;a href="src/PersonalPortfolio/index.html" target="_blank"&gt;PersonalPortfolio&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PersonalPortfolio"
+            width="460"
+            height="315"
+            src="src/PersonalPortfolio/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5805,25 +5778,25 @@
         <v>75</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G80" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PersonalPortfolio/index.html" target="_blank"&gt;PersonalPortfolio&lt;/a&gt;
+        &lt;a href="src/PlaceImageInsideSilhouette/index.html" target="_blank"&gt;PlaceImageInsideSilhouette&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5831,10 +5804,10 @@
       </c>
       <c r="H80" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PersonalPortfolio"
-            width="460"
-            height="315"
-            src="src/PersonalPortfolio/index.html"
+        <v xml:space="preserve">PlaceImageInsideSilhouette"
+            width="460"
+            height="315"
+            src="src/PlaceImageInsideSilhouette/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5847,14 +5820,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PersonalPortfolio/index.html" target="_blank"&gt;PersonalPortfolio&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PersonalPortfolio"
-            width="460"
-            height="315"
-            src="src/PersonalPortfolio/index.html"
+        &lt;a href="src/PlaceImageInsideSilhouette/index.html" target="_blank"&gt;PlaceImageInsideSilhouette&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PlaceImageInsideSilhouette"
+            width="460"
+            height="315"
+            src="src/PlaceImageInsideSilhouette/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5869,25 +5842,25 @@
         <v>76</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G81" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PlaceImageInsideSilhouette/index.html" target="_blank"&gt;PlaceImageInsideSilhouette&lt;/a&gt;
+        &lt;a href="src/PlayPausedVideoToggleOnHover/index.html" target="_blank"&gt;PlayPausedVideoToggleOnHover&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5895,10 +5868,10 @@
       </c>
       <c r="H81" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PlaceImageInsideSilhouette"
-            width="460"
-            height="315"
-            src="src/PlaceImageInsideSilhouette/index.html"
+        <v xml:space="preserve">PlayPausedVideoToggleOnHover"
+            width="460"
+            height="315"
+            src="src/PlayPausedVideoToggleOnHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5911,14 +5884,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PlaceImageInsideSilhouette/index.html" target="_blank"&gt;PlaceImageInsideSilhouette&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PlaceImageInsideSilhouette"
-            width="460"
-            height="315"
-            src="src/PlaceImageInsideSilhouette/index.html"
+        &lt;a href="src/PlayPausedVideoToggleOnHover/index.html" target="_blank"&gt;PlayPausedVideoToggleOnHover&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PlayPausedVideoToggleOnHover"
+            width="460"
+            height="315"
+            src="src/PlayPausedVideoToggleOnHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5933,25 +5906,25 @@
         <v>77</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G82" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PlayPausedVideoToggleOnHover/index.html" target="_blank"&gt;PlayPausedVideoToggleOnHover&lt;/a&gt;
+        &lt;a href="src/PopupNewsletter/index.html" target="_blank"&gt;PopupNewsletter&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5959,10 +5932,10 @@
       </c>
       <c r="H82" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PlayPausedVideoToggleOnHover"
-            width="460"
-            height="315"
-            src="src/PlayPausedVideoToggleOnHover/index.html"
+        <v xml:space="preserve">PopupNewsletter"
+            width="460"
+            height="315"
+            src="src/PopupNewsletter/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5975,14 +5948,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PlayPausedVideoToggleOnHover/index.html" target="_blank"&gt;PlayPausedVideoToggleOnHover&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PlayPausedVideoToggleOnHover"
-            width="460"
-            height="315"
-            src="src/PlayPausedVideoToggleOnHover/index.html"
+        &lt;a href="src/PopupNewsletter/index.html" target="_blank"&gt;PopupNewsletter&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PopupNewsletter"
+            width="460"
+            height="315"
+            src="src/PopupNewsletter/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5997,25 +5970,25 @@
         <v>78</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G83" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PopupNewsletter/index.html" target="_blank"&gt;PopupNewsletter&lt;/a&gt;
+        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6023,10 +5996,10 @@
       </c>
       <c r="H83" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PopupNewsletter"
-            width="460"
-            height="315"
-            src="src/PopupNewsletter/index.html"
+        <v xml:space="preserve">PortfolioWebsite"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6039,14 +6012,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PopupNewsletter/index.html" target="_blank"&gt;PopupNewsletter&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PopupNewsletter"
-            width="460"
-            height="315"
-            src="src/PopupNewsletter/index.html"
+        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PortfolioWebsite"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6061,25 +6034,25 @@
         <v>79</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G84" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
+        &lt;a href="src/PortfolioWebsite02/index.html" target="_blank"&gt;PortfolioWebsite02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6087,10 +6060,10 @@
       </c>
       <c r="H84" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PortfolioWebsite"
-            width="460"
-            height="315"
-            src="src/PortfolioWebsite/index.html"
+        <v xml:space="preserve">PortfolioWebsite02"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6103,14 +6076,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PortfolioWebsite"
-            width="460"
-            height="315"
-            src="src/PortfolioWebsite/index.html"
+        &lt;a href="src/PortfolioWebsite02/index.html" target="_blank"&gt;PortfolioWebsite02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PortfolioWebsite02"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6125,25 +6098,25 @@
         <v>80</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G85" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioWebsite02/index.html" target="_blank"&gt;PortfolioWebsite02&lt;/a&gt;
+        &lt;a href="src/RainyDayJS/index.html" target="_blank"&gt;RainyDayJS&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6151,10 +6124,10 @@
       </c>
       <c r="H85" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PortfolioWebsite02"
-            width="460"
-            height="315"
-            src="src/PortfolioWebsite02/index.html"
+        <v xml:space="preserve">RainyDayJS"
+            width="460"
+            height="315"
+            src="src/RainyDayJS/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6167,14 +6140,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioWebsite02/index.html" target="_blank"&gt;PortfolioWebsite02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PortfolioWebsite02"
-            width="460"
-            height="315"
-            src="src/PortfolioWebsite02/index.html"
+        &lt;a href="src/RainyDayJS/index.html" target="_blank"&gt;RainyDayJS&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="RainyDayJS"
+            width="460"
+            height="315"
+            src="src/RainyDayJS/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6189,25 +6162,25 @@
         <v>81</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G86" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RainyDayJS/index.html" target="_blank"&gt;RainyDayJS&lt;/a&gt;
+        &lt;a href="src/RamadanKareem/index.html" target="_blank"&gt;RamadanKareem&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6215,10 +6188,10 @@
       </c>
       <c r="H86" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">RainyDayJS"
-            width="460"
-            height="315"
-            src="src/RainyDayJS/index.html"
+        <v xml:space="preserve">RamadanKareem"
+            width="460"
+            height="315"
+            src="src/RamadanKareem/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6231,14 +6204,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RainyDayJS/index.html" target="_blank"&gt;RainyDayJS&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="RainyDayJS"
-            width="460"
-            height="315"
-            src="src/RainyDayJS/index.html"
+        &lt;a href="src/RamadanKareem/index.html" target="_blank"&gt;RamadanKareem&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="RamadanKareem"
+            width="460"
+            height="315"
+            src="src/RamadanKareem/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6253,25 +6226,25 @@
         <v>82</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G87" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RamadanKareem/index.html" target="_blank"&gt;RamadanKareem&lt;/a&gt;
+        &lt;a href="src/RandomColorSlotGentor/index.html" target="_blank"&gt;RandomColorSlotGentor&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6279,10 +6252,10 @@
       </c>
       <c r="H87" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">RamadanKareem"
-            width="460"
-            height="315"
-            src="src/RamadanKareem/index.html"
+        <v xml:space="preserve">RandomColorSlotGentor"
+            width="460"
+            height="315"
+            src="src/RandomColorSlotGentor/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6295,14 +6268,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RamadanKareem/index.html" target="_blank"&gt;RamadanKareem&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="RamadanKareem"
-            width="460"
-            height="315"
-            src="src/RamadanKareem/index.html"
+        &lt;a href="src/RandomColorSlotGentor/index.html" target="_blank"&gt;RandomColorSlotGentor&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="RandomColorSlotGentor"
+            width="460"
+            height="315"
+            src="src/RandomColorSlotGentor/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6317,25 +6290,25 @@
         <v>83</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G88" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RandomColorSlotGentor/index.html" target="_blank"&gt;RandomColorSlotGentor&lt;/a&gt;
+        &lt;a href="src/SignIn_SignUpForm02/index.html" target="_blank"&gt;SignIn_SignUpForm02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6343,10 +6316,10 @@
       </c>
       <c r="H88" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">RandomColorSlotGentor"
-            width="460"
-            height="315"
-            src="src/RandomColorSlotGentor/index.html"
+        <v xml:space="preserve">SignIn_SignUpForm02"
+            width="460"
+            height="315"
+            src="src/SignIn_SignUpForm02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6359,14 +6332,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RandomColorSlotGentor/index.html" target="_blank"&gt;RandomColorSlotGentor&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="RandomColorSlotGentor"
-            width="460"
-            height="315"
-            src="src/RandomColorSlotGentor/index.html"
+        &lt;a href="src/SignIn_SignUpForm02/index.html" target="_blank"&gt;SignIn_SignUpForm02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="SignIn_SignUpForm02"
+            width="460"
+            height="315"
+            src="src/SignIn_SignUpForm02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6381,25 +6354,25 @@
         <v>84</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G89" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
+        &lt;a href="src/SmokeJavascriptAnimationEffects/index.html" target="_blank"&gt;SmokeJavascriptAnimationEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6407,10 +6380,10 @@
       </c>
       <c r="H89" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveCardHover"
-            width="460"
-            height="315"
-            src="src/ResponsiveCardHover/index.html"
+        <v xml:space="preserve">SmokeJavascriptAnimationEffects"
+            width="460"
+            height="315"
+            src="src/SmokeJavascriptAnimationEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6423,14 +6396,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveCardHover/index.html" target="_blank"&gt;ResponsiveCardHover&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveCardHover"
-            width="460"
-            height="315"
-            src="src/ResponsiveCardHover/index.html"
+        &lt;a href="src/SmokeJavascriptAnimationEffects/index.html" target="_blank"&gt;SmokeJavascriptAnimationEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="SmokeJavascriptAnimationEffects"
+            width="460"
+            height="315"
+            src="src/SmokeJavascriptAnimationEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6445,25 +6418,25 @@
         <v>85</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G90" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
+        &lt;a href="src/SnapScrollingParallaxEffects02/index.html" target="_blank"&gt;SnapScrollingParallaxEffects02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6471,10 +6444,10 @@
       </c>
       <c r="H90" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveDesignCSSImageHoverOverlayEffects"
-            width="460"
-            height="315"
-            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
+        <v xml:space="preserve">SnapScrollingParallaxEffects02"
+            width="460"
+            height="315"
+            src="src/SnapScrollingParallaxEffects02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6487,14 +6460,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html" target="_blank"&gt;ResponsiveDesignCSSImageHoverOverlayEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveDesignCSSImageHoverOverlayEffects"
-            width="460"
-            height="315"
-            src="src/ResponsiveDesignCSSImageHoverOverlayEffects/index.html"
+        &lt;a href="src/SnapScrollingParallaxEffects02/index.html" target="_blank"&gt;SnapScrollingParallaxEffects02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="SnapScrollingParallaxEffects02"
+            width="460"
+            height="315"
+            src="src/SnapScrollingParallaxEffects02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6509,25 +6482,25 @@
         <v>86</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G91" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
+        &lt;a href="src/StarbucksResponsive/index.html" target="_blank"&gt;StarbucksResponsive&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6535,10 +6508,10 @@
       </c>
       <c r="H91" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveFooterCSSGrid"
-            width="460"
-            height="315"
-            src="src/ResponsiveFooterCSSGrid/index.html"
+        <v xml:space="preserve">StarbucksResponsive"
+            width="460"
+            height="315"
+            src="src/StarbucksResponsive/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6551,14 +6524,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveFooterCSSGrid/index.html" target="_blank"&gt;ResponsiveFooterCSSGrid&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveFooterCSSGrid"
-            width="460"
-            height="315"
-            src="src/ResponsiveFooterCSSGrid/index.html"
+        &lt;a href="src/StarbucksResponsive/index.html" target="_blank"&gt;StarbucksResponsive&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="StarbucksResponsive"
+            width="460"
+            height="315"
+            src="src/StarbucksResponsive/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6573,25 +6546,25 @@
         <v>87</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G92" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
+        &lt;a href="src/TextTypingLoading/index.html" target="_blank"&gt;TextTypingLoading&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6599,10 +6572,10 @@
       </c>
       <c r="H92" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveHeaderUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
+        <v xml:space="preserve">TextTypingLoading"
+            width="460"
+            height="315"
+            src="src/TextTypingLoading/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6615,14 +6588,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveHeaderUsingCSSFlex/index.html" target="_blank"&gt;ResponsiveHeaderUsingCSSFlex&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveHeaderUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/ResponsiveHeaderUsingCSSFlex/index.html"
+        &lt;a href="src/TextTypingLoading/index.html" target="_blank"&gt;TextTypingLoading&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="TextTypingLoading"
+            width="460"
+            height="315"
+            src="src/TextTypingLoading/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6637,25 +6610,25 @@
         <v>88</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G93" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
+        &lt;a href="src/Uncharted4CardsUIDesign/index.html" target="_blank"&gt;Uncharted4CardsUIDesign&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6663,10 +6636,10 @@
       </c>
       <c r="H93" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
+        <v xml:space="preserve">Uncharted4CardsUIDesign"
+            width="460"
+            height="315"
+            src="src/Uncharted4CardsUIDesign/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6679,14 +6652,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveTestimonialSlider/index.html" target="_blank"&gt;ResponsiveTestimonialSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveTestimonialSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveTestimonialSlider/index.html"
+        &lt;a href="src/Uncharted4CardsUIDesign/index.html" target="_blank"&gt;Uncharted4CardsUIDesign&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Uncharted4CardsUIDesign"
+            width="460"
+            height="315"
+            src="src/Uncharted4CardsUIDesign/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6701,25 +6674,25 @@
         <v>89</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G94" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
+        &lt;a href="src/WavySectionCSS/index.html" target="_blank"&gt;WavySectionCSS&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6727,10 +6700,10 @@
       </c>
       <c r="H94" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        <v xml:space="preserve">WavySectionCSS"
+            width="460"
+            height="315"
+            src="src/WavySectionCSS/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6743,14 +6716,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-02/index.html" target="_blank"&gt;ResponsiveWebsite-02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-02"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-02/index.html"
+        &lt;a href="src/WavySectionCSS/index.html" target="_blank"&gt;WavySectionCSS&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="WavySectionCSS"
+            width="460"
+            height="315"
+            src="src/WavySectionCSS/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6765,25 +6738,25 @@
         <v>90</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G95" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
+        &lt;a href="src/WavyTextVanillaJavascript/index.html" target="_blank"&gt;WavyTextVanillaJavascript&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6791,10 +6764,10 @@
       </c>
       <c r="H95" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+        <v xml:space="preserve">WavyTextVanillaJavascript"
+            width="460"
+            height="315"
+            src="src/WavyTextVanillaJavascript/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6807,14 +6780,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsite-03VideoSlider/index.html" target="_blank"&gt;ResponsiveWebsite-03VideoSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsite-03VideoSlider"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsite-03VideoSlider/index.html"
+        &lt;a href="src/WavyTextVanillaJavascript/index.html" target="_blank"&gt;WavyTextVanillaJavascript&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="WavyTextVanillaJavascript"
+            width="460"
+            height="315"
+            src="src/WavyTextVanillaJavascript/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6829,25 +6802,25 @@
         <v>91</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G96" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
+        &lt;a href="src/WrapTextAroundImage/index.html" target="_blank"&gt;WrapTextAroundImage&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6855,10 +6828,10 @@
       </c>
       <c r="H96" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">ResponsiveWebsiteFood"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsiteFood/index.html"
+        <v xml:space="preserve">WrapTextAroundImage"
+            width="460"
+            height="315"
+            src="src/WrapTextAroundImage/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6871,14 +6844,14 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveWebsiteFood/index.html" target="_blank"&gt;ResponsiveWebsiteFood&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveWebsiteFood"
-            width="460"
-            height="315"
-            src="src/ResponsiveWebsiteFood/index.html"
+        &lt;a href="src/WrapTextAroundImage/index.html" target="_blank"&gt;WrapTextAroundImage&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="WrapTextAroundImage"
+            width="460"
+            height="315"
+            src="src/WrapTextAroundImage/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6893,25 +6866,25 @@
         <v>92</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G97" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/SignIn_SignUpForm02/index.html" target="_blank"&gt;SignIn_SignUpForm02&lt;/a&gt;
+        &lt;a href="src/zText.js/index.html" target="_blank"&gt;zText.js&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6919,10 +6892,10 @@
       </c>
       <c r="H97" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">SignIn_SignUpForm02"
-            width="460"
-            height="315"
-            src="src/SignIn_SignUpForm02/index.html"
+        <v xml:space="preserve">zText.js"
+            width="460"
+            height="315"
+            src="src/zText.js/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6932,582 +6905,6 @@
       </v>
       </c>
       <c r="I97" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/SignIn_SignUpForm02/index.html" target="_blank"&gt;SignIn_SignUpForm02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="SignIn_SignUpForm02"
-            width="460"
-            height="315"
-            src="src/SignIn_SignUpForm02/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A98" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G98" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/SmokeJavascriptAnimationEffects/index.html" target="_blank"&gt;SmokeJavascriptAnimationEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="</v>
-      </c>
-      <c r="H98" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">SmokeJavascriptAnimationEffects"
-            width="460"
-            height="315"
-            src="src/SmokeJavascriptAnimationEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-      <c r="I98" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/SmokeJavascriptAnimationEffects/index.html" target="_blank"&gt;SmokeJavascriptAnimationEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="SmokeJavascriptAnimationEffects"
-            width="460"
-            height="315"
-            src="src/SmokeJavascriptAnimationEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A99" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G99" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/SnapScrollingParallaxEffects02/index.html" target="_blank"&gt;SnapScrollingParallaxEffects02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="</v>
-      </c>
-      <c r="H99" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">SnapScrollingParallaxEffects02"
-            width="460"
-            height="315"
-            src="src/SnapScrollingParallaxEffects02/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-      <c r="I99" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/SnapScrollingParallaxEffects02/index.html" target="_blank"&gt;SnapScrollingParallaxEffects02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="SnapScrollingParallaxEffects02"
-            width="460"
-            height="315"
-            src="src/SnapScrollingParallaxEffects02/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A100" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G100" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/StarbucksResponsive/index.html" target="_blank"&gt;StarbucksResponsive&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="</v>
-      </c>
-      <c r="H100" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">StarbucksResponsive"
-            width="460"
-            height="315"
-            src="src/StarbucksResponsive/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-      <c r="I100" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/StarbucksResponsive/index.html" target="_blank"&gt;StarbucksResponsive&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="StarbucksResponsive"
-            width="460"
-            height="315"
-            src="src/StarbucksResponsive/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A101" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G101" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/TextTypingLoading/index.html" target="_blank"&gt;TextTypingLoading&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="</v>
-      </c>
-      <c r="H101" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">TextTypingLoading"
-            width="460"
-            height="315"
-            src="src/TextTypingLoading/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-      <c r="I101" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/TextTypingLoading/index.html" target="_blank"&gt;TextTypingLoading&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="TextTypingLoading"
-            width="460"
-            height="315"
-            src="src/TextTypingLoading/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A102" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G102" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Uncharted4CardsUIDesign/index.html" target="_blank"&gt;Uncharted4CardsUIDesign&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="</v>
-      </c>
-      <c r="H102" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Uncharted4CardsUIDesign"
-            width="460"
-            height="315"
-            src="src/Uncharted4CardsUIDesign/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-      <c r="I102" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Uncharted4CardsUIDesign/index.html" target="_blank"&gt;Uncharted4CardsUIDesign&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Uncharted4CardsUIDesign"
-            width="460"
-            height="315"
-            src="src/Uncharted4CardsUIDesign/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A103" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G103" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/WavySectionCSS/index.html" target="_blank"&gt;WavySectionCSS&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="</v>
-      </c>
-      <c r="H103" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">WavySectionCSS"
-            width="460"
-            height="315"
-            src="src/WavySectionCSS/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-      <c r="I103" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/WavySectionCSS/index.html" target="_blank"&gt;WavySectionCSS&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="WavySectionCSS"
-            width="460"
-            height="315"
-            src="src/WavySectionCSS/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G104" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/WavyTextVanillaJavascript/index.html" target="_blank"&gt;WavyTextVanillaJavascript&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="</v>
-      </c>
-      <c r="H104" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">WavyTextVanillaJavascript"
-            width="460"
-            height="315"
-            src="src/WavyTextVanillaJavascript/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-      <c r="I104" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/WavyTextVanillaJavascript/index.html" target="_blank"&gt;WavyTextVanillaJavascript&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="WavyTextVanillaJavascript"
-            width="460"
-            height="315"
-            src="src/WavyTextVanillaJavascript/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G105" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/WrapTextAroundImage/index.html" target="_blank"&gt;WrapTextAroundImage&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="</v>
-      </c>
-      <c r="H105" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">WrapTextAroundImage"
-            width="460"
-            height="315"
-            src="src/WrapTextAroundImage/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-      <c r="I105" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/WrapTextAroundImage/index.html" target="_blank"&gt;WrapTextAroundImage&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="WrapTextAroundImage"
-            width="460"
-            height="315"
-            src="src/WrapTextAroundImage/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G106" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/zText.js/index.html" target="_blank"&gt;zText.js&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="</v>
-      </c>
-      <c r="H106" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">zText.js"
-            width="460"
-            height="315"
-            src="src/zText.js/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-      <c r="I106" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;

--- a/code.xlsx
+++ b/code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Effects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D643E0-2B20-4C7D-9E08-14E767CC67C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659418F6-528D-4FEE-A7D7-7449369B4E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="110">
   <si>
     <t>2020-2021TextAnimation</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>CustomSelectDropdown</t>
+  </si>
+  <si>
+    <t>3DWavyCircleLoadingAnimation</t>
   </si>
 </sst>
 </file>
@@ -732,27 +735,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.53125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.19921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="1"/>
+    <col min="5" max="5" width="7.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>93</v>
       </c>
@@ -781,7 +784,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -845,7 +848,7 @@
       </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2021</v>
       </c>
@@ -865,7 +868,7 @@
         <v>103</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G67" si="0">_xlfn.CONCAT($B3,$A3,$C3,$A3,$D3)</f>
+        <f t="shared" ref="G3:G68" si="0">_xlfn.CONCAT($B3,$A3,$C3,$A3,$D3)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/2021/index.html" target="_blank"&gt;2021&lt;/a&gt;
@@ -875,7 +878,7 @@
             title="</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H67" si="1">_xlfn.CONCAT($A3,$E3,$A3,$F3)</f>
+        <f t="shared" ref="H3:H68" si="1">_xlfn.CONCAT($A3,$E3,$A3,$F3)</f>
         <v xml:space="preserve">2021"
             width="460"
             height="315"
@@ -889,7 +892,7 @@
       </v>
       </c>
       <c r="I3" s="7" t="str">
-        <f t="shared" ref="I3:I67" si="2">_xlfn.CONCAT($G3,$H3)</f>
+        <f t="shared" ref="I3:I68" si="2">_xlfn.CONCAT($G3,$H3)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/2021/index.html" target="_blank"&gt;2021&lt;/a&gt;
@@ -909,7 +912,7 @@
       </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -973,7 +976,7 @@
       </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1037,9 +1040,9 @@
       </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>96</v>
@@ -1060,7 +1063,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AlignItemUsingCSSGrid/index.html" target="_blank"&gt;AlignItemUsingCSSGrid&lt;/a&gt;
+        &lt;a href="src/3DWavyCircleLoadingAnimation/index.html" target="_blank"&gt;3DWavyCircleLoadingAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1068,10 +1071,10 @@
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AlignItemUsingCSSGrid"
-            width="460"
-            height="315"
-            src="src/AlignItemUsingCSSGrid/index.html"
+        <v xml:space="preserve">3DWavyCircleLoadingAnimation"
+            width="460"
+            height="315"
+            src="src/3DWavyCircleLoadingAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1084,26 +1087,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AlignItemUsingCSSGrid/index.html" target="_blank"&gt;AlignItemUsingCSSGrid&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AlignItemUsingCSSGrid"
-            width="460"
-            height="315"
-            src="src/AlignItemUsingCSSGrid/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/3DWavyCircleLoadingAnimation/index.html" target="_blank"&gt;3DWavyCircleLoadingAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="3DWavyCircleLoadingAnimation"
+            width="460"
+            height="315"
+            src="src/3DWavyCircleLoadingAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>96</v>
@@ -1124,7 +1127,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AlignTextUsingCSSFlex/index.html" target="_blank"&gt;AlignTextUsingCSSFlex&lt;/a&gt;
+        &lt;a href="src/AlignItemUsingCSSGrid/index.html" target="_blank"&gt;AlignItemUsingCSSGrid&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1132,10 +1135,10 @@
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AlignTextUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/AlignTextUsingCSSFlex/index.html"
+        <v xml:space="preserve">AlignItemUsingCSSGrid"
+            width="460"
+            height="315"
+            src="src/AlignItemUsingCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1148,26 +1151,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AlignTextUsingCSSFlex/index.html" target="_blank"&gt;AlignTextUsingCSSFlex&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AlignTextUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/AlignTextUsingCSSFlex/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/AlignItemUsingCSSGrid/index.html" target="_blank"&gt;AlignItemUsingCSSGrid&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AlignItemUsingCSSGrid"
+            width="460"
+            height="315"
+            src="src/AlignItemUsingCSSGrid/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>96</v>
@@ -1188,7 +1191,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimatedChristmasBanner2020/index.html" target="_blank"&gt;AnimatedChristmasBanner2020&lt;/a&gt;
+        &lt;a href="src/AlignTextUsingCSSFlex/index.html" target="_blank"&gt;AlignTextUsingCSSFlex&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1196,10 +1199,10 @@
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimatedChristmasBanner2020"
-            width="460"
-            height="315"
-            src="src/AnimatedChristmasBanner2020/index.html"
+        <v xml:space="preserve">AlignTextUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/AlignTextUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1212,26 +1215,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimatedChristmasBanner2020/index.html" target="_blank"&gt;AnimatedChristmasBanner2020&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimatedChristmasBanner2020"
-            width="460"
-            height="315"
-            src="src/AnimatedChristmasBanner2020/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/AlignTextUsingCSSFlex/index.html" target="_blank"&gt;AlignTextUsingCSSFlex&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AlignTextUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/AlignTextUsingCSSFlex/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>96</v>
@@ -1252,7 +1255,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSAnimatedHeart/index.html" target="_blank"&gt;AnimeJSAnimatedHeart&lt;/a&gt;
+        &lt;a href="src/AnimatedChristmasBanner2020/index.html" target="_blank"&gt;AnimatedChristmasBanner2020&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1260,10 +1263,10 @@
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimeJSAnimatedHeart"
-            width="460"
-            height="315"
-            src="src/AnimeJSAnimatedHeart/index.html"
+        <v xml:space="preserve">AnimatedChristmasBanner2020"
+            width="460"
+            height="315"
+            src="src/AnimatedChristmasBanner2020/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1276,26 +1279,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSAnimatedHeart/index.html" target="_blank"&gt;AnimeJSAnimatedHeart&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimeJSAnimatedHeart"
-            width="460"
-            height="315"
-            src="src/AnimeJSAnimatedHeart/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/AnimatedChristmasBanner2020/index.html" target="_blank"&gt;AnimatedChristmasBanner2020&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimatedChristmasBanner2020"
+            width="460"
+            height="315"
+            src="src/AnimatedChristmasBanner2020/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>96</v>
@@ -1316,7 +1319,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSFlyingTextAnimation/index.html" target="_blank"&gt;AnimeJSFlyingTextAnimation&lt;/a&gt;
+        &lt;a href="src/AnimeJSAnimatedHeart/index.html" target="_blank"&gt;AnimeJSAnimatedHeart&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1324,10 +1327,10 @@
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimeJSFlyingTextAnimation"
-            width="460"
-            height="315"
-            src="src/AnimeJSFlyingTextAnimation/index.html"
+        <v xml:space="preserve">AnimeJSAnimatedHeart"
+            width="460"
+            height="315"
+            src="src/AnimeJSAnimatedHeart/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1340,26 +1343,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSFlyingTextAnimation/index.html" target="_blank"&gt;AnimeJSFlyingTextAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimeJSFlyingTextAnimation"
-            width="460"
-            height="315"
-            src="src/AnimeJSFlyingTextAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/AnimeJSAnimatedHeart/index.html" target="_blank"&gt;AnimeJSAnimatedHeart&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimeJSAnimatedHeart"
+            width="460"
+            height="315"
+            src="src/AnimeJSAnimatedHeart/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>96</v>
@@ -1380,7 +1383,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSRandomBackgroundAnimation/index.html" target="_blank"&gt;AnimeJSRandomBackgroundAnimation&lt;/a&gt;
+        &lt;a href="src/AnimeJSFlyingTextAnimation/index.html" target="_blank"&gt;AnimeJSFlyingTextAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1388,10 +1391,10 @@
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimeJSRandomBackgroundAnimation"
-            width="460"
-            height="315"
-            src="src/AnimeJSRandomBackgroundAnimation/index.html"
+        <v xml:space="preserve">AnimeJSFlyingTextAnimation"
+            width="460"
+            height="315"
+            src="src/AnimeJSFlyingTextAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1404,26 +1407,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSRandomBackgroundAnimation/index.html" target="_blank"&gt;AnimeJSRandomBackgroundAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimeJSRandomBackgroundAnimation"
-            width="460"
-            height="315"
-            src="src/AnimeJSRandomBackgroundAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/AnimeJSFlyingTextAnimation/index.html" target="_blank"&gt;AnimeJSFlyingTextAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimeJSFlyingTextAnimation"
+            width="460"
+            height="315"
+            src="src/AnimeJSFlyingTextAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>96</v>
@@ -1444,7 +1447,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AutopopupDiv/index.html" target="_blank"&gt;AutopopupDiv&lt;/a&gt;
+        &lt;a href="src/AnimeJSRandomBackgroundAnimation/index.html" target="_blank"&gt;AnimeJSRandomBackgroundAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1452,10 +1455,10 @@
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AutopopupDiv"
-            width="460"
-            height="315"
-            src="src/AutopopupDiv/index.html"
+        <v xml:space="preserve">AnimeJSRandomBackgroundAnimation"
+            width="460"
+            height="315"
+            src="src/AnimeJSRandomBackgroundAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1468,26 +1471,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AutopopupDiv/index.html" target="_blank"&gt;AutopopupDiv&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AutopopupDiv"
-            width="460"
-            height="315"
-            src="src/AutopopupDiv/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/AnimeJSRandomBackgroundAnimation/index.html" target="_blank"&gt;AnimeJSRandomBackgroundAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimeJSRandomBackgroundAnimation"
+            width="460"
+            height="315"
+            src="src/AnimeJSRandomBackgroundAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>96</v>
@@ -1508,7 +1511,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html" target="_blank"&gt;BouncingBallLoadingAnimationEffectsPerpetual&lt;/a&gt;
+        &lt;a href="src/AutopopupDiv/index.html" target="_blank"&gt;AutopopupDiv&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1516,10 +1519,10 @@
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">BouncingBallLoadingAnimationEffectsPerpetual"
-            width="460"
-            height="315"
-            src="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html"
+        <v xml:space="preserve">AutopopupDiv"
+            width="460"
+            height="315"
+            src="src/AutopopupDiv/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1532,26 +1535,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html" target="_blank"&gt;BouncingBallLoadingAnimationEffectsPerpetual&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="BouncingBallLoadingAnimationEffectsPerpetual"
-            width="460"
-            height="315"
-            src="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/AutopopupDiv/index.html" target="_blank"&gt;AutopopupDiv&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AutopopupDiv"
+            width="460"
+            height="315"
+            src="src/AutopopupDiv/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>96</v>
@@ -1572,7 +1575,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/BubblyBackgroundEffects/index.html" target="_blank"&gt;BubblyBackgroundEffects&lt;/a&gt;
+        &lt;a href="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html" target="_blank"&gt;BouncingBallLoadingAnimationEffectsPerpetual&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1580,10 +1583,10 @@
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">BubblyBackgroundEffects"
-            width="460"
-            height="315"
-            src="src/BubblyBackgroundEffects/index.html"
+        <v xml:space="preserve">BouncingBallLoadingAnimationEffectsPerpetual"
+            width="460"
+            height="315"
+            src="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1596,26 +1599,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/BubblyBackgroundEffects/index.html" target="_blank"&gt;BubblyBackgroundEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="BubblyBackgroundEffects"
-            width="460"
-            height="315"
-            src="src/BubblyBackgroundEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html" target="_blank"&gt;BouncingBallLoadingAnimationEffectsPerpetual&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="BouncingBallLoadingAnimationEffectsPerpetual"
+            width="460"
+            height="315"
+            src="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>96</v>
@@ -1636,7 +1639,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CalculatorGlassmorphism/index.html" target="_blank"&gt;CalculatorGlassmorphism&lt;/a&gt;
+        &lt;a href="src/BubblyBackgroundEffects/index.html" target="_blank"&gt;BubblyBackgroundEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1644,10 +1647,10 @@
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CalculatorGlassmorphism"
-            width="460"
-            height="315"
-            src="src/CalculatorGlassmorphism/index.html"
+        <v xml:space="preserve">BubblyBackgroundEffects"
+            width="460"
+            height="315"
+            src="src/BubblyBackgroundEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1660,26 +1663,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CalculatorGlassmorphism/index.html" target="_blank"&gt;CalculatorGlassmorphism&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CalculatorGlassmorphism"
-            width="460"
-            height="315"
-            src="src/CalculatorGlassmorphism/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/BubblyBackgroundEffects/index.html" target="_blank"&gt;BubblyBackgroundEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="BubblyBackgroundEffects"
+            width="460"
+            height="315"
+            src="src/BubblyBackgroundEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>96</v>
@@ -1700,7 +1703,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleProgressCSSGlassmorphism/index.html" target="_blank"&gt;CircleProgressCSSGlassmorphism&lt;/a&gt;
+        &lt;a href="src/CalculatorGlassmorphism/index.html" target="_blank"&gt;CalculatorGlassmorphism&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1708,10 +1711,10 @@
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CircleProgressCSSGlassmorphism"
-            width="460"
-            height="315"
-            src="src/CircleProgressCSSGlassmorphism/index.html"
+        <v xml:space="preserve">CalculatorGlassmorphism"
+            width="460"
+            height="315"
+            src="src/CalculatorGlassmorphism/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1724,26 +1727,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleProgressCSSGlassmorphism/index.html" target="_blank"&gt;CircleProgressCSSGlassmorphism&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CircleProgressCSSGlassmorphism"
-            width="460"
-            height="315"
-            src="src/CircleProgressCSSGlassmorphism/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CalculatorGlassmorphism/index.html" target="_blank"&gt;CalculatorGlassmorphism&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CalculatorGlassmorphism"
+            width="460"
+            height="315"
+            src="src/CalculatorGlassmorphism/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>96</v>
@@ -1764,7 +1767,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleTextAnimationMousemove/index.html" target="_blank"&gt;CircleTextAnimationMousemove&lt;/a&gt;
+        &lt;a href="src/CircleProgressCSSGlassmorphism/index.html" target="_blank"&gt;CircleProgressCSSGlassmorphism&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1772,10 +1775,10 @@
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CircleTextAnimationMousemove"
-            width="460"
-            height="315"
-            src="src/CircleTextAnimationMousemove/index.html"
+        <v xml:space="preserve">CircleProgressCSSGlassmorphism"
+            width="460"
+            height="315"
+            src="src/CircleProgressCSSGlassmorphism/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1788,26 +1791,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleTextAnimationMousemove/index.html" target="_blank"&gt;CircleTextAnimationMousemove&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CircleTextAnimationMousemove"
-            width="460"
-            height="315"
-            src="src/CircleTextAnimationMousemove/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CircleProgressCSSGlassmorphism/index.html" target="_blank"&gt;CircleProgressCSSGlassmorphism&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CircleProgressCSSGlassmorphism"
+            width="460"
+            height="315"
+            src="src/CircleProgressCSSGlassmorphism/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>96</v>
@@ -1828,7 +1831,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleTextMousemove/index.html" target="_blank"&gt;CircleTextMousemove&lt;/a&gt;
+        &lt;a href="src/CircleTextAnimationMousemove/index.html" target="_blank"&gt;CircleTextAnimationMousemove&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1836,10 +1839,10 @@
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CircleTextMousemove"
-            width="460"
-            height="315"
-            src="src/CircleTextMousemove/index.html"
+        <v xml:space="preserve">CircleTextAnimationMousemove"
+            width="460"
+            height="315"
+            src="src/CircleTextAnimationMousemove/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1852,26 +1855,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleTextMousemove/index.html" target="_blank"&gt;CircleTextMousemove&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CircleTextMousemove"
-            width="460"
-            height="315"
-            src="src/CircleTextMousemove/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CircleTextAnimationMousemove/index.html" target="_blank"&gt;CircleTextAnimationMousemove&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CircleTextAnimationMousemove"
+            width="460"
+            height="315"
+            src="src/CircleTextAnimationMousemove/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>96</v>
@@ -1892,7 +1895,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Clip-pathVideoSlider/index.html" target="_blank"&gt;Clip-pathVideoSlider&lt;/a&gt;
+        &lt;a href="src/CircleTextMousemove/index.html" target="_blank"&gt;CircleTextMousemove&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1900,10 +1903,10 @@
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clip-pathVideoSlider"
-            width="460"
-            height="315"
-            src="src/Clip-pathVideoSlider/index.html"
+        <v xml:space="preserve">CircleTextMousemove"
+            width="460"
+            height="315"
+            src="src/CircleTextMousemove/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1916,26 +1919,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Clip-pathVideoSlider/index.html" target="_blank"&gt;Clip-pathVideoSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Clip-pathVideoSlider"
-            width="460"
-            height="315"
-            src="src/Clip-pathVideoSlider/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CircleTextMousemove/index.html" target="_blank"&gt;CircleTextMousemove&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CircleTextMousemove"
+            width="460"
+            height="315"
+            src="src/CircleTextMousemove/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>96</v>
@@ -1956,7 +1959,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ClockUIGlassmorphism/index.html" target="_blank"&gt;ClockUIGlassmorphism&lt;/a&gt;
+        &lt;a href="src/Clip-pathVideoSlider/index.html" target="_blank"&gt;Clip-pathVideoSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1964,10 +1967,10 @@
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ClockUIGlassmorphism"
-            width="460"
-            height="315"
-            src="src/ClockUIGlassmorphism/index.html"
+        <v xml:space="preserve">Clip-pathVideoSlider"
+            width="460"
+            height="315"
+            src="src/Clip-pathVideoSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1980,26 +1983,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ClockUIGlassmorphism/index.html" target="_blank"&gt;ClockUIGlassmorphism&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ClockUIGlassmorphism"
-            width="460"
-            height="315"
-            src="src/ClockUIGlassmorphism/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/Clip-pathVideoSlider/index.html" target="_blank"&gt;Clip-pathVideoSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Clip-pathVideoSlider"
+            width="460"
+            height="315"
+            src="src/Clip-pathVideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>96</v>
@@ -2020,7 +2023,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseNavbarWhenClickOutsideOrMenuItem&lt;/a&gt;
+        &lt;a href="src/ClockUIGlassmorphism/index.html" target="_blank"&gt;ClockUIGlassmorphism&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2028,10 +2031,10 @@
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CloseNavbarWhenClickOutsideOrMenuItem"
-            width="460"
-            height="315"
-            src="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html"
+        <v xml:space="preserve">ClockUIGlassmorphism"
+            width="460"
+            height="315"
+            src="src/ClockUIGlassmorphism/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2044,26 +2047,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseNavbarWhenClickOutsideOrMenuItem&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CloseNavbarWhenClickOutsideOrMenuItem"
-            width="460"
-            height="315"
-            src="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/ClockUIGlassmorphism/index.html" target="_blank"&gt;ClockUIGlassmorphism&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ClockUIGlassmorphism"
+            width="460"
+            height="315"
+            src="src/ClockUIGlassmorphism/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>96</v>
@@ -2084,7 +2087,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseSidebarWhenClickOutsideOrMenuItem&lt;/a&gt;
+        &lt;a href="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseNavbarWhenClickOutsideOrMenuItem&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2092,10 +2095,10 @@
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CloseSidebarWhenClickOutsideOrMenuItem"
-            width="460"
-            height="315"
-            src="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html"
+        <v xml:space="preserve">CloseNavbarWhenClickOutsideOrMenuItem"
+            width="460"
+            height="315"
+            src="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2108,26 +2111,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseSidebarWhenClickOutsideOrMenuItem&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CloseSidebarWhenClickOutsideOrMenuItem"
-            width="460"
-            height="315"
-            src="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseNavbarWhenClickOutsideOrMenuItem&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CloseNavbarWhenClickOutsideOrMenuItem"
+            width="460"
+            height="315"
+            src="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>96</v>
@@ -2148,7 +2151,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ColorfulRotatingSquare002/index.html" target="_blank"&gt;ColorfulRotatingSquare002&lt;/a&gt;
+        &lt;a href="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseSidebarWhenClickOutsideOrMenuItem&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2156,10 +2159,10 @@
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ColorfulRotatingSquare002"
-            width="460"
-            height="315"
-            src="src/ColorfulRotatingSquare002/index.html"
+        <v xml:space="preserve">CloseSidebarWhenClickOutsideOrMenuItem"
+            width="460"
+            height="315"
+            src="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2172,26 +2175,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ColorfulRotatingSquare002/index.html" target="_blank"&gt;ColorfulRotatingSquare002&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ColorfulRotatingSquare002"
-            width="460"
-            height="315"
-            src="src/ColorfulRotatingSquare002/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseSidebarWhenClickOutsideOrMenuItem&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CloseSidebarWhenClickOutsideOrMenuItem"
+            width="460"
+            height="315"
+            src="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>96</v>
@@ -2212,7 +2215,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ContactForm/index.html" target="_blank"&gt;ContactForm&lt;/a&gt;
+        &lt;a href="src/ColorfulRotatingSquare002/index.html" target="_blank"&gt;ColorfulRotatingSquare002&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2220,10 +2223,10 @@
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ContactForm"
-            width="460"
-            height="315"
-            src="src/ContactForm/index.html"
+        <v xml:space="preserve">ColorfulRotatingSquare002"
+            width="460"
+            height="315"
+            src="src/ColorfulRotatingSquare002/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2236,26 +2239,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ContactForm/index.html" target="_blank"&gt;ContactForm&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ContactForm"
-            width="460"
-            height="315"
-            src="src/ContactForm/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/ColorfulRotatingSquare002/index.html" target="_blank"&gt;ColorfulRotatingSquare002&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ColorfulRotatingSquare002"
+            width="460"
+            height="315"
+            src="src/ColorfulRotatingSquare002/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>96</v>
@@ -2276,7 +2279,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeBannerEffects/index.html" target="_blank"&gt;CreativeBannerEffects&lt;/a&gt;
+        &lt;a href="src/ContactForm/index.html" target="_blank"&gt;ContactForm&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2284,10 +2287,10 @@
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CreativeBannerEffects"
-            width="460"
-            height="315"
-            src="src/CreativeBannerEffects/index.html"
+        <v xml:space="preserve">ContactForm"
+            width="460"
+            height="315"
+            src="src/ContactForm/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2300,26 +2303,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeBannerEffects/index.html" target="_blank"&gt;CreativeBannerEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CreativeBannerEffects"
-            width="460"
-            height="315"
-            src="src/CreativeBannerEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/ContactForm/index.html" target="_blank"&gt;ContactForm&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ContactForm"
+            width="460"
+            height="315"
+            src="src/ContactForm/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>96</v>
@@ -2340,7 +2343,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeCSSRadioButton/index.html" target="_blank"&gt;CreativeCSSRadioButton&lt;/a&gt;
+        &lt;a href="src/CreativeBannerEffects/index.html" target="_blank"&gt;CreativeBannerEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2348,10 +2351,10 @@
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CreativeCSSRadioButton"
-            width="460"
-            height="315"
-            src="src/CreativeCSSRadioButton/index.html"
+        <v xml:space="preserve">CreativeBannerEffects"
+            width="460"
+            height="315"
+            src="src/CreativeBannerEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2364,26 +2367,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeCSSRadioButton/index.html" target="_blank"&gt;CreativeCSSRadioButton&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CreativeCSSRadioButton"
-            width="460"
-            height="315"
-            src="src/CreativeCSSRadioButton/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CreativeBannerEffects/index.html" target="_blank"&gt;CreativeBannerEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CreativeBannerEffects"
+            width="460"
+            height="315"
+            src="src/CreativeBannerEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>96</v>
@@ -2404,7 +2407,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeProductCard/index.html" target="_blank"&gt;CreativeProductCard&lt;/a&gt;
+        &lt;a href="src/CreativeCSSRadioButton/index.html" target="_blank"&gt;CreativeCSSRadioButton&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2412,10 +2415,10 @@
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CreativeProductCard"
-            width="460"
-            height="315"
-            src="src/CreativeProductCard/index.html"
+        <v xml:space="preserve">CreativeCSSRadioButton"
+            width="460"
+            height="315"
+            src="src/CreativeCSSRadioButton/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2428,26 +2431,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeProductCard/index.html" target="_blank"&gt;CreativeProductCard&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CreativeProductCard"
-            width="460"
-            height="315"
-            src="src/CreativeProductCard/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CreativeCSSRadioButton/index.html" target="_blank"&gt;CreativeCSSRadioButton&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CreativeCSSRadioButton"
+            width="460"
+            height="315"
+            src="src/CreativeCSSRadioButton/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>96</v>
@@ -2468,7 +2471,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSAnimationEffects/index.html" target="_blank"&gt;CSSAnimationEffects&lt;/a&gt;
+        &lt;a href="src/CreativeProductCard/index.html" target="_blank"&gt;CreativeProductCard&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2476,10 +2479,10 @@
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CSSAnimationEffects"
-            width="460"
-            height="315"
-            src="src/CSSAnimationEffects/index.html"
+        <v xml:space="preserve">CreativeProductCard"
+            width="460"
+            height="315"
+            src="src/CreativeProductCard/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2492,26 +2495,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSAnimationEffects/index.html" target="_blank"&gt;CSSAnimationEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CSSAnimationEffects"
-            width="460"
-            height="315"
-            src="src/CSSAnimationEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CreativeProductCard/index.html" target="_blank"&gt;CreativeProductCard&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CreativeProductCard"
+            width="460"
+            height="315"
+            src="src/CreativeProductCard/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>96</v>
@@ -2532,7 +2535,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSLoadingBarUIDesign/index.html" target="_blank"&gt;CSSLoadingBarUIDesign&lt;/a&gt;
+        &lt;a href="src/CSSAnimationEffects/index.html" target="_blank"&gt;CSSAnimationEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2540,10 +2543,10 @@
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CSSLoadingBarUIDesign"
-            width="460"
-            height="315"
-            src="src/CSSLoadingBarUIDesign/index.html"
+        <v xml:space="preserve">CSSAnimationEffects"
+            width="460"
+            height="315"
+            src="src/CSSAnimationEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2556,26 +2559,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSLoadingBarUIDesign/index.html" target="_blank"&gt;CSSLoadingBarUIDesign&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CSSLoadingBarUIDesign"
-            width="460"
-            height="315"
-            src="src/CSSLoadingBarUIDesign/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CSSAnimationEffects/index.html" target="_blank"&gt;CSSAnimationEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSSAnimationEffects"
+            width="460"
+            height="315"
+            src="src/CSSAnimationEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>96</v>
@@ -2596,7 +2599,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSVerticalText/index.html" target="_blank"&gt;CSSVerticalText&lt;/a&gt;
+        &lt;a href="src/CSSLoadingBarUIDesign/index.html" target="_blank"&gt;CSSLoadingBarUIDesign&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2604,10 +2607,10 @@
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CSSVerticalText"
-            width="460"
-            height="315"
-            src="src/CSSVerticalText/index.html"
+        <v xml:space="preserve">CSSLoadingBarUIDesign"
+            width="460"
+            height="315"
+            src="src/CSSLoadingBarUIDesign/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2620,26 +2623,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSVerticalText/index.html" target="_blank"&gt;CSSVerticalText&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CSSVerticalText"
-            width="460"
-            height="315"
-            src="src/CSSVerticalText/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CSSLoadingBarUIDesign/index.html" target="_blank"&gt;CSSLoadingBarUIDesign&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSSLoadingBarUIDesign"
+            width="460"
+            height="315"
+            src="src/CSSLoadingBarUIDesign/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>96</v>
@@ -2660,7 +2663,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CurtainLayerMenu/index.html" target="_blank"&gt;CurtainLayerMenu&lt;/a&gt;
+        &lt;a href="src/CSSVerticalText/index.html" target="_blank"&gt;CSSVerticalText&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2668,10 +2671,10 @@
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CurtainLayerMenu"
-            width="460"
-            height="315"
-            src="src/CurtainLayerMenu/index.html"
+        <v xml:space="preserve">CSSVerticalText"
+            width="460"
+            height="315"
+            src="src/CSSVerticalText/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2684,26 +2687,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CurtainLayerMenu/index.html" target="_blank"&gt;CurtainLayerMenu&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CurtainLayerMenu"
-            width="460"
-            height="315"
-            src="src/CurtainLayerMenu/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CSSVerticalText/index.html" target="_blank"&gt;CSSVerticalText&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSSVerticalText"
+            width="460"
+            height="315"
+            src="src/CSSVerticalText/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>96</v>
@@ -2724,7 +2727,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CurvedAndColoredDropShadow/index.html" target="_blank"&gt;CurvedAndColoredDropShadow&lt;/a&gt;
+        &lt;a href="src/CurtainLayerMenu/index.html" target="_blank"&gt;CurtainLayerMenu&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2732,10 +2735,10 @@
       </c>
       <c r="H32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CurvedAndColoredDropShadow"
-            width="460"
-            height="315"
-            src="src/CurvedAndColoredDropShadow/index.html"
+        <v xml:space="preserve">CurtainLayerMenu"
+            width="460"
+            height="315"
+            src="src/CurtainLayerMenu/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2748,26 +2751,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CurvedAndColoredDropShadow/index.html" target="_blank"&gt;CurvedAndColoredDropShadow&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CurvedAndColoredDropShadow"
-            width="460"
-            height="315"
-            src="src/CurvedAndColoredDropShadow/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CurtainLayerMenu/index.html" target="_blank"&gt;CurtainLayerMenu&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CurtainLayerMenu"
+            width="460"
+            height="315"
+            src="src/CurtainLayerMenu/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>96</v>
@@ -2788,7 +2791,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CustomSelectDropdown/index.html" target="_blank"&gt;CustomSelectDropdown&lt;/a&gt;
+        &lt;a href="src/CurvedAndColoredDropShadow/index.html" target="_blank"&gt;CurvedAndColoredDropShadow&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2796,10 +2799,10 @@
       </c>
       <c r="H33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CustomSelectDropdown"
-            width="460"
-            height="315"
-            src="src/CustomSelectDropdown/index.html"
+        <v xml:space="preserve">CurvedAndColoredDropShadow"
+            width="460"
+            height="315"
+            src="src/CurvedAndColoredDropShadow/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2812,26 +2815,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CustomSelectDropdown/index.html" target="_blank"&gt;CustomSelectDropdown&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CustomSelectDropdown"
-            width="460"
-            height="315"
-            src="src/CustomSelectDropdown/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CurvedAndColoredDropShadow/index.html" target="_blank"&gt;CurvedAndColoredDropShadow&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CurvedAndColoredDropShadow"
+            width="460"
+            height="315"
+            src="src/CurvedAndColoredDropShadow/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>96</v>
@@ -2852,7 +2855,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/DarkLightToggle/index.html" target="_blank"&gt;DarkLightToggle&lt;/a&gt;
+        &lt;a href="src/CustomSelectDropdown/index.html" target="_blank"&gt;CustomSelectDropdown&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2860,10 +2863,10 @@
       </c>
       <c r="H34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">DarkLightToggle"
-            width="460"
-            height="315"
-            src="src/DarkLightToggle/index.html"
+        <v xml:space="preserve">CustomSelectDropdown"
+            width="460"
+            height="315"
+            src="src/CustomSelectDropdown/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2876,26 +2879,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/DarkLightToggle/index.html" target="_blank"&gt;DarkLightToggle&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="DarkLightToggle"
-            width="460"
-            height="315"
-            src="src/DarkLightToggle/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CustomSelectDropdown/index.html" target="_blank"&gt;CustomSelectDropdown&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CustomSelectDropdown"
+            width="460"
+            height="315"
+            src="src/CustomSelectDropdown/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>96</v>
@@ -2916,7 +2919,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Dashboard/index.html" target="_blank"&gt;Dashboard&lt;/a&gt;
+        &lt;a href="src/DarkLightToggle/index.html" target="_blank"&gt;DarkLightToggle&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2924,10 +2927,10 @@
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Dashboard"
-            width="460"
-            height="315"
-            src="src/Dashboard/index.html"
+        <v xml:space="preserve">DarkLightToggle"
+            width="460"
+            height="315"
+            src="src/DarkLightToggle/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2940,26 +2943,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Dashboard/index.html" target="_blank"&gt;Dashboard&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Dashboard"
-            width="460"
-            height="315"
-            src="src/Dashboard/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/DarkLightToggle/index.html" target="_blank"&gt;DarkLightToggle&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="DarkLightToggle"
+            width="460"
+            height="315"
+            src="src/DarkLightToggle/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>96</v>
@@ -2980,7 +2983,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/DropdonwMenu03/index.html" target="_blank"&gt;DropdonwMenu03&lt;/a&gt;
+        &lt;a href="src/Dashboard/index.html" target="_blank"&gt;Dashboard&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2988,10 +2991,10 @@
       </c>
       <c r="H36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">DropdonwMenu03"
-            width="460"
-            height="315"
-            src="src/DropdonwMenu03/index.html"
+        <v xml:space="preserve">Dashboard"
+            width="460"
+            height="315"
+            src="src/Dashboard/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3004,26 +3007,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/DropdonwMenu03/index.html" target="_blank"&gt;DropdonwMenu03&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="DropdonwMenu03"
-            width="460"
-            height="315"
-            src="src/DropdonwMenu03/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/Dashboard/index.html" target="_blank"&gt;Dashboard&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Dashboard"
+            width="460"
+            height="315"
+            src="src/Dashboard/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>96</v>
@@ -3044,7 +3047,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FireTextSVG01/index.html" target="_blank"&gt;FireTextSVG01&lt;/a&gt;
+        &lt;a href="src/DropdonwMenu03/index.html" target="_blank"&gt;DropdonwMenu03&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3052,10 +3055,10 @@
       </c>
       <c r="H37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FireTextSVG01"
-            width="460"
-            height="315"
-            src="src/FireTextSVG01/index.html"
+        <v xml:space="preserve">DropdonwMenu03"
+            width="460"
+            height="315"
+            src="src/DropdonwMenu03/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3068,26 +3071,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FireTextSVG01/index.html" target="_blank"&gt;FireTextSVG01&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="FireTextSVG01"
-            width="460"
-            height="315"
-            src="src/FireTextSVG01/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/DropdonwMenu03/index.html" target="_blank"&gt;DropdonwMenu03&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="DropdonwMenu03"
+            width="460"
+            height="315"
+            src="src/DropdonwMenu03/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>96</v>
@@ -3108,7 +3111,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FlipImageCheckBox/index.html" target="_blank"&gt;FlipImageCheckBox&lt;/a&gt;
+        &lt;a href="src/FireTextSVG01/index.html" target="_blank"&gt;FireTextSVG01&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3116,10 +3119,10 @@
       </c>
       <c r="H38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FlipImageCheckBox"
-            width="460"
-            height="315"
-            src="src/FlipImageCheckBox/index.html"
+        <v xml:space="preserve">FireTextSVG01"
+            width="460"
+            height="315"
+            src="src/FireTextSVG01/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3132,26 +3135,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FlipImageCheckBox/index.html" target="_blank"&gt;FlipImageCheckBox&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="FlipImageCheckBox"
-            width="460"
-            height="315"
-            src="src/FlipImageCheckBox/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/FireTextSVG01/index.html" target="_blank"&gt;FireTextSVG01&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="FireTextSVG01"
+            width="460"
+            height="315"
+            src="src/FireTextSVG01/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>96</v>
@@ -3172,7 +3175,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FontawesomeBackgroundAnimation/index.html" target="_blank"&gt;FontawesomeBackgroundAnimation&lt;/a&gt;
+        &lt;a href="src/FlipImageCheckBox/index.html" target="_blank"&gt;FlipImageCheckBox&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3180,10 +3183,10 @@
       </c>
       <c r="H39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FontawesomeBackgroundAnimation"
-            width="460"
-            height="315"
-            src="src/FontawesomeBackgroundAnimation/index.html"
+        <v xml:space="preserve">FlipImageCheckBox"
+            width="460"
+            height="315"
+            src="src/FlipImageCheckBox/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3196,26 +3199,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FontawesomeBackgroundAnimation/index.html" target="_blank"&gt;FontawesomeBackgroundAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="FontawesomeBackgroundAnimation"
-            width="460"
-            height="315"
-            src="src/FontawesomeBackgroundAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/FlipImageCheckBox/index.html" target="_blank"&gt;FlipImageCheckBox&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="FlipImageCheckBox"
+            width="460"
+            height="315"
+            src="src/FlipImageCheckBox/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>96</v>
@@ -3236,7 +3239,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FullscreenMenuSticky/index.html" target="_blank"&gt;FullscreenMenuSticky&lt;/a&gt;
+        &lt;a href="src/FontawesomeBackgroundAnimation/index.html" target="_blank"&gt;FontawesomeBackgroundAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3244,10 +3247,10 @@
       </c>
       <c r="H40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FullscreenMenuSticky"
-            width="460"
-            height="315"
-            src="src/FullscreenMenuSticky/index.html"
+        <v xml:space="preserve">FontawesomeBackgroundAnimation"
+            width="460"
+            height="315"
+            src="src/FontawesomeBackgroundAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3260,26 +3263,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FullscreenMenuSticky/index.html" target="_blank"&gt;FullscreenMenuSticky&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="FullscreenMenuSticky"
-            width="460"
-            height="315"
-            src="src/FullscreenMenuSticky/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/FontawesomeBackgroundAnimation/index.html" target="_blank"&gt;FontawesomeBackgroundAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="FontawesomeBackgroundAnimation"
+            width="460"
+            height="315"
+            src="src/FontawesomeBackgroundAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>96</v>
@@ -3300,7 +3303,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismButton/index.html" target="_blank"&gt;GlassmorphismButton&lt;/a&gt;
+        &lt;a href="src/FullscreenMenuSticky/index.html" target="_blank"&gt;FullscreenMenuSticky&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3308,10 +3311,10 @@
       </c>
       <c r="H41" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismButton"
-            width="460"
-            height="315"
-            src="src/GlassmorphismButton/index.html"
+        <v xml:space="preserve">FullscreenMenuSticky"
+            width="460"
+            height="315"
+            src="src/FullscreenMenuSticky/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3324,26 +3327,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismButton/index.html" target="_blank"&gt;GlassmorphismButton&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismButton"
-            width="460"
-            height="315"
-            src="src/GlassmorphismButton/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/FullscreenMenuSticky/index.html" target="_blank"&gt;FullscreenMenuSticky&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="FullscreenMenuSticky"
+            width="460"
+            height="315"
+            src="src/FullscreenMenuSticky/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>96</v>
@@ -3364,7 +3367,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismCardsHoverEffects02/index.html" target="_blank"&gt;GlassmorphismCardsHoverEffects02&lt;/a&gt;
+        &lt;a href="src/GlassmorphismButton/index.html" target="_blank"&gt;GlassmorphismButton&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3372,10 +3375,10 @@
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismCardsHoverEffects02"
-            width="460"
-            height="315"
-            src="src/GlassmorphismCardsHoverEffects02/index.html"
+        <v xml:space="preserve">GlassmorphismButton"
+            width="460"
+            height="315"
+            src="src/GlassmorphismButton/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3388,26 +3391,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismCardsHoverEffects02/index.html" target="_blank"&gt;GlassmorphismCardsHoverEffects02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismCardsHoverEffects02"
-            width="460"
-            height="315"
-            src="src/GlassmorphismCardsHoverEffects02/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismButton/index.html" target="_blank"&gt;GlassmorphismButton&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismButton"
+            width="460"
+            height="315"
+            src="src/GlassmorphismButton/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>96</v>
@@ -3428,7 +3431,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismDigitalClock/index.html" target="_blank"&gt;GlassmorphismDigitalClock&lt;/a&gt;
+        &lt;a href="src/GlassmorphismCardsHoverEffects02/index.html" target="_blank"&gt;GlassmorphismCardsHoverEffects02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3436,10 +3439,10 @@
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismDigitalClock"
-            width="460"
-            height="315"
-            src="src/GlassmorphismDigitalClock/index.html"
+        <v xml:space="preserve">GlassmorphismCardsHoverEffects02"
+            width="460"
+            height="315"
+            src="src/GlassmorphismCardsHoverEffects02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3452,26 +3455,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismDigitalClock/index.html" target="_blank"&gt;GlassmorphismDigitalClock&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismDigitalClock"
-            width="460"
-            height="315"
-            src="src/GlassmorphismDigitalClock/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismCardsHoverEffects02/index.html" target="_blank"&gt;GlassmorphismCardsHoverEffects02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismCardsHoverEffects02"
+            width="460"
+            height="315"
+            src="src/GlassmorphismCardsHoverEffects02/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>96</v>
@@ -3492,7 +3495,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismHoverEffectsZ-index/index.html" target="_blank"&gt;GlassmorphismHoverEffectsZ-index&lt;/a&gt;
+        &lt;a href="src/GlassmorphismDigitalClock/index.html" target="_blank"&gt;GlassmorphismDigitalClock&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3500,10 +3503,10 @@
       </c>
       <c r="H44" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismHoverEffectsZ-index"
-            width="460"
-            height="315"
-            src="src/GlassmorphismHoverEffectsZ-index/index.html"
+        <v xml:space="preserve">GlassmorphismDigitalClock"
+            width="460"
+            height="315"
+            src="src/GlassmorphismDigitalClock/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3516,26 +3519,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismHoverEffectsZ-index/index.html" target="_blank"&gt;GlassmorphismHoverEffectsZ-index&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismHoverEffectsZ-index"
-            width="460"
-            height="315"
-            src="src/GlassmorphismHoverEffectsZ-index/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismDigitalClock/index.html" target="_blank"&gt;GlassmorphismDigitalClock&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismDigitalClock"
+            width="460"
+            height="315"
+            src="src/GlassmorphismDigitalClock/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>96</v>
@@ -3556,7 +3559,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismIconHoverEffects/index.html" target="_blank"&gt;GlassmorphismIconHoverEffects&lt;/a&gt;
+        &lt;a href="src/GlassmorphismHoverEffectsZ-index/index.html" target="_blank"&gt;GlassmorphismHoverEffectsZ-index&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3564,10 +3567,10 @@
       </c>
       <c r="H45" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismIconHoverEffects"
-            width="460"
-            height="315"
-            src="src/GlassmorphismIconHoverEffects/index.html"
+        <v xml:space="preserve">GlassmorphismHoverEffectsZ-index"
+            width="460"
+            height="315"
+            src="src/GlassmorphismHoverEffectsZ-index/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3580,26 +3583,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismIconHoverEffects/index.html" target="_blank"&gt;GlassmorphismIconHoverEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismIconHoverEffects"
-            width="460"
-            height="315"
-            src="src/GlassmorphismIconHoverEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismHoverEffectsZ-index/index.html" target="_blank"&gt;GlassmorphismHoverEffectsZ-index&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismHoverEffectsZ-index"
+            width="460"
+            height="315"
+            src="src/GlassmorphismHoverEffectsZ-index/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>96</v>
@@ -3620,7 +3623,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismLoginForm/index.html" target="_blank"&gt;GlassmorphismLoginForm&lt;/a&gt;
+        &lt;a href="src/GlassmorphismIconHoverEffects/index.html" target="_blank"&gt;GlassmorphismIconHoverEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3628,10 +3631,10 @@
       </c>
       <c r="H46" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismLoginForm"
-            width="460"
-            height="315"
-            src="src/GlassmorphismLoginForm/index.html"
+        <v xml:space="preserve">GlassmorphismIconHoverEffects"
+            width="460"
+            height="315"
+            src="src/GlassmorphismIconHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3644,26 +3647,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismLoginForm/index.html" target="_blank"&gt;GlassmorphismLoginForm&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismLoginForm"
-            width="460"
-            height="315"
-            src="src/GlassmorphismLoginForm/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismIconHoverEffects/index.html" target="_blank"&gt;GlassmorphismIconHoverEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismIconHoverEffects"
+            width="460"
+            height="315"
+            src="src/GlassmorphismIconHoverEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>96</v>
@@ -3684,7 +3687,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismParallax/index.html" target="_blank"&gt;GlassmorphismParallax&lt;/a&gt;
+        &lt;a href="src/GlassmorphismLoginForm/index.html" target="_blank"&gt;GlassmorphismLoginForm&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3692,10 +3695,10 @@
       </c>
       <c r="H47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismParallax"
-            width="460"
-            height="315"
-            src="src/GlassmorphismParallax/index.html"
+        <v xml:space="preserve">GlassmorphismLoginForm"
+            width="460"
+            height="315"
+            src="src/GlassmorphismLoginForm/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3708,26 +3711,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismParallax/index.html" target="_blank"&gt;GlassmorphismParallax&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismParallax"
-            width="460"
-            height="315"
-            src="src/GlassmorphismParallax/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismLoginForm/index.html" target="_blank"&gt;GlassmorphismLoginForm&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismLoginForm"
+            width="460"
+            height="315"
+            src="src/GlassmorphismLoginForm/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>96</v>
@@ -3748,7 +3751,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismProductCards/index.html" target="_blank"&gt;GlassmorphismProductCards&lt;/a&gt;
+        &lt;a href="src/GlassmorphismParallax/index.html" target="_blank"&gt;GlassmorphismParallax&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3756,10 +3759,10 @@
       </c>
       <c r="H48" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismProductCards"
-            width="460"
-            height="315"
-            src="src/GlassmorphismProductCards/index.html"
+        <v xml:space="preserve">GlassmorphismParallax"
+            width="460"
+            height="315"
+            src="src/GlassmorphismParallax/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3772,26 +3775,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismProductCards/index.html" target="_blank"&gt;GlassmorphismProductCards&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismProductCards"
-            width="460"
-            height="315"
-            src="src/GlassmorphismProductCards/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismParallax/index.html" target="_blank"&gt;GlassmorphismParallax&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismParallax"
+            width="460"
+            height="315"
+            src="src/GlassmorphismParallax/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>96</v>
@@ -3812,7 +3815,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismUserCard/index.html" target="_blank"&gt;GlassmorphismUserCard&lt;/a&gt;
+        &lt;a href="src/GlassmorphismProductCards/index.html" target="_blank"&gt;GlassmorphismProductCards&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3820,10 +3823,10 @@
       </c>
       <c r="H49" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismUserCard"
-            width="460"
-            height="315"
-            src="src/GlassmorphismUserCard/index.html"
+        <v xml:space="preserve">GlassmorphismProductCards"
+            width="460"
+            height="315"
+            src="src/GlassmorphismProductCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3836,26 +3839,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismUserCard/index.html" target="_blank"&gt;GlassmorphismUserCard&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismUserCard"
-            width="460"
-            height="315"
-            src="src/GlassmorphismUserCard/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismProductCards/index.html" target="_blank"&gt;GlassmorphismProductCards&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismProductCards"
+            width="460"
+            height="315"
+            src="src/GlassmorphismProductCards/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>96</v>
@@ -3876,7 +3879,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismWebSite/index.html" target="_blank"&gt;GlassmorphismWebSite&lt;/a&gt;
+        &lt;a href="src/GlassmorphismUserCard/index.html" target="_blank"&gt;GlassmorphismUserCard&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3884,10 +3887,10 @@
       </c>
       <c r="H50" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismWebSite"
-            width="460"
-            height="315"
-            src="src/GlassmorphismWebSite/index.html"
+        <v xml:space="preserve">GlassmorphismUserCard"
+            width="460"
+            height="315"
+            src="src/GlassmorphismUserCard/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3900,26 +3903,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismWebSite/index.html" target="_blank"&gt;GlassmorphismWebSite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismWebSite"
-            width="460"
-            height="315"
-            src="src/GlassmorphismWebSite/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismUserCard/index.html" target="_blank"&gt;GlassmorphismUserCard&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismUserCard"
+            width="460"
+            height="315"
+            src="src/GlassmorphismUserCard/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>96</v>
@@ -3940,7 +3943,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassShutter/index.html" target="_blank"&gt;GlassShutter&lt;/a&gt;
+        &lt;a href="src/GlassmorphismWebSite/index.html" target="_blank"&gt;GlassmorphismWebSite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3948,10 +3951,10 @@
       </c>
       <c r="H51" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassShutter"
-            width="460"
-            height="315"
-            src="src/GlassShutter/index.html"
+        <v xml:space="preserve">GlassmorphismWebSite"
+            width="460"
+            height="315"
+            src="src/GlassmorphismWebSite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3964,26 +3967,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassShutter/index.html" target="_blank"&gt;GlassShutter&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassShutter"
-            width="460"
-            height="315"
-            src="src/GlassShutter/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismWebSite/index.html" target="_blank"&gt;GlassmorphismWebSite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismWebSite"
+            width="460"
+            height="315"
+            src="src/GlassmorphismWebSite/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>96</v>
@@ -4004,7 +4007,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlobeCircleTextAnimation/index.html" target="_blank"&gt;GlobeCircleTextAnimation&lt;/a&gt;
+        &lt;a href="src/GlassShutter/index.html" target="_blank"&gt;GlassShutter&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4012,10 +4015,10 @@
       </c>
       <c r="H52" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlobeCircleTextAnimation"
-            width="460"
-            height="315"
-            src="src/GlobeCircleTextAnimation/index.html"
+        <v xml:space="preserve">GlassShutter"
+            width="460"
+            height="315"
+            src="src/GlassShutter/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4028,26 +4031,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlobeCircleTextAnimation/index.html" target="_blank"&gt;GlobeCircleTextAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlobeCircleTextAnimation"
-            width="460"
-            height="315"
-            src="src/GlobeCircleTextAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassShutter/index.html" target="_blank"&gt;GlassShutter&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassShutter"
+            width="460"
+            height="315"
+            src="src/GlassShutter/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>96</v>
@@ -4068,7 +4071,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlowingDots03/index.html" target="_blank"&gt;GlowingDots03&lt;/a&gt;
+        &lt;a href="src/GlobeCircleTextAnimation/index.html" target="_blank"&gt;GlobeCircleTextAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4076,10 +4079,10 @@
       </c>
       <c r="H53" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlowingDots03"
-            width="460"
-            height="315"
-            src="src/GlowingDots03/index.html"
+        <v xml:space="preserve">GlobeCircleTextAnimation"
+            width="460"
+            height="315"
+            src="src/GlobeCircleTextAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4092,26 +4095,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlowingDots03/index.html" target="_blank"&gt;GlowingDots03&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlowingDots03"
-            width="460"
-            height="315"
-            src="src/GlowingDots03/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlobeCircleTextAnimation/index.html" target="_blank"&gt;GlobeCircleTextAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlobeCircleTextAnimation"
+            width="460"
+            height="315"
+            src="src/GlobeCircleTextAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>96</v>
@@ -4132,7 +4135,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GooeyCircleLoader/index.html" target="_blank"&gt;GooeyCircleLoader&lt;/a&gt;
+        &lt;a href="src/GlowingDots03/index.html" target="_blank"&gt;GlowingDots03&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4140,10 +4143,10 @@
       </c>
       <c r="H54" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GooeyCircleLoader"
-            width="460"
-            height="315"
-            src="src/GooeyCircleLoader/index.html"
+        <v xml:space="preserve">GlowingDots03"
+            width="460"
+            height="315"
+            src="src/GlowingDots03/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4156,26 +4159,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GooeyCircleLoader/index.html" target="_blank"&gt;GooeyCircleLoader&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GooeyCircleLoader"
-            width="460"
-            height="315"
-            src="src/GooeyCircleLoader/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlowingDots03/index.html" target="_blank"&gt;GlowingDots03&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlowingDots03"
+            width="460"
+            height="315"
+            src="src/GlowingDots03/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>96</v>
@@ -4196,7 +4199,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
+        &lt;a href="src/GooeyCircleLoader/index.html" target="_blank"&gt;GooeyCircleLoader&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4204,10 +4207,10 @@
       </c>
       <c r="H55" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GradientBorderCards"
-            width="460"
-            height="315"
-            src="src/GradientBorderCards/index.html"
+        <v xml:space="preserve">GooeyCircleLoader"
+            width="460"
+            height="315"
+            src="src/GooeyCircleLoader/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4220,26 +4223,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GradientBorderCards"
-            width="460"
-            height="315"
-            src="src/GradientBorderCards/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GooeyCircleLoader/index.html" target="_blank"&gt;GooeyCircleLoader&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GooeyCircleLoader"
+            width="460"
+            height="315"
+            src="src/GooeyCircleLoader/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>96</v>
@@ -4260,7 +4263,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GradientGlowingGlassmorphismCards/index.html" target="_blank"&gt;GradientGlowingGlassmorphismCards&lt;/a&gt;
+        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4268,10 +4271,10 @@
       </c>
       <c r="H56" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GradientGlowingGlassmorphismCards"
-            width="460"
-            height="315"
-            src="src/GradientGlowingGlassmorphismCards/index.html"
+        <v xml:space="preserve">GradientBorderCards"
+            width="460"
+            height="315"
+            src="src/GradientBorderCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4284,26 +4287,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GradientGlowingGlassmorphismCards/index.html" target="_blank"&gt;GradientGlowingGlassmorphismCards&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GradientGlowingGlassmorphismCards"
-            width="460"
-            height="315"
-            src="src/GradientGlowingGlassmorphismCards/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GradientBorderCards"
+            width="460"
+            height="315"
+            src="src/GradientBorderCards/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>96</v>
@@ -4324,7 +4327,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GSAPMousemoveFollowFun/index.html" target="_blank"&gt;GSAPMousemoveFollowFun&lt;/a&gt;
+        &lt;a href="src/GradientGlowingGlassmorphismCards/index.html" target="_blank"&gt;GradientGlowingGlassmorphismCards&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4332,10 +4335,10 @@
       </c>
       <c r="H57" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GSAPMousemoveFollowFun"
-            width="460"
-            height="315"
-            src="src/GSAPMousemoveFollowFun/index.html"
+        <v xml:space="preserve">GradientGlowingGlassmorphismCards"
+            width="460"
+            height="315"
+            src="src/GradientGlowingGlassmorphismCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4348,26 +4351,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GSAPMousemoveFollowFun/index.html" target="_blank"&gt;GSAPMousemoveFollowFun&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GSAPMousemoveFollowFun"
-            width="460"
-            height="315"
-            src="src/GSAPMousemoveFollowFun/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GradientGlowingGlassmorphismCards/index.html" target="_blank"&gt;GradientGlowingGlassmorphismCards&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GradientGlowingGlassmorphismCards"
+            width="460"
+            height="315"
+            src="src/GradientGlowingGlassmorphismCards/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>96</v>
@@ -4388,7 +4391,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GSAPTextMousemoveFollowFun/index.html" target="_blank"&gt;GSAPTextMousemoveFollowFun&lt;/a&gt;
+        &lt;a href="src/GSAPMousemoveFollowFun/index.html" target="_blank"&gt;GSAPMousemoveFollowFun&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4396,10 +4399,10 @@
       </c>
       <c r="H58" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GSAPTextMousemoveFollowFun"
-            width="460"
-            height="315"
-            src="src/GSAPTextMousemoveFollowFun/index.html"
+        <v xml:space="preserve">GSAPMousemoveFollowFun"
+            width="460"
+            height="315"
+            src="src/GSAPMousemoveFollowFun/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4412,26 +4415,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GSAPTextMousemoveFollowFun/index.html" target="_blank"&gt;GSAPTextMousemoveFollowFun&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GSAPTextMousemoveFollowFun"
-            width="460"
-            height="315"
-            src="src/GSAPTextMousemoveFollowFun/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GSAPMousemoveFollowFun/index.html" target="_blank"&gt;GSAPMousemoveFollowFun&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GSAPMousemoveFollowFun"
+            width="460"
+            height="315"
+            src="src/GSAPMousemoveFollowFun/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>96</v>
@@ -4452,7 +4455,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/HappyChristmas2020/index.html" target="_blank"&gt;HappyChristmas2020&lt;/a&gt;
+        &lt;a href="src/GSAPTextMousemoveFollowFun/index.html" target="_blank"&gt;GSAPTextMousemoveFollowFun&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4460,10 +4463,10 @@
       </c>
       <c r="H59" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">HappyChristmas2020"
-            width="460"
-            height="315"
-            src="src/HappyChristmas2020/index.html"
+        <v xml:space="preserve">GSAPTextMousemoveFollowFun"
+            width="460"
+            height="315"
+            src="src/GSAPTextMousemoveFollowFun/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4476,26 +4479,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/HappyChristmas2020/index.html" target="_blank"&gt;HappyChristmas2020&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="HappyChristmas2020"
-            width="460"
-            height="315"
-            src="src/HappyChristmas2020/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GSAPTextMousemoveFollowFun/index.html" target="_blank"&gt;GSAPTextMousemoveFollowFun&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GSAPTextMousemoveFollowFun"
+            width="460"
+            height="315"
+            src="src/GSAPTextMousemoveFollowFun/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>96</v>
@@ -4516,7 +4519,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
+        &lt;a href="src/HappyChristmas2020/index.html" target="_blank"&gt;HappyChristmas2020&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4524,10 +4527,10 @@
       </c>
       <c r="H60" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Heroes_ResponsiveWebsiteLandingPage"
-            width="460"
-            height="315"
-            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
+        <v xml:space="preserve">HappyChristmas2020"
+            width="460"
+            height="315"
+            src="src/HappyChristmas2020/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4540,26 +4543,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Heroes_ResponsiveWebsiteLandingPage"
-            width="460"
-            height="315"
-            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/HappyChristmas2020/index.html" target="_blank"&gt;HappyChristmas2020&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="HappyChristmas2020"
+            width="460"
+            height="315"
+            src="src/HappyChristmas2020/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>96</v>
@@ -4580,7 +4583,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/HexagonShapeDiv/index.html" target="_blank"&gt;HexagonShapeDiv&lt;/a&gt;
+        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4588,10 +4591,10 @@
       </c>
       <c r="H61" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">HexagonShapeDiv"
-            width="460"
-            height="315"
-            src="src/HexagonShapeDiv/index.html"
+        <v xml:space="preserve">Heroes_ResponsiveWebsiteLandingPage"
+            width="460"
+            height="315"
+            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4604,26 +4607,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/HexagonShapeDiv/index.html" target="_blank"&gt;HexagonShapeDiv&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="HexagonShapeDiv"
-            width="460"
-            height="315"
-            src="src/HexagonShapeDiv/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Heroes_ResponsiveWebsiteLandingPage"
+            width="460"
+            height="315"
+            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>96</v>
@@ -4644,7 +4647,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/imageHoverEffects/index.html" target="_blank"&gt;imageHoverEffects&lt;/a&gt;
+        &lt;a href="src/HexagonShapeDiv/index.html" target="_blank"&gt;HexagonShapeDiv&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4652,10 +4655,10 @@
       </c>
       <c r="H62" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">imageHoverEffects"
-            width="460"
-            height="315"
-            src="src/imageHoverEffects/index.html"
+        <v xml:space="preserve">HexagonShapeDiv"
+            width="460"
+            height="315"
+            src="src/HexagonShapeDiv/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4668,26 +4671,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/imageHoverEffects/index.html" target="_blank"&gt;imageHoverEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="imageHoverEffects"
-            width="460"
-            height="315"
-            src="src/imageHoverEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/HexagonShapeDiv/index.html" target="_blank"&gt;HexagonShapeDiv&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="HexagonShapeDiv"
+            width="460"
+            height="315"
+            src="src/HexagonShapeDiv/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>96</v>
@@ -4708,7 +4711,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JavascriptClipPathScroll02/index.html" target="_blank"&gt;JavascriptClipPathScroll02&lt;/a&gt;
+        &lt;a href="src/imageHoverEffects/index.html" target="_blank"&gt;imageHoverEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4716,10 +4719,10 @@
       </c>
       <c r="H63" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">JavascriptClipPathScroll02"
-            width="460"
-            height="315"
-            src="src/JavascriptClipPathScroll02/index.html"
+        <v xml:space="preserve">imageHoverEffects"
+            width="460"
+            height="315"
+            src="src/imageHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4732,26 +4735,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JavascriptClipPathScroll02/index.html" target="_blank"&gt;JavascriptClipPathScroll02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="JavascriptClipPathScroll02"
-            width="460"
-            height="315"
-            src="src/JavascriptClipPathScroll02/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/imageHoverEffects/index.html" target="_blank"&gt;imageHoverEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="imageHoverEffects"
+            width="460"
+            height="315"
+            src="src/imageHoverEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>96</v>
@@ -4772,7 +4775,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JsAnimation/index.html" target="_blank"&gt;JsAnimation&lt;/a&gt;
+        &lt;a href="src/JavascriptClipPathScroll02/index.html" target="_blank"&gt;JavascriptClipPathScroll02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4780,10 +4783,10 @@
       </c>
       <c r="H64" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">JsAnimation"
-            width="460"
-            height="315"
-            src="src/JsAnimation/index.html"
+        <v xml:space="preserve">JavascriptClipPathScroll02"
+            width="460"
+            height="315"
+            src="src/JavascriptClipPathScroll02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4796,26 +4799,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JsAnimation/index.html" target="_blank"&gt;JsAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="JsAnimation"
-            width="460"
-            height="315"
-            src="src/JsAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/JavascriptClipPathScroll02/index.html" target="_blank"&gt;JavascriptClipPathScroll02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="JavascriptClipPathScroll02"
+            width="460"
+            height="315"
+            src="src/JavascriptClipPathScroll02/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>96</v>
@@ -4836,7 +4839,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
+        &lt;a href="src/JsAnimation/index.html" target="_blank"&gt;JsAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4844,10 +4847,10 @@
       </c>
       <c r="H65" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">JsAnimation2"
-            width="460"
-            height="315"
-            src="src/JsAnimation2/index.html"
+        <v xml:space="preserve">JsAnimation"
+            width="460"
+            height="315"
+            src="src/JsAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4860,26 +4863,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="JsAnimation2"
-            width="460"
-            height="315"
-            src="src/JsAnimation2/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/JsAnimation/index.html" target="_blank"&gt;JsAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="JsAnimation"
+            width="460"
+            height="315"
+            src="src/JsAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>96</v>
@@ -4900,7 +4903,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JustForFunMousemoveEffectsJS/index.html" target="_blank"&gt;JustForFunMousemoveEffectsJS&lt;/a&gt;
+        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4908,10 +4911,10 @@
       </c>
       <c r="H66" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">JustForFunMousemoveEffectsJS"
-            width="460"
-            height="315"
-            src="src/JustForFunMousemoveEffectsJS/index.html"
+        <v xml:space="preserve">JsAnimation2"
+            width="460"
+            height="315"
+            src="src/JsAnimation2/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4924,26 +4927,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JustForFunMousemoveEffectsJS/index.html" target="_blank"&gt;JustForFunMousemoveEffectsJS&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="JustForFunMousemoveEffectsJS"
-            width="460"
-            height="315"
-            src="src/JustForFunMousemoveEffectsJS/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="JsAnimation2"
+            width="460"
+            height="315"
+            src="src/JsAnimation2/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>96</v>
@@ -4964,7 +4967,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/LettersCountJavascript/index.html" target="_blank"&gt;LettersCountJavascript&lt;/a&gt;
+        &lt;a href="src/JustForFunMousemoveEffectsJS/index.html" target="_blank"&gt;JustForFunMousemoveEffectsJS&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4972,10 +4975,10 @@
       </c>
       <c r="H67" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">LettersCountJavascript"
-            width="460"
-            height="315"
-            src="src/LettersCountJavascript/index.html"
+        <v xml:space="preserve">JustForFunMousemoveEffectsJS"
+            width="460"
+            height="315"
+            src="src/JustForFunMousemoveEffectsJS/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4988,10 +4991,74 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
+        &lt;a href="src/JustForFunMousemoveEffectsJS/index.html" target="_blank"&gt;JustForFunMousemoveEffectsJS&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="JustForFunMousemoveEffectsJS"
+            width="460"
+            height="315"
+            src="src/JustForFunMousemoveEffectsJS/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
         &lt;a href="src/LettersCountJavascript/index.html" target="_blank"&gt;LettersCountJavascript&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
+            title="</v>
+      </c>
+      <c r="H68" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">LettersCountJavascript"
+            width="460"
+            height="315"
+            src="src/LettersCountJavascript/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I68" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/LettersCountJavascript/index.html" target="_blank"&gt;LettersCountJavascript&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
             title="LettersCountJavascript"
             width="460"
             height="315"
@@ -5005,27 +5072,27 @@
       </v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="4" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G68" s="3" t="str">
-        <f t="shared" ref="G68:G97" si="3">_xlfn.CONCAT($B68,$A68,$C68,$A68,$D68)</f>
+      <c r="B69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" ref="G69:G98" si="3">_xlfn.CONCAT($B69,$A69,$C69,$A69,$D69)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/LoadingAnimationEffects/index.html" target="_blank"&gt;LoadingAnimationEffects&lt;/a&gt;
@@ -5034,8 +5101,8 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H68" s="3" t="str">
-        <f t="shared" ref="H68:H97" si="4">_xlfn.CONCAT($A68,$E68,$A68,$F68)</f>
+      <c r="H69" s="3" t="str">
+        <f t="shared" ref="H69:H98" si="4">_xlfn.CONCAT($A69,$E69,$A69,$F69)</f>
         <v xml:space="preserve">LoadingAnimationEffects"
             width="460"
             height="315"
@@ -5048,8 +5115,8 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I68" s="7" t="str">
-        <f t="shared" ref="I68:I97" si="5">_xlfn.CONCAT($G68,$H68)</f>
+      <c r="I69" s="7" t="str">
+        <f t="shared" ref="I69:I98" si="5">_xlfn.CONCAT($G69,$H69)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/LoadingAnimationEffects/index.html" target="_blank"&gt;LoadingAnimationEffects&lt;/a&gt;
@@ -5069,26 +5136,26 @@
       </v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="4" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G69" s="3" t="str">
+      <c r="B70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G70" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5098,7 +5165,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H69" s="3" t="str">
+      <c r="H70" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">MenuToggleJavascript"
             width="460"
@@ -5112,7 +5179,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I69" s="7" t="str">
+      <c r="I70" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5133,26 +5200,26 @@
       </v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G70" s="3" t="str">
+      <c r="B71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G71" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5162,7 +5229,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H70" s="3" t="str">
+      <c r="H71" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NavigationDrawer"
             width="460"
@@ -5176,7 +5243,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I70" s="7" t="str">
+      <c r="I71" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5197,26 +5264,26 @@
       </v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="4" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G71" s="3" t="str">
+      <c r="B72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G72" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5226,7 +5293,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H71" s="3" t="str">
+      <c r="H72" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NavigationMenuHoverEffects"
             width="460"
@@ -5240,7 +5307,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I71" s="7" t="str">
+      <c r="I72" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5261,26 +5328,26 @@
       </v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="4" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G72" s="3" t="str">
+      <c r="B73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G73" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5290,7 +5357,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H72" s="3" t="str">
+      <c r="H73" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NavigationTooltip"
             width="460"
@@ -5304,7 +5371,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I72" s="7" t="str">
+      <c r="I73" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5325,26 +5392,26 @@
       </v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G73" s="3" t="str">
+      <c r="B74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G74" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5354,7 +5421,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H73" s="3" t="str">
+      <c r="H74" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NavigationWithIcons"
             width="460"
@@ -5368,7 +5435,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I73" s="7" t="str">
+      <c r="I74" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5389,26 +5456,26 @@
       </v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="4" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G74" s="3" t="str">
+      <c r="B75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G75" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5418,7 +5485,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H74" s="3" t="str">
+      <c r="H75" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NetflixLandingPageUI"
             width="460"
@@ -5432,7 +5499,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I74" s="7" t="str">
+      <c r="I75" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5453,26 +5520,26 @@
       </v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="4" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G75" s="3" t="str">
+      <c r="B76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G76" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5482,7 +5549,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H75" s="3" t="str">
+      <c r="H76" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NeumorphismCheckBox"
             width="460"
@@ -5496,7 +5563,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I75" s="7" t="str">
+      <c r="I76" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5517,26 +5584,26 @@
       </v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="4" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G76" s="3" t="str">
+      <c r="B77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G77" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5546,7 +5613,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H76" s="3" t="str">
+      <c r="H77" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NeumorphismPricingCardUIDesign"
             width="460"
@@ -5560,7 +5627,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I76" s="7" t="str">
+      <c r="I77" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5581,26 +5648,26 @@
       </v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="4" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G77" s="3" t="str">
+      <c r="B78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G78" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5610,7 +5677,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H77" s="3" t="str">
+      <c r="H78" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PaintBrushTextEffects"
             width="460"
@@ -5624,7 +5691,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I77" s="7" t="str">
+      <c r="I78" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5645,26 +5712,26 @@
       </v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="4" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G78" s="3" t="str">
+      <c r="B79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G79" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5674,7 +5741,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H78" s="3" t="str">
+      <c r="H79" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PepsiCardHoverEffects"
             width="460"
@@ -5688,7 +5755,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I78" s="7" t="str">
+      <c r="I79" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5709,26 +5776,26 @@
       </v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="4" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G79" s="3" t="str">
+      <c r="B80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G80" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5738,7 +5805,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H79" s="3" t="str">
+      <c r="H80" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PersonalPortfolio"
             width="460"
@@ -5752,7 +5819,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I79" s="7" t="str">
+      <c r="I80" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5773,26 +5840,26 @@
       </v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="4" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G80" s="3" t="str">
+      <c r="B81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G81" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5802,7 +5869,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H80" s="3" t="str">
+      <c r="H81" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PlaceImageInsideSilhouette"
             width="460"
@@ -5816,7 +5883,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I80" s="7" t="str">
+      <c r="I81" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5837,26 +5904,26 @@
       </v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="4" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G81" s="3" t="str">
+      <c r="B82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G82" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5866,7 +5933,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H81" s="3" t="str">
+      <c r="H82" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PlayPausedVideoToggleOnHover"
             width="460"
@@ -5880,7 +5947,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I81" s="7" t="str">
+      <c r="I82" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5901,26 +5968,26 @@
       </v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="4" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G82" s="3" t="str">
+      <c r="B83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G83" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5930,7 +5997,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H82" s="3" t="str">
+      <c r="H83" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PopupNewsletter"
             width="460"
@@ -5944,7 +6011,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I82" s="7" t="str">
+      <c r="I83" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5965,26 +6032,26 @@
       </v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="4" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G83" s="3" t="str">
+      <c r="B84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G84" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5994,7 +6061,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H83" s="3" t="str">
+      <c r="H84" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PortfolioWebsite"
             width="460"
@@ -6008,7 +6075,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I83" s="7" t="str">
+      <c r="I84" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6029,26 +6096,26 @@
       </v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="4" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G84" s="3" t="str">
+      <c r="B85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G85" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6058,7 +6125,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H84" s="3" t="str">
+      <c r="H85" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PortfolioWebsite02"
             width="460"
@@ -6072,7 +6139,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I84" s="7" t="str">
+      <c r="I85" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6093,26 +6160,26 @@
       </v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="4" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G85" s="3" t="str">
+      <c r="B86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G86" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6122,7 +6189,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H85" s="3" t="str">
+      <c r="H86" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">RainyDayJS"
             width="460"
@@ -6136,7 +6203,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I85" s="7" t="str">
+      <c r="I86" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6157,26 +6224,26 @@
       </v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A86" s="4" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G86" s="3" t="str">
+      <c r="B87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G87" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6186,7 +6253,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H86" s="3" t="str">
+      <c r="H87" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">RamadanKareem"
             width="460"
@@ -6200,7 +6267,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I86" s="7" t="str">
+      <c r="I87" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6221,26 +6288,26 @@
       </v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A87" s="4" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G87" s="3" t="str">
+      <c r="B88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G88" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6250,7 +6317,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H87" s="3" t="str">
+      <c r="H88" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">RandomColorSlotGentor"
             width="460"
@@ -6264,7 +6331,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I87" s="7" t="str">
+      <c r="I88" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6285,26 +6352,26 @@
       </v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A88" s="4" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G88" s="3" t="str">
+      <c r="B89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G89" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6314,7 +6381,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H88" s="3" t="str">
+      <c r="H89" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">SignIn_SignUpForm02"
             width="460"
@@ -6328,7 +6395,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I88" s="7" t="str">
+      <c r="I89" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6349,26 +6416,26 @@
       </v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A89" s="4" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G89" s="3" t="str">
+      <c r="B90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G90" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6378,7 +6445,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H89" s="3" t="str">
+      <c r="H90" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">SmokeJavascriptAnimationEffects"
             width="460"
@@ -6392,7 +6459,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I89" s="7" t="str">
+      <c r="I90" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6413,26 +6480,26 @@
       </v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A90" s="4" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" s="3" t="str">
+      <c r="B91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G91" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6442,7 +6509,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H90" s="3" t="str">
+      <c r="H91" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">SnapScrollingParallaxEffects02"
             width="460"
@@ -6456,7 +6523,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I90" s="7" t="str">
+      <c r="I91" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6477,26 +6544,26 @@
       </v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A91" s="4" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G91" s="3" t="str">
+      <c r="B92" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G92" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6506,7 +6573,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H91" s="3" t="str">
+      <c r="H92" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">StarbucksResponsive"
             width="460"
@@ -6520,7 +6587,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I91" s="7" t="str">
+      <c r="I92" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6541,26 +6608,26 @@
       </v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A92" s="4" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" s="3" t="str">
+      <c r="B93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G93" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6570,7 +6637,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H92" s="3" t="str">
+      <c r="H93" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">TextTypingLoading"
             width="460"
@@ -6584,7 +6651,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I92" s="7" t="str">
+      <c r="I93" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6605,26 +6672,26 @@
       </v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A93" s="4" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G93" s="3" t="str">
+      <c r="B94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G94" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6634,7 +6701,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H93" s="3" t="str">
+      <c r="H94" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Uncharted4CardsUIDesign"
             width="460"
@@ -6648,7 +6715,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I93" s="7" t="str">
+      <c r="I94" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6669,26 +6736,26 @@
       </v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A94" s="4" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G94" s="3" t="str">
+      <c r="B95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G95" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6698,7 +6765,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H94" s="3" t="str">
+      <c r="H95" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">WavySectionCSS"
             width="460"
@@ -6712,7 +6779,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I94" s="7" t="str">
+      <c r="I95" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6733,26 +6800,26 @@
       </v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A95" s="4" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" s="3" t="str">
+      <c r="B96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G96" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6762,7 +6829,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H95" s="3" t="str">
+      <c r="H96" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">WavyTextVanillaJavascript"
             width="460"
@@ -6776,7 +6843,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I95" s="7" t="str">
+      <c r="I96" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6797,26 +6864,26 @@
       </v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A96" s="4" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G96" s="3" t="str">
+      <c r="B97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G97" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6826,7 +6893,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H96" s="3" t="str">
+      <c r="H97" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">WrapTextAroundImage"
             width="460"
@@ -6840,7 +6907,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I96" s="7" t="str">
+      <c r="I97" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6861,26 +6928,26 @@
       </v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A97" s="4" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G97" s="3" t="str">
+      <c r="B98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G98" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6890,7 +6957,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H97" s="3" t="str">
+      <c r="H98" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">zText.js"
             width="460"
@@ -6904,7 +6971,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I97" s="7" t="str">
+      <c r="I98" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;

--- a/code.xlsx
+++ b/code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Effects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659418F6-528D-4FEE-A7D7-7449369B4E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D643E0-2B20-4C7D-9E08-14E767CC67C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="109">
   <si>
     <t>2020-2021TextAnimation</t>
   </si>
@@ -376,9 +376,6 @@
   </si>
   <si>
     <t>CustomSelectDropdown</t>
-  </si>
-  <si>
-    <t>3DWavyCircleLoadingAnimation</t>
   </si>
 </sst>
 </file>
@@ -735,27 +732,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="38.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="7.265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.53125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>93</v>
       </c>
@@ -784,7 +781,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -848,7 +845,7 @@
       </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>2021</v>
       </c>
@@ -868,7 +865,7 @@
         <v>103</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G68" si="0">_xlfn.CONCAT($B3,$A3,$C3,$A3,$D3)</f>
+        <f t="shared" ref="G3:G67" si="0">_xlfn.CONCAT($B3,$A3,$C3,$A3,$D3)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/2021/index.html" target="_blank"&gt;2021&lt;/a&gt;
@@ -878,7 +875,7 @@
             title="</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H68" si="1">_xlfn.CONCAT($A3,$E3,$A3,$F3)</f>
+        <f t="shared" ref="H3:H67" si="1">_xlfn.CONCAT($A3,$E3,$A3,$F3)</f>
         <v xml:space="preserve">2021"
             width="460"
             height="315"
@@ -892,7 +889,7 @@
       </v>
       </c>
       <c r="I3" s="7" t="str">
-        <f t="shared" ref="I3:I68" si="2">_xlfn.CONCAT($G3,$H3)</f>
+        <f t="shared" ref="I3:I67" si="2">_xlfn.CONCAT($G3,$H3)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/2021/index.html" target="_blank"&gt;2021&lt;/a&gt;
@@ -912,7 +909,7 @@
       </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -976,7 +973,7 @@
       </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1040,9 +1037,9 @@
       </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>96</v>
@@ -1063,7 +1060,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/3DWavyCircleLoadingAnimation/index.html" target="_blank"&gt;3DWavyCircleLoadingAnimation&lt;/a&gt;
+        &lt;a href="src/AlignItemUsingCSSGrid/index.html" target="_blank"&gt;AlignItemUsingCSSGrid&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1071,10 +1068,10 @@
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">3DWavyCircleLoadingAnimation"
-            width="460"
-            height="315"
-            src="src/3DWavyCircleLoadingAnimation/index.html"
+        <v xml:space="preserve">AlignItemUsingCSSGrid"
+            width="460"
+            height="315"
+            src="src/AlignItemUsingCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1087,26 +1084,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/3DWavyCircleLoadingAnimation/index.html" target="_blank"&gt;3DWavyCircleLoadingAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="3DWavyCircleLoadingAnimation"
-            width="460"
-            height="315"
-            src="src/3DWavyCircleLoadingAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/AlignItemUsingCSSGrid/index.html" target="_blank"&gt;AlignItemUsingCSSGrid&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AlignItemUsingCSSGrid"
+            width="460"
+            height="315"
+            src="src/AlignItemUsingCSSGrid/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>96</v>
@@ -1127,7 +1124,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AlignItemUsingCSSGrid/index.html" target="_blank"&gt;AlignItemUsingCSSGrid&lt;/a&gt;
+        &lt;a href="src/AlignTextUsingCSSFlex/index.html" target="_blank"&gt;AlignTextUsingCSSFlex&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1135,10 +1132,10 @@
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AlignItemUsingCSSGrid"
-            width="460"
-            height="315"
-            src="src/AlignItemUsingCSSGrid/index.html"
+        <v xml:space="preserve">AlignTextUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/AlignTextUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1151,26 +1148,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AlignItemUsingCSSGrid/index.html" target="_blank"&gt;AlignItemUsingCSSGrid&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AlignItemUsingCSSGrid"
-            width="460"
-            height="315"
-            src="src/AlignItemUsingCSSGrid/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/AlignTextUsingCSSFlex/index.html" target="_blank"&gt;AlignTextUsingCSSFlex&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AlignTextUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/AlignTextUsingCSSFlex/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>96</v>
@@ -1191,7 +1188,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AlignTextUsingCSSFlex/index.html" target="_blank"&gt;AlignTextUsingCSSFlex&lt;/a&gt;
+        &lt;a href="src/AnimatedChristmasBanner2020/index.html" target="_blank"&gt;AnimatedChristmasBanner2020&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1199,10 +1196,10 @@
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AlignTextUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/AlignTextUsingCSSFlex/index.html"
+        <v xml:space="preserve">AnimatedChristmasBanner2020"
+            width="460"
+            height="315"
+            src="src/AnimatedChristmasBanner2020/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1215,26 +1212,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AlignTextUsingCSSFlex/index.html" target="_blank"&gt;AlignTextUsingCSSFlex&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AlignTextUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/AlignTextUsingCSSFlex/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/AnimatedChristmasBanner2020/index.html" target="_blank"&gt;AnimatedChristmasBanner2020&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimatedChristmasBanner2020"
+            width="460"
+            height="315"
+            src="src/AnimatedChristmasBanner2020/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>96</v>
@@ -1255,7 +1252,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimatedChristmasBanner2020/index.html" target="_blank"&gt;AnimatedChristmasBanner2020&lt;/a&gt;
+        &lt;a href="src/AnimeJSAnimatedHeart/index.html" target="_blank"&gt;AnimeJSAnimatedHeart&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1263,10 +1260,10 @@
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimatedChristmasBanner2020"
-            width="460"
-            height="315"
-            src="src/AnimatedChristmasBanner2020/index.html"
+        <v xml:space="preserve">AnimeJSAnimatedHeart"
+            width="460"
+            height="315"
+            src="src/AnimeJSAnimatedHeart/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1279,26 +1276,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimatedChristmasBanner2020/index.html" target="_blank"&gt;AnimatedChristmasBanner2020&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimatedChristmasBanner2020"
-            width="460"
-            height="315"
-            src="src/AnimatedChristmasBanner2020/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/AnimeJSAnimatedHeart/index.html" target="_blank"&gt;AnimeJSAnimatedHeart&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimeJSAnimatedHeart"
+            width="460"
+            height="315"
+            src="src/AnimeJSAnimatedHeart/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>96</v>
@@ -1319,7 +1316,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSAnimatedHeart/index.html" target="_blank"&gt;AnimeJSAnimatedHeart&lt;/a&gt;
+        &lt;a href="src/AnimeJSFlyingTextAnimation/index.html" target="_blank"&gt;AnimeJSFlyingTextAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1327,10 +1324,10 @@
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimeJSAnimatedHeart"
-            width="460"
-            height="315"
-            src="src/AnimeJSAnimatedHeart/index.html"
+        <v xml:space="preserve">AnimeJSFlyingTextAnimation"
+            width="460"
+            height="315"
+            src="src/AnimeJSFlyingTextAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1343,26 +1340,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSAnimatedHeart/index.html" target="_blank"&gt;AnimeJSAnimatedHeart&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimeJSAnimatedHeart"
-            width="460"
-            height="315"
-            src="src/AnimeJSAnimatedHeart/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/AnimeJSFlyingTextAnimation/index.html" target="_blank"&gt;AnimeJSFlyingTextAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimeJSFlyingTextAnimation"
+            width="460"
+            height="315"
+            src="src/AnimeJSFlyingTextAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>96</v>
@@ -1383,7 +1380,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSFlyingTextAnimation/index.html" target="_blank"&gt;AnimeJSFlyingTextAnimation&lt;/a&gt;
+        &lt;a href="src/AnimeJSRandomBackgroundAnimation/index.html" target="_blank"&gt;AnimeJSRandomBackgroundAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1391,10 +1388,10 @@
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimeJSFlyingTextAnimation"
-            width="460"
-            height="315"
-            src="src/AnimeJSFlyingTextAnimation/index.html"
+        <v xml:space="preserve">AnimeJSRandomBackgroundAnimation"
+            width="460"
+            height="315"
+            src="src/AnimeJSRandomBackgroundAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1407,26 +1404,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSFlyingTextAnimation/index.html" target="_blank"&gt;AnimeJSFlyingTextAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimeJSFlyingTextAnimation"
-            width="460"
-            height="315"
-            src="src/AnimeJSFlyingTextAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/AnimeJSRandomBackgroundAnimation/index.html" target="_blank"&gt;AnimeJSRandomBackgroundAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimeJSRandomBackgroundAnimation"
+            width="460"
+            height="315"
+            src="src/AnimeJSRandomBackgroundAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>96</v>
@@ -1447,7 +1444,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSRandomBackgroundAnimation/index.html" target="_blank"&gt;AnimeJSRandomBackgroundAnimation&lt;/a&gt;
+        &lt;a href="src/AutopopupDiv/index.html" target="_blank"&gt;AutopopupDiv&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1455,10 +1452,10 @@
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimeJSRandomBackgroundAnimation"
-            width="460"
-            height="315"
-            src="src/AnimeJSRandomBackgroundAnimation/index.html"
+        <v xml:space="preserve">AutopopupDiv"
+            width="460"
+            height="315"
+            src="src/AutopopupDiv/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1471,26 +1468,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSRandomBackgroundAnimation/index.html" target="_blank"&gt;AnimeJSRandomBackgroundAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimeJSRandomBackgroundAnimation"
-            width="460"
-            height="315"
-            src="src/AnimeJSRandomBackgroundAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/AutopopupDiv/index.html" target="_blank"&gt;AutopopupDiv&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AutopopupDiv"
+            width="460"
+            height="315"
+            src="src/AutopopupDiv/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>96</v>
@@ -1511,7 +1508,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AutopopupDiv/index.html" target="_blank"&gt;AutopopupDiv&lt;/a&gt;
+        &lt;a href="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html" target="_blank"&gt;BouncingBallLoadingAnimationEffectsPerpetual&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1519,10 +1516,10 @@
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AutopopupDiv"
-            width="460"
-            height="315"
-            src="src/AutopopupDiv/index.html"
+        <v xml:space="preserve">BouncingBallLoadingAnimationEffectsPerpetual"
+            width="460"
+            height="315"
+            src="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1535,26 +1532,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AutopopupDiv/index.html" target="_blank"&gt;AutopopupDiv&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AutopopupDiv"
-            width="460"
-            height="315"
-            src="src/AutopopupDiv/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html" target="_blank"&gt;BouncingBallLoadingAnimationEffectsPerpetual&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="BouncingBallLoadingAnimationEffectsPerpetual"
+            width="460"
+            height="315"
+            src="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>96</v>
@@ -1575,7 +1572,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html" target="_blank"&gt;BouncingBallLoadingAnimationEffectsPerpetual&lt;/a&gt;
+        &lt;a href="src/BubblyBackgroundEffects/index.html" target="_blank"&gt;BubblyBackgroundEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1583,10 +1580,10 @@
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">BouncingBallLoadingAnimationEffectsPerpetual"
-            width="460"
-            height="315"
-            src="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html"
+        <v xml:space="preserve">BubblyBackgroundEffects"
+            width="460"
+            height="315"
+            src="src/BubblyBackgroundEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1599,26 +1596,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html" target="_blank"&gt;BouncingBallLoadingAnimationEffectsPerpetual&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="BouncingBallLoadingAnimationEffectsPerpetual"
-            width="460"
-            height="315"
-            src="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/BubblyBackgroundEffects/index.html" target="_blank"&gt;BubblyBackgroundEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="BubblyBackgroundEffects"
+            width="460"
+            height="315"
+            src="src/BubblyBackgroundEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>96</v>
@@ -1639,7 +1636,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/BubblyBackgroundEffects/index.html" target="_blank"&gt;BubblyBackgroundEffects&lt;/a&gt;
+        &lt;a href="src/CalculatorGlassmorphism/index.html" target="_blank"&gt;CalculatorGlassmorphism&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1647,10 +1644,10 @@
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">BubblyBackgroundEffects"
-            width="460"
-            height="315"
-            src="src/BubblyBackgroundEffects/index.html"
+        <v xml:space="preserve">CalculatorGlassmorphism"
+            width="460"
+            height="315"
+            src="src/CalculatorGlassmorphism/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1663,26 +1660,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/BubblyBackgroundEffects/index.html" target="_blank"&gt;BubblyBackgroundEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="BubblyBackgroundEffects"
-            width="460"
-            height="315"
-            src="src/BubblyBackgroundEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CalculatorGlassmorphism/index.html" target="_blank"&gt;CalculatorGlassmorphism&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CalculatorGlassmorphism"
+            width="460"
+            height="315"
+            src="src/CalculatorGlassmorphism/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>96</v>
@@ -1703,7 +1700,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CalculatorGlassmorphism/index.html" target="_blank"&gt;CalculatorGlassmorphism&lt;/a&gt;
+        &lt;a href="src/CircleProgressCSSGlassmorphism/index.html" target="_blank"&gt;CircleProgressCSSGlassmorphism&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1711,10 +1708,10 @@
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CalculatorGlassmorphism"
-            width="460"
-            height="315"
-            src="src/CalculatorGlassmorphism/index.html"
+        <v xml:space="preserve">CircleProgressCSSGlassmorphism"
+            width="460"
+            height="315"
+            src="src/CircleProgressCSSGlassmorphism/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1727,26 +1724,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CalculatorGlassmorphism/index.html" target="_blank"&gt;CalculatorGlassmorphism&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CalculatorGlassmorphism"
-            width="460"
-            height="315"
-            src="src/CalculatorGlassmorphism/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CircleProgressCSSGlassmorphism/index.html" target="_blank"&gt;CircleProgressCSSGlassmorphism&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CircleProgressCSSGlassmorphism"
+            width="460"
+            height="315"
+            src="src/CircleProgressCSSGlassmorphism/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>96</v>
@@ -1767,7 +1764,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleProgressCSSGlassmorphism/index.html" target="_blank"&gt;CircleProgressCSSGlassmorphism&lt;/a&gt;
+        &lt;a href="src/CircleTextAnimationMousemove/index.html" target="_blank"&gt;CircleTextAnimationMousemove&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1775,10 +1772,10 @@
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CircleProgressCSSGlassmorphism"
-            width="460"
-            height="315"
-            src="src/CircleProgressCSSGlassmorphism/index.html"
+        <v xml:space="preserve">CircleTextAnimationMousemove"
+            width="460"
+            height="315"
+            src="src/CircleTextAnimationMousemove/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1791,26 +1788,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleProgressCSSGlassmorphism/index.html" target="_blank"&gt;CircleProgressCSSGlassmorphism&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CircleProgressCSSGlassmorphism"
-            width="460"
-            height="315"
-            src="src/CircleProgressCSSGlassmorphism/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CircleTextAnimationMousemove/index.html" target="_blank"&gt;CircleTextAnimationMousemove&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CircleTextAnimationMousemove"
+            width="460"
+            height="315"
+            src="src/CircleTextAnimationMousemove/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>96</v>
@@ -1831,7 +1828,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleTextAnimationMousemove/index.html" target="_blank"&gt;CircleTextAnimationMousemove&lt;/a&gt;
+        &lt;a href="src/CircleTextMousemove/index.html" target="_blank"&gt;CircleTextMousemove&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1839,10 +1836,10 @@
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CircleTextAnimationMousemove"
-            width="460"
-            height="315"
-            src="src/CircleTextAnimationMousemove/index.html"
+        <v xml:space="preserve">CircleTextMousemove"
+            width="460"
+            height="315"
+            src="src/CircleTextMousemove/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1855,26 +1852,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleTextAnimationMousemove/index.html" target="_blank"&gt;CircleTextAnimationMousemove&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CircleTextAnimationMousemove"
-            width="460"
-            height="315"
-            src="src/CircleTextAnimationMousemove/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CircleTextMousemove/index.html" target="_blank"&gt;CircleTextMousemove&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CircleTextMousemove"
+            width="460"
+            height="315"
+            src="src/CircleTextMousemove/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>96</v>
@@ -1895,7 +1892,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleTextMousemove/index.html" target="_blank"&gt;CircleTextMousemove&lt;/a&gt;
+        &lt;a href="src/Clip-pathVideoSlider/index.html" target="_blank"&gt;Clip-pathVideoSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1903,10 +1900,10 @@
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CircleTextMousemove"
-            width="460"
-            height="315"
-            src="src/CircleTextMousemove/index.html"
+        <v xml:space="preserve">Clip-pathVideoSlider"
+            width="460"
+            height="315"
+            src="src/Clip-pathVideoSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1919,26 +1916,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleTextMousemove/index.html" target="_blank"&gt;CircleTextMousemove&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CircleTextMousemove"
-            width="460"
-            height="315"
-            src="src/CircleTextMousemove/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/Clip-pathVideoSlider/index.html" target="_blank"&gt;Clip-pathVideoSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Clip-pathVideoSlider"
+            width="460"
+            height="315"
+            src="src/Clip-pathVideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>96</v>
@@ -1959,7 +1956,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Clip-pathVideoSlider/index.html" target="_blank"&gt;Clip-pathVideoSlider&lt;/a&gt;
+        &lt;a href="src/ClockUIGlassmorphism/index.html" target="_blank"&gt;ClockUIGlassmorphism&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1967,10 +1964,10 @@
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clip-pathVideoSlider"
-            width="460"
-            height="315"
-            src="src/Clip-pathVideoSlider/index.html"
+        <v xml:space="preserve">ClockUIGlassmorphism"
+            width="460"
+            height="315"
+            src="src/ClockUIGlassmorphism/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1983,26 +1980,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Clip-pathVideoSlider/index.html" target="_blank"&gt;Clip-pathVideoSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Clip-pathVideoSlider"
-            width="460"
-            height="315"
-            src="src/Clip-pathVideoSlider/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/ClockUIGlassmorphism/index.html" target="_blank"&gt;ClockUIGlassmorphism&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ClockUIGlassmorphism"
+            width="460"
+            height="315"
+            src="src/ClockUIGlassmorphism/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>96</v>
@@ -2023,7 +2020,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ClockUIGlassmorphism/index.html" target="_blank"&gt;ClockUIGlassmorphism&lt;/a&gt;
+        &lt;a href="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseNavbarWhenClickOutsideOrMenuItem&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2031,10 +2028,10 @@
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ClockUIGlassmorphism"
-            width="460"
-            height="315"
-            src="src/ClockUIGlassmorphism/index.html"
+        <v xml:space="preserve">CloseNavbarWhenClickOutsideOrMenuItem"
+            width="460"
+            height="315"
+            src="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2047,26 +2044,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ClockUIGlassmorphism/index.html" target="_blank"&gt;ClockUIGlassmorphism&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ClockUIGlassmorphism"
-            width="460"
-            height="315"
-            src="src/ClockUIGlassmorphism/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseNavbarWhenClickOutsideOrMenuItem&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CloseNavbarWhenClickOutsideOrMenuItem"
+            width="460"
+            height="315"
+            src="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>96</v>
@@ -2087,7 +2084,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseNavbarWhenClickOutsideOrMenuItem&lt;/a&gt;
+        &lt;a href="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseSidebarWhenClickOutsideOrMenuItem&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2095,10 +2092,10 @@
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CloseNavbarWhenClickOutsideOrMenuItem"
-            width="460"
-            height="315"
-            src="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html"
+        <v xml:space="preserve">CloseSidebarWhenClickOutsideOrMenuItem"
+            width="460"
+            height="315"
+            src="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2111,26 +2108,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseNavbarWhenClickOutsideOrMenuItem&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CloseNavbarWhenClickOutsideOrMenuItem"
-            width="460"
-            height="315"
-            src="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseSidebarWhenClickOutsideOrMenuItem&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CloseSidebarWhenClickOutsideOrMenuItem"
+            width="460"
+            height="315"
+            src="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>96</v>
@@ -2151,7 +2148,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseSidebarWhenClickOutsideOrMenuItem&lt;/a&gt;
+        &lt;a href="src/ColorfulRotatingSquare002/index.html" target="_blank"&gt;ColorfulRotatingSquare002&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2159,10 +2156,10 @@
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CloseSidebarWhenClickOutsideOrMenuItem"
-            width="460"
-            height="315"
-            src="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html"
+        <v xml:space="preserve">ColorfulRotatingSquare002"
+            width="460"
+            height="315"
+            src="src/ColorfulRotatingSquare002/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2175,26 +2172,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseSidebarWhenClickOutsideOrMenuItem&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CloseSidebarWhenClickOutsideOrMenuItem"
-            width="460"
-            height="315"
-            src="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/ColorfulRotatingSquare002/index.html" target="_blank"&gt;ColorfulRotatingSquare002&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ColorfulRotatingSquare002"
+            width="460"
+            height="315"
+            src="src/ColorfulRotatingSquare002/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>96</v>
@@ -2215,7 +2212,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ColorfulRotatingSquare002/index.html" target="_blank"&gt;ColorfulRotatingSquare002&lt;/a&gt;
+        &lt;a href="src/ContactForm/index.html" target="_blank"&gt;ContactForm&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2223,10 +2220,10 @@
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ColorfulRotatingSquare002"
-            width="460"
-            height="315"
-            src="src/ColorfulRotatingSquare002/index.html"
+        <v xml:space="preserve">ContactForm"
+            width="460"
+            height="315"
+            src="src/ContactForm/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2239,26 +2236,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ColorfulRotatingSquare002/index.html" target="_blank"&gt;ColorfulRotatingSquare002&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ColorfulRotatingSquare002"
-            width="460"
-            height="315"
-            src="src/ColorfulRotatingSquare002/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/ContactForm/index.html" target="_blank"&gt;ContactForm&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ContactForm"
+            width="460"
+            height="315"
+            src="src/ContactForm/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>96</v>
@@ -2279,7 +2276,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ContactForm/index.html" target="_blank"&gt;ContactForm&lt;/a&gt;
+        &lt;a href="src/CreativeBannerEffects/index.html" target="_blank"&gt;CreativeBannerEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2287,10 +2284,10 @@
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ContactForm"
-            width="460"
-            height="315"
-            src="src/ContactForm/index.html"
+        <v xml:space="preserve">CreativeBannerEffects"
+            width="460"
+            height="315"
+            src="src/CreativeBannerEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2303,26 +2300,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ContactForm/index.html" target="_blank"&gt;ContactForm&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ContactForm"
-            width="460"
-            height="315"
-            src="src/ContactForm/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CreativeBannerEffects/index.html" target="_blank"&gt;CreativeBannerEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CreativeBannerEffects"
+            width="460"
+            height="315"
+            src="src/CreativeBannerEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>96</v>
@@ -2343,7 +2340,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeBannerEffects/index.html" target="_blank"&gt;CreativeBannerEffects&lt;/a&gt;
+        &lt;a href="src/CreativeCSSRadioButton/index.html" target="_blank"&gt;CreativeCSSRadioButton&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2351,10 +2348,10 @@
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CreativeBannerEffects"
-            width="460"
-            height="315"
-            src="src/CreativeBannerEffects/index.html"
+        <v xml:space="preserve">CreativeCSSRadioButton"
+            width="460"
+            height="315"
+            src="src/CreativeCSSRadioButton/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2367,26 +2364,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeBannerEffects/index.html" target="_blank"&gt;CreativeBannerEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CreativeBannerEffects"
-            width="460"
-            height="315"
-            src="src/CreativeBannerEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CreativeCSSRadioButton/index.html" target="_blank"&gt;CreativeCSSRadioButton&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CreativeCSSRadioButton"
+            width="460"
+            height="315"
+            src="src/CreativeCSSRadioButton/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>96</v>
@@ -2407,7 +2404,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeCSSRadioButton/index.html" target="_blank"&gt;CreativeCSSRadioButton&lt;/a&gt;
+        &lt;a href="src/CreativeProductCard/index.html" target="_blank"&gt;CreativeProductCard&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2415,10 +2412,10 @@
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CreativeCSSRadioButton"
-            width="460"
-            height="315"
-            src="src/CreativeCSSRadioButton/index.html"
+        <v xml:space="preserve">CreativeProductCard"
+            width="460"
+            height="315"
+            src="src/CreativeProductCard/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2431,26 +2428,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeCSSRadioButton/index.html" target="_blank"&gt;CreativeCSSRadioButton&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CreativeCSSRadioButton"
-            width="460"
-            height="315"
-            src="src/CreativeCSSRadioButton/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CreativeProductCard/index.html" target="_blank"&gt;CreativeProductCard&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CreativeProductCard"
+            width="460"
+            height="315"
+            src="src/CreativeProductCard/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>96</v>
@@ -2471,7 +2468,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeProductCard/index.html" target="_blank"&gt;CreativeProductCard&lt;/a&gt;
+        &lt;a href="src/CSSAnimationEffects/index.html" target="_blank"&gt;CSSAnimationEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2479,10 +2476,10 @@
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CreativeProductCard"
-            width="460"
-            height="315"
-            src="src/CreativeProductCard/index.html"
+        <v xml:space="preserve">CSSAnimationEffects"
+            width="460"
+            height="315"
+            src="src/CSSAnimationEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2495,26 +2492,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeProductCard/index.html" target="_blank"&gt;CreativeProductCard&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CreativeProductCard"
-            width="460"
-            height="315"
-            src="src/CreativeProductCard/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CSSAnimationEffects/index.html" target="_blank"&gt;CSSAnimationEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSSAnimationEffects"
+            width="460"
+            height="315"
+            src="src/CSSAnimationEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>96</v>
@@ -2535,7 +2532,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSAnimationEffects/index.html" target="_blank"&gt;CSSAnimationEffects&lt;/a&gt;
+        &lt;a href="src/CSSLoadingBarUIDesign/index.html" target="_blank"&gt;CSSLoadingBarUIDesign&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2543,10 +2540,10 @@
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CSSAnimationEffects"
-            width="460"
-            height="315"
-            src="src/CSSAnimationEffects/index.html"
+        <v xml:space="preserve">CSSLoadingBarUIDesign"
+            width="460"
+            height="315"
+            src="src/CSSLoadingBarUIDesign/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2559,26 +2556,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSAnimationEffects/index.html" target="_blank"&gt;CSSAnimationEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CSSAnimationEffects"
-            width="460"
-            height="315"
-            src="src/CSSAnimationEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CSSLoadingBarUIDesign/index.html" target="_blank"&gt;CSSLoadingBarUIDesign&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSSLoadingBarUIDesign"
+            width="460"
+            height="315"
+            src="src/CSSLoadingBarUIDesign/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>96</v>
@@ -2599,7 +2596,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSLoadingBarUIDesign/index.html" target="_blank"&gt;CSSLoadingBarUIDesign&lt;/a&gt;
+        &lt;a href="src/CSSVerticalText/index.html" target="_blank"&gt;CSSVerticalText&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2607,10 +2604,10 @@
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CSSLoadingBarUIDesign"
-            width="460"
-            height="315"
-            src="src/CSSLoadingBarUIDesign/index.html"
+        <v xml:space="preserve">CSSVerticalText"
+            width="460"
+            height="315"
+            src="src/CSSVerticalText/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2623,26 +2620,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSLoadingBarUIDesign/index.html" target="_blank"&gt;CSSLoadingBarUIDesign&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CSSLoadingBarUIDesign"
-            width="460"
-            height="315"
-            src="src/CSSLoadingBarUIDesign/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CSSVerticalText/index.html" target="_blank"&gt;CSSVerticalText&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSSVerticalText"
+            width="460"
+            height="315"
+            src="src/CSSVerticalText/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>96</v>
@@ -2663,7 +2660,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSVerticalText/index.html" target="_blank"&gt;CSSVerticalText&lt;/a&gt;
+        &lt;a href="src/CurtainLayerMenu/index.html" target="_blank"&gt;CurtainLayerMenu&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2671,10 +2668,10 @@
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CSSVerticalText"
-            width="460"
-            height="315"
-            src="src/CSSVerticalText/index.html"
+        <v xml:space="preserve">CurtainLayerMenu"
+            width="460"
+            height="315"
+            src="src/CurtainLayerMenu/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2687,26 +2684,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSVerticalText/index.html" target="_blank"&gt;CSSVerticalText&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CSSVerticalText"
-            width="460"
-            height="315"
-            src="src/CSSVerticalText/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CurtainLayerMenu/index.html" target="_blank"&gt;CurtainLayerMenu&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CurtainLayerMenu"
+            width="460"
+            height="315"
+            src="src/CurtainLayerMenu/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>96</v>
@@ -2727,7 +2724,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CurtainLayerMenu/index.html" target="_blank"&gt;CurtainLayerMenu&lt;/a&gt;
+        &lt;a href="src/CurvedAndColoredDropShadow/index.html" target="_blank"&gt;CurvedAndColoredDropShadow&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2735,10 +2732,10 @@
       </c>
       <c r="H32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CurtainLayerMenu"
-            width="460"
-            height="315"
-            src="src/CurtainLayerMenu/index.html"
+        <v xml:space="preserve">CurvedAndColoredDropShadow"
+            width="460"
+            height="315"
+            src="src/CurvedAndColoredDropShadow/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2751,26 +2748,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CurtainLayerMenu/index.html" target="_blank"&gt;CurtainLayerMenu&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CurtainLayerMenu"
-            width="460"
-            height="315"
-            src="src/CurtainLayerMenu/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CurvedAndColoredDropShadow/index.html" target="_blank"&gt;CurvedAndColoredDropShadow&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CurvedAndColoredDropShadow"
+            width="460"
+            height="315"
+            src="src/CurvedAndColoredDropShadow/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>96</v>
@@ -2791,7 +2788,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CurvedAndColoredDropShadow/index.html" target="_blank"&gt;CurvedAndColoredDropShadow&lt;/a&gt;
+        &lt;a href="src/CustomSelectDropdown/index.html" target="_blank"&gt;CustomSelectDropdown&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2799,10 +2796,10 @@
       </c>
       <c r="H33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CurvedAndColoredDropShadow"
-            width="460"
-            height="315"
-            src="src/CurvedAndColoredDropShadow/index.html"
+        <v xml:space="preserve">CustomSelectDropdown"
+            width="460"
+            height="315"
+            src="src/CustomSelectDropdown/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2815,26 +2812,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CurvedAndColoredDropShadow/index.html" target="_blank"&gt;CurvedAndColoredDropShadow&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CurvedAndColoredDropShadow"
-            width="460"
-            height="315"
-            src="src/CurvedAndColoredDropShadow/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/CustomSelectDropdown/index.html" target="_blank"&gt;CustomSelectDropdown&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CustomSelectDropdown"
+            width="460"
+            height="315"
+            src="src/CustomSelectDropdown/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>96</v>
@@ -2855,7 +2852,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CustomSelectDropdown/index.html" target="_blank"&gt;CustomSelectDropdown&lt;/a&gt;
+        &lt;a href="src/DarkLightToggle/index.html" target="_blank"&gt;DarkLightToggle&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2863,10 +2860,10 @@
       </c>
       <c r="H34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CustomSelectDropdown"
-            width="460"
-            height="315"
-            src="src/CustomSelectDropdown/index.html"
+        <v xml:space="preserve">DarkLightToggle"
+            width="460"
+            height="315"
+            src="src/DarkLightToggle/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2879,26 +2876,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CustomSelectDropdown/index.html" target="_blank"&gt;CustomSelectDropdown&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CustomSelectDropdown"
-            width="460"
-            height="315"
-            src="src/CustomSelectDropdown/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/DarkLightToggle/index.html" target="_blank"&gt;DarkLightToggle&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="DarkLightToggle"
+            width="460"
+            height="315"
+            src="src/DarkLightToggle/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>96</v>
@@ -2919,7 +2916,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/DarkLightToggle/index.html" target="_blank"&gt;DarkLightToggle&lt;/a&gt;
+        &lt;a href="src/Dashboard/index.html" target="_blank"&gt;Dashboard&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2927,10 +2924,10 @@
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">DarkLightToggle"
-            width="460"
-            height="315"
-            src="src/DarkLightToggle/index.html"
+        <v xml:space="preserve">Dashboard"
+            width="460"
+            height="315"
+            src="src/Dashboard/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2943,26 +2940,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/DarkLightToggle/index.html" target="_blank"&gt;DarkLightToggle&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="DarkLightToggle"
-            width="460"
-            height="315"
-            src="src/DarkLightToggle/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/Dashboard/index.html" target="_blank"&gt;Dashboard&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Dashboard"
+            width="460"
+            height="315"
+            src="src/Dashboard/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>96</v>
@@ -2983,7 +2980,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Dashboard/index.html" target="_blank"&gt;Dashboard&lt;/a&gt;
+        &lt;a href="src/DropdonwMenu03/index.html" target="_blank"&gt;DropdonwMenu03&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2991,10 +2988,10 @@
       </c>
       <c r="H36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Dashboard"
-            width="460"
-            height="315"
-            src="src/Dashboard/index.html"
+        <v xml:space="preserve">DropdonwMenu03"
+            width="460"
+            height="315"
+            src="src/DropdonwMenu03/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3007,26 +3004,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Dashboard/index.html" target="_blank"&gt;Dashboard&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Dashboard"
-            width="460"
-            height="315"
-            src="src/Dashboard/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/DropdonwMenu03/index.html" target="_blank"&gt;DropdonwMenu03&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="DropdonwMenu03"
+            width="460"
+            height="315"
+            src="src/DropdonwMenu03/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>96</v>
@@ -3047,7 +3044,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/DropdonwMenu03/index.html" target="_blank"&gt;DropdonwMenu03&lt;/a&gt;
+        &lt;a href="src/FireTextSVG01/index.html" target="_blank"&gt;FireTextSVG01&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3055,10 +3052,10 @@
       </c>
       <c r="H37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">DropdonwMenu03"
-            width="460"
-            height="315"
-            src="src/DropdonwMenu03/index.html"
+        <v xml:space="preserve">FireTextSVG01"
+            width="460"
+            height="315"
+            src="src/FireTextSVG01/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3071,26 +3068,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/DropdonwMenu03/index.html" target="_blank"&gt;DropdonwMenu03&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="DropdonwMenu03"
-            width="460"
-            height="315"
-            src="src/DropdonwMenu03/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/FireTextSVG01/index.html" target="_blank"&gt;FireTextSVG01&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="FireTextSVG01"
+            width="460"
+            height="315"
+            src="src/FireTextSVG01/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>96</v>
@@ -3111,7 +3108,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FireTextSVG01/index.html" target="_blank"&gt;FireTextSVG01&lt;/a&gt;
+        &lt;a href="src/FlipImageCheckBox/index.html" target="_blank"&gt;FlipImageCheckBox&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3119,10 +3116,10 @@
       </c>
       <c r="H38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FireTextSVG01"
-            width="460"
-            height="315"
-            src="src/FireTextSVG01/index.html"
+        <v xml:space="preserve">FlipImageCheckBox"
+            width="460"
+            height="315"
+            src="src/FlipImageCheckBox/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3135,26 +3132,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FireTextSVG01/index.html" target="_blank"&gt;FireTextSVG01&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="FireTextSVG01"
-            width="460"
-            height="315"
-            src="src/FireTextSVG01/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/FlipImageCheckBox/index.html" target="_blank"&gt;FlipImageCheckBox&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="FlipImageCheckBox"
+            width="460"
+            height="315"
+            src="src/FlipImageCheckBox/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>96</v>
@@ -3175,7 +3172,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FlipImageCheckBox/index.html" target="_blank"&gt;FlipImageCheckBox&lt;/a&gt;
+        &lt;a href="src/FontawesomeBackgroundAnimation/index.html" target="_blank"&gt;FontawesomeBackgroundAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3183,10 +3180,10 @@
       </c>
       <c r="H39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FlipImageCheckBox"
-            width="460"
-            height="315"
-            src="src/FlipImageCheckBox/index.html"
+        <v xml:space="preserve">FontawesomeBackgroundAnimation"
+            width="460"
+            height="315"
+            src="src/FontawesomeBackgroundAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3199,26 +3196,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FlipImageCheckBox/index.html" target="_blank"&gt;FlipImageCheckBox&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="FlipImageCheckBox"
-            width="460"
-            height="315"
-            src="src/FlipImageCheckBox/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/FontawesomeBackgroundAnimation/index.html" target="_blank"&gt;FontawesomeBackgroundAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="FontawesomeBackgroundAnimation"
+            width="460"
+            height="315"
+            src="src/FontawesomeBackgroundAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>96</v>
@@ -3239,7 +3236,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FontawesomeBackgroundAnimation/index.html" target="_blank"&gt;FontawesomeBackgroundAnimation&lt;/a&gt;
+        &lt;a href="src/FullscreenMenuSticky/index.html" target="_blank"&gt;FullscreenMenuSticky&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3247,10 +3244,10 @@
       </c>
       <c r="H40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FontawesomeBackgroundAnimation"
-            width="460"
-            height="315"
-            src="src/FontawesomeBackgroundAnimation/index.html"
+        <v xml:space="preserve">FullscreenMenuSticky"
+            width="460"
+            height="315"
+            src="src/FullscreenMenuSticky/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3263,26 +3260,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FontawesomeBackgroundAnimation/index.html" target="_blank"&gt;FontawesomeBackgroundAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="FontawesomeBackgroundAnimation"
-            width="460"
-            height="315"
-            src="src/FontawesomeBackgroundAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/FullscreenMenuSticky/index.html" target="_blank"&gt;FullscreenMenuSticky&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="FullscreenMenuSticky"
+            width="460"
+            height="315"
+            src="src/FullscreenMenuSticky/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>96</v>
@@ -3303,7 +3300,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FullscreenMenuSticky/index.html" target="_blank"&gt;FullscreenMenuSticky&lt;/a&gt;
+        &lt;a href="src/GlassmorphismButton/index.html" target="_blank"&gt;GlassmorphismButton&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3311,10 +3308,10 @@
       </c>
       <c r="H41" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FullscreenMenuSticky"
-            width="460"
-            height="315"
-            src="src/FullscreenMenuSticky/index.html"
+        <v xml:space="preserve">GlassmorphismButton"
+            width="460"
+            height="315"
+            src="src/GlassmorphismButton/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3327,26 +3324,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FullscreenMenuSticky/index.html" target="_blank"&gt;FullscreenMenuSticky&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="FullscreenMenuSticky"
-            width="460"
-            height="315"
-            src="src/FullscreenMenuSticky/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GlassmorphismButton/index.html" target="_blank"&gt;GlassmorphismButton&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismButton"
+            width="460"
+            height="315"
+            src="src/GlassmorphismButton/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>96</v>
@@ -3367,7 +3364,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismButton/index.html" target="_blank"&gt;GlassmorphismButton&lt;/a&gt;
+        &lt;a href="src/GlassmorphismCardsHoverEffects02/index.html" target="_blank"&gt;GlassmorphismCardsHoverEffects02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3375,10 +3372,10 @@
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismButton"
-            width="460"
-            height="315"
-            src="src/GlassmorphismButton/index.html"
+        <v xml:space="preserve">GlassmorphismCardsHoverEffects02"
+            width="460"
+            height="315"
+            src="src/GlassmorphismCardsHoverEffects02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3391,26 +3388,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismButton/index.html" target="_blank"&gt;GlassmorphismButton&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismButton"
-            width="460"
-            height="315"
-            src="src/GlassmorphismButton/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GlassmorphismCardsHoverEffects02/index.html" target="_blank"&gt;GlassmorphismCardsHoverEffects02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismCardsHoverEffects02"
+            width="460"
+            height="315"
+            src="src/GlassmorphismCardsHoverEffects02/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>96</v>
@@ -3431,7 +3428,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismCardsHoverEffects02/index.html" target="_blank"&gt;GlassmorphismCardsHoverEffects02&lt;/a&gt;
+        &lt;a href="src/GlassmorphismDigitalClock/index.html" target="_blank"&gt;GlassmorphismDigitalClock&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3439,10 +3436,10 @@
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismCardsHoverEffects02"
-            width="460"
-            height="315"
-            src="src/GlassmorphismCardsHoverEffects02/index.html"
+        <v xml:space="preserve">GlassmorphismDigitalClock"
+            width="460"
+            height="315"
+            src="src/GlassmorphismDigitalClock/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3455,26 +3452,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismCardsHoverEffects02/index.html" target="_blank"&gt;GlassmorphismCardsHoverEffects02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismCardsHoverEffects02"
-            width="460"
-            height="315"
-            src="src/GlassmorphismCardsHoverEffects02/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GlassmorphismDigitalClock/index.html" target="_blank"&gt;GlassmorphismDigitalClock&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismDigitalClock"
+            width="460"
+            height="315"
+            src="src/GlassmorphismDigitalClock/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>96</v>
@@ -3495,7 +3492,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismDigitalClock/index.html" target="_blank"&gt;GlassmorphismDigitalClock&lt;/a&gt;
+        &lt;a href="src/GlassmorphismHoverEffectsZ-index/index.html" target="_blank"&gt;GlassmorphismHoverEffectsZ-index&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3503,10 +3500,10 @@
       </c>
       <c r="H44" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismDigitalClock"
-            width="460"
-            height="315"
-            src="src/GlassmorphismDigitalClock/index.html"
+        <v xml:space="preserve">GlassmorphismHoverEffectsZ-index"
+            width="460"
+            height="315"
+            src="src/GlassmorphismHoverEffectsZ-index/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3519,26 +3516,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismDigitalClock/index.html" target="_blank"&gt;GlassmorphismDigitalClock&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismDigitalClock"
-            width="460"
-            height="315"
-            src="src/GlassmorphismDigitalClock/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GlassmorphismHoverEffectsZ-index/index.html" target="_blank"&gt;GlassmorphismHoverEffectsZ-index&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismHoverEffectsZ-index"
+            width="460"
+            height="315"
+            src="src/GlassmorphismHoverEffectsZ-index/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>96</v>
@@ -3559,7 +3556,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismHoverEffectsZ-index/index.html" target="_blank"&gt;GlassmorphismHoverEffectsZ-index&lt;/a&gt;
+        &lt;a href="src/GlassmorphismIconHoverEffects/index.html" target="_blank"&gt;GlassmorphismIconHoverEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3567,10 +3564,10 @@
       </c>
       <c r="H45" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismHoverEffectsZ-index"
-            width="460"
-            height="315"
-            src="src/GlassmorphismHoverEffectsZ-index/index.html"
+        <v xml:space="preserve">GlassmorphismIconHoverEffects"
+            width="460"
+            height="315"
+            src="src/GlassmorphismIconHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3583,26 +3580,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismHoverEffectsZ-index/index.html" target="_blank"&gt;GlassmorphismHoverEffectsZ-index&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismHoverEffectsZ-index"
-            width="460"
-            height="315"
-            src="src/GlassmorphismHoverEffectsZ-index/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GlassmorphismIconHoverEffects/index.html" target="_blank"&gt;GlassmorphismIconHoverEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismIconHoverEffects"
+            width="460"
+            height="315"
+            src="src/GlassmorphismIconHoverEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>96</v>
@@ -3623,7 +3620,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismIconHoverEffects/index.html" target="_blank"&gt;GlassmorphismIconHoverEffects&lt;/a&gt;
+        &lt;a href="src/GlassmorphismLoginForm/index.html" target="_blank"&gt;GlassmorphismLoginForm&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3631,10 +3628,10 @@
       </c>
       <c r="H46" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismIconHoverEffects"
-            width="460"
-            height="315"
-            src="src/GlassmorphismIconHoverEffects/index.html"
+        <v xml:space="preserve">GlassmorphismLoginForm"
+            width="460"
+            height="315"
+            src="src/GlassmorphismLoginForm/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3647,26 +3644,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismIconHoverEffects/index.html" target="_blank"&gt;GlassmorphismIconHoverEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismIconHoverEffects"
-            width="460"
-            height="315"
-            src="src/GlassmorphismIconHoverEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GlassmorphismLoginForm/index.html" target="_blank"&gt;GlassmorphismLoginForm&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismLoginForm"
+            width="460"
+            height="315"
+            src="src/GlassmorphismLoginForm/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>96</v>
@@ -3687,7 +3684,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismLoginForm/index.html" target="_blank"&gt;GlassmorphismLoginForm&lt;/a&gt;
+        &lt;a href="src/GlassmorphismParallax/index.html" target="_blank"&gt;GlassmorphismParallax&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3695,10 +3692,10 @@
       </c>
       <c r="H47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismLoginForm"
-            width="460"
-            height="315"
-            src="src/GlassmorphismLoginForm/index.html"
+        <v xml:space="preserve">GlassmorphismParallax"
+            width="460"
+            height="315"
+            src="src/GlassmorphismParallax/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3711,26 +3708,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismLoginForm/index.html" target="_blank"&gt;GlassmorphismLoginForm&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismLoginForm"
-            width="460"
-            height="315"
-            src="src/GlassmorphismLoginForm/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GlassmorphismParallax/index.html" target="_blank"&gt;GlassmorphismParallax&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismParallax"
+            width="460"
+            height="315"
+            src="src/GlassmorphismParallax/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>96</v>
@@ -3751,7 +3748,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismParallax/index.html" target="_blank"&gt;GlassmorphismParallax&lt;/a&gt;
+        &lt;a href="src/GlassmorphismProductCards/index.html" target="_blank"&gt;GlassmorphismProductCards&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3759,10 +3756,10 @@
       </c>
       <c r="H48" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismParallax"
-            width="460"
-            height="315"
-            src="src/GlassmorphismParallax/index.html"
+        <v xml:space="preserve">GlassmorphismProductCards"
+            width="460"
+            height="315"
+            src="src/GlassmorphismProductCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3775,26 +3772,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismParallax/index.html" target="_blank"&gt;GlassmorphismParallax&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismParallax"
-            width="460"
-            height="315"
-            src="src/GlassmorphismParallax/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GlassmorphismProductCards/index.html" target="_blank"&gt;GlassmorphismProductCards&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismProductCards"
+            width="460"
+            height="315"
+            src="src/GlassmorphismProductCards/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>96</v>
@@ -3815,7 +3812,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismProductCards/index.html" target="_blank"&gt;GlassmorphismProductCards&lt;/a&gt;
+        &lt;a href="src/GlassmorphismUserCard/index.html" target="_blank"&gt;GlassmorphismUserCard&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3823,10 +3820,10 @@
       </c>
       <c r="H49" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismProductCards"
-            width="460"
-            height="315"
-            src="src/GlassmorphismProductCards/index.html"
+        <v xml:space="preserve">GlassmorphismUserCard"
+            width="460"
+            height="315"
+            src="src/GlassmorphismUserCard/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3839,26 +3836,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismProductCards/index.html" target="_blank"&gt;GlassmorphismProductCards&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismProductCards"
-            width="460"
-            height="315"
-            src="src/GlassmorphismProductCards/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GlassmorphismUserCard/index.html" target="_blank"&gt;GlassmorphismUserCard&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismUserCard"
+            width="460"
+            height="315"
+            src="src/GlassmorphismUserCard/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>96</v>
@@ -3879,7 +3876,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismUserCard/index.html" target="_blank"&gt;GlassmorphismUserCard&lt;/a&gt;
+        &lt;a href="src/GlassmorphismWebSite/index.html" target="_blank"&gt;GlassmorphismWebSite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3887,10 +3884,10 @@
       </c>
       <c r="H50" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismUserCard"
-            width="460"
-            height="315"
-            src="src/GlassmorphismUserCard/index.html"
+        <v xml:space="preserve">GlassmorphismWebSite"
+            width="460"
+            height="315"
+            src="src/GlassmorphismWebSite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3903,26 +3900,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismUserCard/index.html" target="_blank"&gt;GlassmorphismUserCard&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismUserCard"
-            width="460"
-            height="315"
-            src="src/GlassmorphismUserCard/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GlassmorphismWebSite/index.html" target="_blank"&gt;GlassmorphismWebSite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismWebSite"
+            width="460"
+            height="315"
+            src="src/GlassmorphismWebSite/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>96</v>
@@ -3943,7 +3940,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismWebSite/index.html" target="_blank"&gt;GlassmorphismWebSite&lt;/a&gt;
+        &lt;a href="src/GlassShutter/index.html" target="_blank"&gt;GlassShutter&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3951,10 +3948,10 @@
       </c>
       <c r="H51" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismWebSite"
-            width="460"
-            height="315"
-            src="src/GlassmorphismWebSite/index.html"
+        <v xml:space="preserve">GlassShutter"
+            width="460"
+            height="315"
+            src="src/GlassShutter/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3967,26 +3964,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismWebSite/index.html" target="_blank"&gt;GlassmorphismWebSite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismWebSite"
-            width="460"
-            height="315"
-            src="src/GlassmorphismWebSite/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GlassShutter/index.html" target="_blank"&gt;GlassShutter&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassShutter"
+            width="460"
+            height="315"
+            src="src/GlassShutter/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>96</v>
@@ -4007,7 +4004,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassShutter/index.html" target="_blank"&gt;GlassShutter&lt;/a&gt;
+        &lt;a href="src/GlobeCircleTextAnimation/index.html" target="_blank"&gt;GlobeCircleTextAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4015,10 +4012,10 @@
       </c>
       <c r="H52" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassShutter"
-            width="460"
-            height="315"
-            src="src/GlassShutter/index.html"
+        <v xml:space="preserve">GlobeCircleTextAnimation"
+            width="460"
+            height="315"
+            src="src/GlobeCircleTextAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4031,26 +4028,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassShutter/index.html" target="_blank"&gt;GlassShutter&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassShutter"
-            width="460"
-            height="315"
-            src="src/GlassShutter/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GlobeCircleTextAnimation/index.html" target="_blank"&gt;GlobeCircleTextAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlobeCircleTextAnimation"
+            width="460"
+            height="315"
+            src="src/GlobeCircleTextAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>96</v>
@@ -4071,7 +4068,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlobeCircleTextAnimation/index.html" target="_blank"&gt;GlobeCircleTextAnimation&lt;/a&gt;
+        &lt;a href="src/GlowingDots03/index.html" target="_blank"&gt;GlowingDots03&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4079,10 +4076,10 @@
       </c>
       <c r="H53" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlobeCircleTextAnimation"
-            width="460"
-            height="315"
-            src="src/GlobeCircleTextAnimation/index.html"
+        <v xml:space="preserve">GlowingDots03"
+            width="460"
+            height="315"
+            src="src/GlowingDots03/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4095,26 +4092,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlobeCircleTextAnimation/index.html" target="_blank"&gt;GlobeCircleTextAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlobeCircleTextAnimation"
-            width="460"
-            height="315"
-            src="src/GlobeCircleTextAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GlowingDots03/index.html" target="_blank"&gt;GlowingDots03&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlowingDots03"
+            width="460"
+            height="315"
+            src="src/GlowingDots03/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>96</v>
@@ -4135,7 +4132,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlowingDots03/index.html" target="_blank"&gt;GlowingDots03&lt;/a&gt;
+        &lt;a href="src/GooeyCircleLoader/index.html" target="_blank"&gt;GooeyCircleLoader&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4143,10 +4140,10 @@
       </c>
       <c r="H54" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlowingDots03"
-            width="460"
-            height="315"
-            src="src/GlowingDots03/index.html"
+        <v xml:space="preserve">GooeyCircleLoader"
+            width="460"
+            height="315"
+            src="src/GooeyCircleLoader/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4159,26 +4156,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlowingDots03/index.html" target="_blank"&gt;GlowingDots03&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlowingDots03"
-            width="460"
-            height="315"
-            src="src/GlowingDots03/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GooeyCircleLoader/index.html" target="_blank"&gt;GooeyCircleLoader&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GooeyCircleLoader"
+            width="460"
+            height="315"
+            src="src/GooeyCircleLoader/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>96</v>
@@ -4199,7 +4196,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GooeyCircleLoader/index.html" target="_blank"&gt;GooeyCircleLoader&lt;/a&gt;
+        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4207,10 +4204,10 @@
       </c>
       <c r="H55" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GooeyCircleLoader"
-            width="460"
-            height="315"
-            src="src/GooeyCircleLoader/index.html"
+        <v xml:space="preserve">GradientBorderCards"
+            width="460"
+            height="315"
+            src="src/GradientBorderCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4223,26 +4220,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GooeyCircleLoader/index.html" target="_blank"&gt;GooeyCircleLoader&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GooeyCircleLoader"
-            width="460"
-            height="315"
-            src="src/GooeyCircleLoader/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GradientBorderCards"
+            width="460"
+            height="315"
+            src="src/GradientBorderCards/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>96</v>
@@ -4263,7 +4260,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
+        &lt;a href="src/GradientGlowingGlassmorphismCards/index.html" target="_blank"&gt;GradientGlowingGlassmorphismCards&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4271,10 +4268,10 @@
       </c>
       <c r="H56" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GradientBorderCards"
-            width="460"
-            height="315"
-            src="src/GradientBorderCards/index.html"
+        <v xml:space="preserve">GradientGlowingGlassmorphismCards"
+            width="460"
+            height="315"
+            src="src/GradientGlowingGlassmorphismCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4287,26 +4284,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GradientBorderCards"
-            width="460"
-            height="315"
-            src="src/GradientBorderCards/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GradientGlowingGlassmorphismCards/index.html" target="_blank"&gt;GradientGlowingGlassmorphismCards&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GradientGlowingGlassmorphismCards"
+            width="460"
+            height="315"
+            src="src/GradientGlowingGlassmorphismCards/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>96</v>
@@ -4327,7 +4324,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GradientGlowingGlassmorphismCards/index.html" target="_blank"&gt;GradientGlowingGlassmorphismCards&lt;/a&gt;
+        &lt;a href="src/GSAPMousemoveFollowFun/index.html" target="_blank"&gt;GSAPMousemoveFollowFun&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4335,10 +4332,10 @@
       </c>
       <c r="H57" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GradientGlowingGlassmorphismCards"
-            width="460"
-            height="315"
-            src="src/GradientGlowingGlassmorphismCards/index.html"
+        <v xml:space="preserve">GSAPMousemoveFollowFun"
+            width="460"
+            height="315"
+            src="src/GSAPMousemoveFollowFun/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4351,26 +4348,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GradientGlowingGlassmorphismCards/index.html" target="_blank"&gt;GradientGlowingGlassmorphismCards&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GradientGlowingGlassmorphismCards"
-            width="460"
-            height="315"
-            src="src/GradientGlowingGlassmorphismCards/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GSAPMousemoveFollowFun/index.html" target="_blank"&gt;GSAPMousemoveFollowFun&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GSAPMousemoveFollowFun"
+            width="460"
+            height="315"
+            src="src/GSAPMousemoveFollowFun/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>96</v>
@@ -4391,7 +4388,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GSAPMousemoveFollowFun/index.html" target="_blank"&gt;GSAPMousemoveFollowFun&lt;/a&gt;
+        &lt;a href="src/GSAPTextMousemoveFollowFun/index.html" target="_blank"&gt;GSAPTextMousemoveFollowFun&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4399,10 +4396,10 @@
       </c>
       <c r="H58" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GSAPMousemoveFollowFun"
-            width="460"
-            height="315"
-            src="src/GSAPMousemoveFollowFun/index.html"
+        <v xml:space="preserve">GSAPTextMousemoveFollowFun"
+            width="460"
+            height="315"
+            src="src/GSAPTextMousemoveFollowFun/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4415,26 +4412,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GSAPMousemoveFollowFun/index.html" target="_blank"&gt;GSAPMousemoveFollowFun&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GSAPMousemoveFollowFun"
-            width="460"
-            height="315"
-            src="src/GSAPMousemoveFollowFun/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/GSAPTextMousemoveFollowFun/index.html" target="_blank"&gt;GSAPTextMousemoveFollowFun&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GSAPTextMousemoveFollowFun"
+            width="460"
+            height="315"
+            src="src/GSAPTextMousemoveFollowFun/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>96</v>
@@ -4455,7 +4452,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GSAPTextMousemoveFollowFun/index.html" target="_blank"&gt;GSAPTextMousemoveFollowFun&lt;/a&gt;
+        &lt;a href="src/HappyChristmas2020/index.html" target="_blank"&gt;HappyChristmas2020&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4463,10 +4460,10 @@
       </c>
       <c r="H59" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GSAPTextMousemoveFollowFun"
-            width="460"
-            height="315"
-            src="src/GSAPTextMousemoveFollowFun/index.html"
+        <v xml:space="preserve">HappyChristmas2020"
+            width="460"
+            height="315"
+            src="src/HappyChristmas2020/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4479,26 +4476,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GSAPTextMousemoveFollowFun/index.html" target="_blank"&gt;GSAPTextMousemoveFollowFun&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GSAPTextMousemoveFollowFun"
-            width="460"
-            height="315"
-            src="src/GSAPTextMousemoveFollowFun/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/HappyChristmas2020/index.html" target="_blank"&gt;HappyChristmas2020&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="HappyChristmas2020"
+            width="460"
+            height="315"
+            src="src/HappyChristmas2020/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>96</v>
@@ -4519,7 +4516,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/HappyChristmas2020/index.html" target="_blank"&gt;HappyChristmas2020&lt;/a&gt;
+        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4527,10 +4524,10 @@
       </c>
       <c r="H60" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">HappyChristmas2020"
-            width="460"
-            height="315"
-            src="src/HappyChristmas2020/index.html"
+        <v xml:space="preserve">Heroes_ResponsiveWebsiteLandingPage"
+            width="460"
+            height="315"
+            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4543,26 +4540,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/HappyChristmas2020/index.html" target="_blank"&gt;HappyChristmas2020&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="HappyChristmas2020"
-            width="460"
-            height="315"
-            src="src/HappyChristmas2020/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Heroes_ResponsiveWebsiteLandingPage"
+            width="460"
+            height="315"
+            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>96</v>
@@ -4583,7 +4580,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
+        &lt;a href="src/HexagonShapeDiv/index.html" target="_blank"&gt;HexagonShapeDiv&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4591,10 +4588,10 @@
       </c>
       <c r="H61" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Heroes_ResponsiveWebsiteLandingPage"
-            width="460"
-            height="315"
-            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
+        <v xml:space="preserve">HexagonShapeDiv"
+            width="460"
+            height="315"
+            src="src/HexagonShapeDiv/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4607,26 +4604,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Heroes_ResponsiveWebsiteLandingPage"
-            width="460"
-            height="315"
-            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/HexagonShapeDiv/index.html" target="_blank"&gt;HexagonShapeDiv&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="HexagonShapeDiv"
+            width="460"
+            height="315"
+            src="src/HexagonShapeDiv/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>96</v>
@@ -4647,7 +4644,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/HexagonShapeDiv/index.html" target="_blank"&gt;HexagonShapeDiv&lt;/a&gt;
+        &lt;a href="src/imageHoverEffects/index.html" target="_blank"&gt;imageHoverEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4655,10 +4652,10 @@
       </c>
       <c r="H62" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">HexagonShapeDiv"
-            width="460"
-            height="315"
-            src="src/HexagonShapeDiv/index.html"
+        <v xml:space="preserve">imageHoverEffects"
+            width="460"
+            height="315"
+            src="src/imageHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4671,26 +4668,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/HexagonShapeDiv/index.html" target="_blank"&gt;HexagonShapeDiv&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="HexagonShapeDiv"
-            width="460"
-            height="315"
-            src="src/HexagonShapeDiv/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/imageHoverEffects/index.html" target="_blank"&gt;imageHoverEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="imageHoverEffects"
+            width="460"
+            height="315"
+            src="src/imageHoverEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>96</v>
@@ -4711,7 +4708,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/imageHoverEffects/index.html" target="_blank"&gt;imageHoverEffects&lt;/a&gt;
+        &lt;a href="src/JavascriptClipPathScroll02/index.html" target="_blank"&gt;JavascriptClipPathScroll02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4719,10 +4716,10 @@
       </c>
       <c r="H63" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">imageHoverEffects"
-            width="460"
-            height="315"
-            src="src/imageHoverEffects/index.html"
+        <v xml:space="preserve">JavascriptClipPathScroll02"
+            width="460"
+            height="315"
+            src="src/JavascriptClipPathScroll02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4735,26 +4732,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/imageHoverEffects/index.html" target="_blank"&gt;imageHoverEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="imageHoverEffects"
-            width="460"
-            height="315"
-            src="src/imageHoverEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/JavascriptClipPathScroll02/index.html" target="_blank"&gt;JavascriptClipPathScroll02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="JavascriptClipPathScroll02"
+            width="460"
+            height="315"
+            src="src/JavascriptClipPathScroll02/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>96</v>
@@ -4775,7 +4772,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JavascriptClipPathScroll02/index.html" target="_blank"&gt;JavascriptClipPathScroll02&lt;/a&gt;
+        &lt;a href="src/JsAnimation/index.html" target="_blank"&gt;JsAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4783,10 +4780,10 @@
       </c>
       <c r="H64" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">JavascriptClipPathScroll02"
-            width="460"
-            height="315"
-            src="src/JavascriptClipPathScroll02/index.html"
+        <v xml:space="preserve">JsAnimation"
+            width="460"
+            height="315"
+            src="src/JsAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4799,26 +4796,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JavascriptClipPathScroll02/index.html" target="_blank"&gt;JavascriptClipPathScroll02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="JavascriptClipPathScroll02"
-            width="460"
-            height="315"
-            src="src/JavascriptClipPathScroll02/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/JsAnimation/index.html" target="_blank"&gt;JsAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="JsAnimation"
+            width="460"
+            height="315"
+            src="src/JsAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>96</v>
@@ -4839,7 +4836,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JsAnimation/index.html" target="_blank"&gt;JsAnimation&lt;/a&gt;
+        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4847,10 +4844,10 @@
       </c>
       <c r="H65" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">JsAnimation"
-            width="460"
-            height="315"
-            src="src/JsAnimation/index.html"
+        <v xml:space="preserve">JsAnimation2"
+            width="460"
+            height="315"
+            src="src/JsAnimation2/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4863,26 +4860,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JsAnimation/index.html" target="_blank"&gt;JsAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="JsAnimation"
-            width="460"
-            height="315"
-            src="src/JsAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="JsAnimation2"
+            width="460"
+            height="315"
+            src="src/JsAnimation2/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>96</v>
@@ -4903,7 +4900,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
+        &lt;a href="src/JustForFunMousemoveEffectsJS/index.html" target="_blank"&gt;JustForFunMousemoveEffectsJS&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4911,10 +4908,10 @@
       </c>
       <c r="H66" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">JsAnimation2"
-            width="460"
-            height="315"
-            src="src/JsAnimation2/index.html"
+        <v xml:space="preserve">JustForFunMousemoveEffectsJS"
+            width="460"
+            height="315"
+            src="src/JustForFunMousemoveEffectsJS/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4927,26 +4924,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="JsAnimation2"
-            width="460"
-            height="315"
-            src="src/JsAnimation2/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/JustForFunMousemoveEffectsJS/index.html" target="_blank"&gt;JustForFunMousemoveEffectsJS&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="JustForFunMousemoveEffectsJS"
+            width="460"
+            height="315"
+            src="src/JustForFunMousemoveEffectsJS/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>96</v>
@@ -4967,7 +4964,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JustForFunMousemoveEffectsJS/index.html" target="_blank"&gt;JustForFunMousemoveEffectsJS&lt;/a&gt;
+        &lt;a href="src/LettersCountJavascript/index.html" target="_blank"&gt;LettersCountJavascript&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4975,10 +4972,10 @@
       </c>
       <c r="H67" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">JustForFunMousemoveEffectsJS"
-            width="460"
-            height="315"
-            src="src/JustForFunMousemoveEffectsJS/index.html"
+        <v xml:space="preserve">LettersCountJavascript"
+            width="460"
+            height="315"
+            src="src/LettersCountJavascript/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4991,26 +4988,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JustForFunMousemoveEffectsJS/index.html" target="_blank"&gt;JustForFunMousemoveEffectsJS&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="JustForFunMousemoveEffectsJS"
-            width="460"
-            height="315"
-            src="src/JustForFunMousemoveEffectsJS/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/LettersCountJavascript/index.html" target="_blank"&gt;LettersCountJavascript&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="LettersCountJavascript"
+            width="460"
+            height="315"
+            src="src/LettersCountJavascript/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>96</v>
@@ -5028,21 +5025,21 @@
         <v>103</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/LettersCountJavascript/index.html" target="_blank"&gt;LettersCountJavascript&lt;/a&gt;
+        <f t="shared" ref="G68:G97" si="3">_xlfn.CONCAT($B68,$A68,$C68,$A68,$D68)</f>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/LoadingAnimationEffects/index.html" target="_blank"&gt;LoadingAnimationEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H68" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">LettersCountJavascript"
-            width="460"
-            height="315"
-            src="src/LettersCountJavascript/index.html"
+        <f t="shared" ref="H68:H97" si="4">_xlfn.CONCAT($A68,$E68,$A68,$F68)</f>
+        <v xml:space="preserve">LoadingAnimationEffects"
+            width="460"
+            height="315"
+            src="src/LoadingAnimationEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5052,29 +5049,29 @@
       </v>
       </c>
       <c r="I68" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/LettersCountJavascript/index.html" target="_blank"&gt;LettersCountJavascript&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="LettersCountJavascript"
-            width="460"
-            height="315"
-            src="src/LettersCountJavascript/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I68:I97" si="5">_xlfn.CONCAT($G68,$H68)</f>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/LoadingAnimationEffects/index.html" target="_blank"&gt;LoadingAnimationEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="LoadingAnimationEffects"
+            width="460"
+            height="315"
+            src="src/LoadingAnimationEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>96</v>
@@ -5092,21 +5089,21 @@
         <v>103</v>
       </c>
       <c r="G69" s="3" t="str">
-        <f t="shared" ref="G69:G98" si="3">_xlfn.CONCAT($B69,$A69,$C69,$A69,$D69)</f>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/LoadingAnimationEffects/index.html" target="_blank"&gt;LoadingAnimationEffects&lt;/a&gt;
+        <f t="shared" si="3"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/MenuToggleJavascript/index.html" target="_blank"&gt;MenuToggleJavascript&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H69" s="3" t="str">
-        <f t="shared" ref="H69:H98" si="4">_xlfn.CONCAT($A69,$E69,$A69,$F69)</f>
-        <v xml:space="preserve">LoadingAnimationEffects"
-            width="460"
-            height="315"
-            src="src/LoadingAnimationEffects/index.html"
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">MenuToggleJavascript"
+            width="460"
+            height="315"
+            src="src/MenuToggleJavascript/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5116,29 +5113,29 @@
       </v>
       </c>
       <c r="I69" s="7" t="str">
-        <f t="shared" ref="I69:I98" si="5">_xlfn.CONCAT($G69,$H69)</f>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/LoadingAnimationEffects/index.html" target="_blank"&gt;LoadingAnimationEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="LoadingAnimationEffects"
-            width="460"
-            height="315"
-            src="src/LoadingAnimationEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/MenuToggleJavascript/index.html" target="_blank"&gt;MenuToggleJavascript&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="MenuToggleJavascript"
+            width="460"
+            height="315"
+            src="src/MenuToggleJavascript/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>96</v>
@@ -5159,7 +5156,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/MenuToggleJavascript/index.html" target="_blank"&gt;MenuToggleJavascript&lt;/a&gt;
+        &lt;a href="src/NavigationDrawer/index.html" target="_blank"&gt;NavigationDrawer&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5167,10 +5164,10 @@
       </c>
       <c r="H70" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">MenuToggleJavascript"
-            width="460"
-            height="315"
-            src="src/MenuToggleJavascript/index.html"
+        <v xml:space="preserve">NavigationDrawer"
+            width="460"
+            height="315"
+            src="src/NavigationDrawer/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5183,26 +5180,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/MenuToggleJavascript/index.html" target="_blank"&gt;MenuToggleJavascript&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="MenuToggleJavascript"
-            width="460"
-            height="315"
-            src="src/MenuToggleJavascript/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/NavigationDrawer/index.html" target="_blank"&gt;NavigationDrawer&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="NavigationDrawer"
+            width="460"
+            height="315"
+            src="src/NavigationDrawer/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>96</v>
@@ -5223,7 +5220,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NavigationDrawer/index.html" target="_blank"&gt;NavigationDrawer&lt;/a&gt;
+        &lt;a href="src/NavigationMenuHoverEffects/index.html" target="_blank"&gt;NavigationMenuHoverEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5231,10 +5228,10 @@
       </c>
       <c r="H71" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">NavigationDrawer"
-            width="460"
-            height="315"
-            src="src/NavigationDrawer/index.html"
+        <v xml:space="preserve">NavigationMenuHoverEffects"
+            width="460"
+            height="315"
+            src="src/NavigationMenuHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5247,26 +5244,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NavigationDrawer/index.html" target="_blank"&gt;NavigationDrawer&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="NavigationDrawer"
-            width="460"
-            height="315"
-            src="src/NavigationDrawer/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/NavigationMenuHoverEffects/index.html" target="_blank"&gt;NavigationMenuHoverEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="NavigationMenuHoverEffects"
+            width="460"
+            height="315"
+            src="src/NavigationMenuHoverEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>96</v>
@@ -5287,7 +5284,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NavigationMenuHoverEffects/index.html" target="_blank"&gt;NavigationMenuHoverEffects&lt;/a&gt;
+        &lt;a href="src/NavigationTooltip/index.html" target="_blank"&gt;NavigationTooltip&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5295,10 +5292,10 @@
       </c>
       <c r="H72" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">NavigationMenuHoverEffects"
-            width="460"
-            height="315"
-            src="src/NavigationMenuHoverEffects/index.html"
+        <v xml:space="preserve">NavigationTooltip"
+            width="460"
+            height="315"
+            src="src/NavigationTooltip/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5311,26 +5308,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NavigationMenuHoverEffects/index.html" target="_blank"&gt;NavigationMenuHoverEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="NavigationMenuHoverEffects"
-            width="460"
-            height="315"
-            src="src/NavigationMenuHoverEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/NavigationTooltip/index.html" target="_blank"&gt;NavigationTooltip&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="NavigationTooltip"
+            width="460"
+            height="315"
+            src="src/NavigationTooltip/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>96</v>
@@ -5351,7 +5348,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NavigationTooltip/index.html" target="_blank"&gt;NavigationTooltip&lt;/a&gt;
+        &lt;a href="src/NavigationWithIcons/index.html" target="_blank"&gt;NavigationWithIcons&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5359,10 +5356,10 @@
       </c>
       <c r="H73" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">NavigationTooltip"
-            width="460"
-            height="315"
-            src="src/NavigationTooltip/index.html"
+        <v xml:space="preserve">NavigationWithIcons"
+            width="460"
+            height="315"
+            src="src/NavigationWithIcons/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5375,26 +5372,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NavigationTooltip/index.html" target="_blank"&gt;NavigationTooltip&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="NavigationTooltip"
-            width="460"
-            height="315"
-            src="src/NavigationTooltip/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/NavigationWithIcons/index.html" target="_blank"&gt;NavigationWithIcons&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="NavigationWithIcons"
+            width="460"
+            height="315"
+            src="src/NavigationWithIcons/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>96</v>
@@ -5415,7 +5412,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NavigationWithIcons/index.html" target="_blank"&gt;NavigationWithIcons&lt;/a&gt;
+        &lt;a href="src/NetflixLandingPageUI/index.html" target="_blank"&gt;NetflixLandingPageUI&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5423,10 +5420,10 @@
       </c>
       <c r="H74" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">NavigationWithIcons"
-            width="460"
-            height="315"
-            src="src/NavigationWithIcons/index.html"
+        <v xml:space="preserve">NetflixLandingPageUI"
+            width="460"
+            height="315"
+            src="src/NetflixLandingPageUI/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5439,26 +5436,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NavigationWithIcons/index.html" target="_blank"&gt;NavigationWithIcons&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="NavigationWithIcons"
-            width="460"
-            height="315"
-            src="src/NavigationWithIcons/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/NetflixLandingPageUI/index.html" target="_blank"&gt;NetflixLandingPageUI&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="NetflixLandingPageUI"
+            width="460"
+            height="315"
+            src="src/NetflixLandingPageUI/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>96</v>
@@ -5479,7 +5476,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NetflixLandingPageUI/index.html" target="_blank"&gt;NetflixLandingPageUI&lt;/a&gt;
+        &lt;a href="src/NeumorphismCheckBox/index.html" target="_blank"&gt;NeumorphismCheckBox&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5487,10 +5484,10 @@
       </c>
       <c r="H75" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">NetflixLandingPageUI"
-            width="460"
-            height="315"
-            src="src/NetflixLandingPageUI/index.html"
+        <v xml:space="preserve">NeumorphismCheckBox"
+            width="460"
+            height="315"
+            src="src/NeumorphismCheckBox/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5503,26 +5500,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NetflixLandingPageUI/index.html" target="_blank"&gt;NetflixLandingPageUI&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="NetflixLandingPageUI"
-            width="460"
-            height="315"
-            src="src/NetflixLandingPageUI/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/NeumorphismCheckBox/index.html" target="_blank"&gt;NeumorphismCheckBox&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="NeumorphismCheckBox"
+            width="460"
+            height="315"
+            src="src/NeumorphismCheckBox/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>96</v>
@@ -5543,7 +5540,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NeumorphismCheckBox/index.html" target="_blank"&gt;NeumorphismCheckBox&lt;/a&gt;
+        &lt;a href="src/NeumorphismPricingCardUIDesign/index.html" target="_blank"&gt;NeumorphismPricingCardUIDesign&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5551,10 +5548,10 @@
       </c>
       <c r="H76" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">NeumorphismCheckBox"
-            width="460"
-            height="315"
-            src="src/NeumorphismCheckBox/index.html"
+        <v xml:space="preserve">NeumorphismPricingCardUIDesign"
+            width="460"
+            height="315"
+            src="src/NeumorphismPricingCardUIDesign/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5567,26 +5564,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NeumorphismCheckBox/index.html" target="_blank"&gt;NeumorphismCheckBox&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="NeumorphismCheckBox"
-            width="460"
-            height="315"
-            src="src/NeumorphismCheckBox/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/NeumorphismPricingCardUIDesign/index.html" target="_blank"&gt;NeumorphismPricingCardUIDesign&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="NeumorphismPricingCardUIDesign"
+            width="460"
+            height="315"
+            src="src/NeumorphismPricingCardUIDesign/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>96</v>
@@ -5607,7 +5604,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NeumorphismPricingCardUIDesign/index.html" target="_blank"&gt;NeumorphismPricingCardUIDesign&lt;/a&gt;
+        &lt;a href="src/PaintBrushTextEffects/index.html" target="_blank"&gt;PaintBrushTextEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5615,10 +5612,10 @@
       </c>
       <c r="H77" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">NeumorphismPricingCardUIDesign"
-            width="460"
-            height="315"
-            src="src/NeumorphismPricingCardUIDesign/index.html"
+        <v xml:space="preserve">PaintBrushTextEffects"
+            width="460"
+            height="315"
+            src="src/PaintBrushTextEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5631,26 +5628,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NeumorphismPricingCardUIDesign/index.html" target="_blank"&gt;NeumorphismPricingCardUIDesign&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="NeumorphismPricingCardUIDesign"
-            width="460"
-            height="315"
-            src="src/NeumorphismPricingCardUIDesign/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/PaintBrushTextEffects/index.html" target="_blank"&gt;PaintBrushTextEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PaintBrushTextEffects"
+            width="460"
+            height="315"
+            src="src/PaintBrushTextEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="4" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>96</v>
@@ -5671,7 +5668,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PaintBrushTextEffects/index.html" target="_blank"&gt;PaintBrushTextEffects&lt;/a&gt;
+        &lt;a href="src/PepsiCardHoverEffects/index.html" target="_blank"&gt;PepsiCardHoverEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5679,10 +5676,10 @@
       </c>
       <c r="H78" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PaintBrushTextEffects"
-            width="460"
-            height="315"
-            src="src/PaintBrushTextEffects/index.html"
+        <v xml:space="preserve">PepsiCardHoverEffects"
+            width="460"
+            height="315"
+            src="src/PepsiCardHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5695,26 +5692,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PaintBrushTextEffects/index.html" target="_blank"&gt;PaintBrushTextEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PaintBrushTextEffects"
-            width="460"
-            height="315"
-            src="src/PaintBrushTextEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/PepsiCardHoverEffects/index.html" target="_blank"&gt;PepsiCardHoverEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PepsiCardHoverEffects"
+            width="460"
+            height="315"
+            src="src/PepsiCardHoverEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>96</v>
@@ -5735,7 +5732,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PepsiCardHoverEffects/index.html" target="_blank"&gt;PepsiCardHoverEffects&lt;/a&gt;
+        &lt;a href="src/PersonalPortfolio/index.html" target="_blank"&gt;PersonalPortfolio&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5743,10 +5740,10 @@
       </c>
       <c r="H79" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PepsiCardHoverEffects"
-            width="460"
-            height="315"
-            src="src/PepsiCardHoverEffects/index.html"
+        <v xml:space="preserve">PersonalPortfolio"
+            width="460"
+            height="315"
+            src="src/PersonalPortfolio/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5759,26 +5756,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PepsiCardHoverEffects/index.html" target="_blank"&gt;PepsiCardHoverEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PepsiCardHoverEffects"
-            width="460"
-            height="315"
-            src="src/PepsiCardHoverEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/PersonalPortfolio/index.html" target="_blank"&gt;PersonalPortfolio&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PersonalPortfolio"
+            width="460"
+            height="315"
+            src="src/PersonalPortfolio/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>96</v>
@@ -5799,7 +5796,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PersonalPortfolio/index.html" target="_blank"&gt;PersonalPortfolio&lt;/a&gt;
+        &lt;a href="src/PlaceImageInsideSilhouette/index.html" target="_blank"&gt;PlaceImageInsideSilhouette&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5807,10 +5804,10 @@
       </c>
       <c r="H80" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PersonalPortfolio"
-            width="460"
-            height="315"
-            src="src/PersonalPortfolio/index.html"
+        <v xml:space="preserve">PlaceImageInsideSilhouette"
+            width="460"
+            height="315"
+            src="src/PlaceImageInsideSilhouette/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5823,26 +5820,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PersonalPortfolio/index.html" target="_blank"&gt;PersonalPortfolio&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PersonalPortfolio"
-            width="460"
-            height="315"
-            src="src/PersonalPortfolio/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/PlaceImageInsideSilhouette/index.html" target="_blank"&gt;PlaceImageInsideSilhouette&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PlaceImageInsideSilhouette"
+            width="460"
+            height="315"
+            src="src/PlaceImageInsideSilhouette/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>96</v>
@@ -5863,7 +5860,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PlaceImageInsideSilhouette/index.html" target="_blank"&gt;PlaceImageInsideSilhouette&lt;/a&gt;
+        &lt;a href="src/PlayPausedVideoToggleOnHover/index.html" target="_blank"&gt;PlayPausedVideoToggleOnHover&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5871,10 +5868,10 @@
       </c>
       <c r="H81" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PlaceImageInsideSilhouette"
-            width="460"
-            height="315"
-            src="src/PlaceImageInsideSilhouette/index.html"
+        <v xml:space="preserve">PlayPausedVideoToggleOnHover"
+            width="460"
+            height="315"
+            src="src/PlayPausedVideoToggleOnHover/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5887,26 +5884,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PlaceImageInsideSilhouette/index.html" target="_blank"&gt;PlaceImageInsideSilhouette&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PlaceImageInsideSilhouette"
-            width="460"
-            height="315"
-            src="src/PlaceImageInsideSilhouette/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/PlayPausedVideoToggleOnHover/index.html" target="_blank"&gt;PlayPausedVideoToggleOnHover&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PlayPausedVideoToggleOnHover"
+            width="460"
+            height="315"
+            src="src/PlayPausedVideoToggleOnHover/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>96</v>
@@ -5927,7 +5924,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PlayPausedVideoToggleOnHover/index.html" target="_blank"&gt;PlayPausedVideoToggleOnHover&lt;/a&gt;
+        &lt;a href="src/PopupNewsletter/index.html" target="_blank"&gt;PopupNewsletter&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5935,10 +5932,10 @@
       </c>
       <c r="H82" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PlayPausedVideoToggleOnHover"
-            width="460"
-            height="315"
-            src="src/PlayPausedVideoToggleOnHover/index.html"
+        <v xml:space="preserve">PopupNewsletter"
+            width="460"
+            height="315"
+            src="src/PopupNewsletter/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5951,26 +5948,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PlayPausedVideoToggleOnHover/index.html" target="_blank"&gt;PlayPausedVideoToggleOnHover&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PlayPausedVideoToggleOnHover"
-            width="460"
-            height="315"
-            src="src/PlayPausedVideoToggleOnHover/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/PopupNewsletter/index.html" target="_blank"&gt;PopupNewsletter&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PopupNewsletter"
+            width="460"
+            height="315"
+            src="src/PopupNewsletter/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>96</v>
@@ -5991,7 +5988,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PopupNewsletter/index.html" target="_blank"&gt;PopupNewsletter&lt;/a&gt;
+        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -5999,10 +5996,10 @@
       </c>
       <c r="H83" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PopupNewsletter"
-            width="460"
-            height="315"
-            src="src/PopupNewsletter/index.html"
+        <v xml:space="preserve">PortfolioWebsite"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6015,26 +6012,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PopupNewsletter/index.html" target="_blank"&gt;PopupNewsletter&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PopupNewsletter"
-            width="460"
-            height="315"
-            src="src/PopupNewsletter/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PortfolioWebsite"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>96</v>
@@ -6055,7 +6052,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
+        &lt;a href="src/PortfolioWebsite02/index.html" target="_blank"&gt;PortfolioWebsite02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6063,10 +6060,10 @@
       </c>
       <c r="H84" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PortfolioWebsite"
-            width="460"
-            height="315"
-            src="src/PortfolioWebsite/index.html"
+        <v xml:space="preserve">PortfolioWebsite02"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6079,26 +6076,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioWebsite/index.html" target="_blank"&gt;PortfolioWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PortfolioWebsite"
-            width="460"
-            height="315"
-            src="src/PortfolioWebsite/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/PortfolioWebsite02/index.html" target="_blank"&gt;PortfolioWebsite02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PortfolioWebsite02"
+            width="460"
+            height="315"
+            src="src/PortfolioWebsite02/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>96</v>
@@ -6119,7 +6116,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioWebsite02/index.html" target="_blank"&gt;PortfolioWebsite02&lt;/a&gt;
+        &lt;a href="src/RainyDayJS/index.html" target="_blank"&gt;RainyDayJS&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6127,10 +6124,10 @@
       </c>
       <c r="H85" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">PortfolioWebsite02"
-            width="460"
-            height="315"
-            src="src/PortfolioWebsite02/index.html"
+        <v xml:space="preserve">RainyDayJS"
+            width="460"
+            height="315"
+            src="src/RainyDayJS/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6143,26 +6140,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioWebsite02/index.html" target="_blank"&gt;PortfolioWebsite02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PortfolioWebsite02"
-            width="460"
-            height="315"
-            src="src/PortfolioWebsite02/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/RainyDayJS/index.html" target="_blank"&gt;RainyDayJS&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="RainyDayJS"
+            width="460"
+            height="315"
+            src="src/RainyDayJS/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>96</v>
@@ -6183,7 +6180,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RainyDayJS/index.html" target="_blank"&gt;RainyDayJS&lt;/a&gt;
+        &lt;a href="src/RamadanKareem/index.html" target="_blank"&gt;RamadanKareem&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6191,10 +6188,10 @@
       </c>
       <c r="H86" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">RainyDayJS"
-            width="460"
-            height="315"
-            src="src/RainyDayJS/index.html"
+        <v xml:space="preserve">RamadanKareem"
+            width="460"
+            height="315"
+            src="src/RamadanKareem/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6207,26 +6204,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RainyDayJS/index.html" target="_blank"&gt;RainyDayJS&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="RainyDayJS"
-            width="460"
-            height="315"
-            src="src/RainyDayJS/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/RamadanKareem/index.html" target="_blank"&gt;RamadanKareem&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="RamadanKareem"
+            width="460"
+            height="315"
+            src="src/RamadanKareem/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>96</v>
@@ -6247,7 +6244,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RamadanKareem/index.html" target="_blank"&gt;RamadanKareem&lt;/a&gt;
+        &lt;a href="src/RandomColorSlotGentor/index.html" target="_blank"&gt;RandomColorSlotGentor&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6255,10 +6252,10 @@
       </c>
       <c r="H87" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">RamadanKareem"
-            width="460"
-            height="315"
-            src="src/RamadanKareem/index.html"
+        <v xml:space="preserve">RandomColorSlotGentor"
+            width="460"
+            height="315"
+            src="src/RandomColorSlotGentor/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6271,26 +6268,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RamadanKareem/index.html" target="_blank"&gt;RamadanKareem&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="RamadanKareem"
-            width="460"
-            height="315"
-            src="src/RamadanKareem/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/RandomColorSlotGentor/index.html" target="_blank"&gt;RandomColorSlotGentor&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="RandomColorSlotGentor"
+            width="460"
+            height="315"
+            src="src/RandomColorSlotGentor/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>96</v>
@@ -6311,7 +6308,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RandomColorSlotGentor/index.html" target="_blank"&gt;RandomColorSlotGentor&lt;/a&gt;
+        &lt;a href="src/SignIn_SignUpForm02/index.html" target="_blank"&gt;SignIn_SignUpForm02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6319,10 +6316,10 @@
       </c>
       <c r="H88" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">RandomColorSlotGentor"
-            width="460"
-            height="315"
-            src="src/RandomColorSlotGentor/index.html"
+        <v xml:space="preserve">SignIn_SignUpForm02"
+            width="460"
+            height="315"
+            src="src/SignIn_SignUpForm02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6335,26 +6332,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RandomColorSlotGentor/index.html" target="_blank"&gt;RandomColorSlotGentor&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="RandomColorSlotGentor"
-            width="460"
-            height="315"
-            src="src/RandomColorSlotGentor/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/SignIn_SignUpForm02/index.html" target="_blank"&gt;SignIn_SignUpForm02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="SignIn_SignUpForm02"
+            width="460"
+            height="315"
+            src="src/SignIn_SignUpForm02/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>96</v>
@@ -6375,7 +6372,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/SignIn_SignUpForm02/index.html" target="_blank"&gt;SignIn_SignUpForm02&lt;/a&gt;
+        &lt;a href="src/SmokeJavascriptAnimationEffects/index.html" target="_blank"&gt;SmokeJavascriptAnimationEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6383,10 +6380,10 @@
       </c>
       <c r="H89" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">SignIn_SignUpForm02"
-            width="460"
-            height="315"
-            src="src/SignIn_SignUpForm02/index.html"
+        <v xml:space="preserve">SmokeJavascriptAnimationEffects"
+            width="460"
+            height="315"
+            src="src/SmokeJavascriptAnimationEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6399,26 +6396,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/SignIn_SignUpForm02/index.html" target="_blank"&gt;SignIn_SignUpForm02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="SignIn_SignUpForm02"
-            width="460"
-            height="315"
-            src="src/SignIn_SignUpForm02/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/SmokeJavascriptAnimationEffects/index.html" target="_blank"&gt;SmokeJavascriptAnimationEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="SmokeJavascriptAnimationEffects"
+            width="460"
+            height="315"
+            src="src/SmokeJavascriptAnimationEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>96</v>
@@ -6439,7 +6436,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/SmokeJavascriptAnimationEffects/index.html" target="_blank"&gt;SmokeJavascriptAnimationEffects&lt;/a&gt;
+        &lt;a href="src/SnapScrollingParallaxEffects02/index.html" target="_blank"&gt;SnapScrollingParallaxEffects02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6447,10 +6444,10 @@
       </c>
       <c r="H90" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">SmokeJavascriptAnimationEffects"
-            width="460"
-            height="315"
-            src="src/SmokeJavascriptAnimationEffects/index.html"
+        <v xml:space="preserve">SnapScrollingParallaxEffects02"
+            width="460"
+            height="315"
+            src="src/SnapScrollingParallaxEffects02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6463,26 +6460,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/SmokeJavascriptAnimationEffects/index.html" target="_blank"&gt;SmokeJavascriptAnimationEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="SmokeJavascriptAnimationEffects"
-            width="460"
-            height="315"
-            src="src/SmokeJavascriptAnimationEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/SnapScrollingParallaxEffects02/index.html" target="_blank"&gt;SnapScrollingParallaxEffects02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="SnapScrollingParallaxEffects02"
+            width="460"
+            height="315"
+            src="src/SnapScrollingParallaxEffects02/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>96</v>
@@ -6503,7 +6500,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/SnapScrollingParallaxEffects02/index.html" target="_blank"&gt;SnapScrollingParallaxEffects02&lt;/a&gt;
+        &lt;a href="src/StarbucksResponsive/index.html" target="_blank"&gt;StarbucksResponsive&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6511,10 +6508,10 @@
       </c>
       <c r="H91" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">SnapScrollingParallaxEffects02"
-            width="460"
-            height="315"
-            src="src/SnapScrollingParallaxEffects02/index.html"
+        <v xml:space="preserve">StarbucksResponsive"
+            width="460"
+            height="315"
+            src="src/StarbucksResponsive/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6527,26 +6524,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/SnapScrollingParallaxEffects02/index.html" target="_blank"&gt;SnapScrollingParallaxEffects02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="SnapScrollingParallaxEffects02"
-            width="460"
-            height="315"
-            src="src/SnapScrollingParallaxEffects02/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/StarbucksResponsive/index.html" target="_blank"&gt;StarbucksResponsive&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="StarbucksResponsive"
+            width="460"
+            height="315"
+            src="src/StarbucksResponsive/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>96</v>
@@ -6567,7 +6564,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/StarbucksResponsive/index.html" target="_blank"&gt;StarbucksResponsive&lt;/a&gt;
+        &lt;a href="src/TextTypingLoading/index.html" target="_blank"&gt;TextTypingLoading&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6575,10 +6572,10 @@
       </c>
       <c r="H92" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">StarbucksResponsive"
-            width="460"
-            height="315"
-            src="src/StarbucksResponsive/index.html"
+        <v xml:space="preserve">TextTypingLoading"
+            width="460"
+            height="315"
+            src="src/TextTypingLoading/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6591,26 +6588,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/StarbucksResponsive/index.html" target="_blank"&gt;StarbucksResponsive&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="StarbucksResponsive"
-            width="460"
-            height="315"
-            src="src/StarbucksResponsive/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/TextTypingLoading/index.html" target="_blank"&gt;TextTypingLoading&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="TextTypingLoading"
+            width="460"
+            height="315"
+            src="src/TextTypingLoading/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>96</v>
@@ -6631,7 +6628,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/TextTypingLoading/index.html" target="_blank"&gt;TextTypingLoading&lt;/a&gt;
+        &lt;a href="src/Uncharted4CardsUIDesign/index.html" target="_blank"&gt;Uncharted4CardsUIDesign&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6639,10 +6636,10 @@
       </c>
       <c r="H93" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">TextTypingLoading"
-            width="460"
-            height="315"
-            src="src/TextTypingLoading/index.html"
+        <v xml:space="preserve">Uncharted4CardsUIDesign"
+            width="460"
+            height="315"
+            src="src/Uncharted4CardsUIDesign/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6655,26 +6652,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/TextTypingLoading/index.html" target="_blank"&gt;TextTypingLoading&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="TextTypingLoading"
-            width="460"
-            height="315"
-            src="src/TextTypingLoading/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/Uncharted4CardsUIDesign/index.html" target="_blank"&gt;Uncharted4CardsUIDesign&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Uncharted4CardsUIDesign"
+            width="460"
+            height="315"
+            src="src/Uncharted4CardsUIDesign/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>96</v>
@@ -6695,7 +6692,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Uncharted4CardsUIDesign/index.html" target="_blank"&gt;Uncharted4CardsUIDesign&lt;/a&gt;
+        &lt;a href="src/WavySectionCSS/index.html" target="_blank"&gt;WavySectionCSS&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6703,10 +6700,10 @@
       </c>
       <c r="H94" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Uncharted4CardsUIDesign"
-            width="460"
-            height="315"
-            src="src/Uncharted4CardsUIDesign/index.html"
+        <v xml:space="preserve">WavySectionCSS"
+            width="460"
+            height="315"
+            src="src/WavySectionCSS/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6719,26 +6716,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Uncharted4CardsUIDesign/index.html" target="_blank"&gt;Uncharted4CardsUIDesign&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Uncharted4CardsUIDesign"
-            width="460"
-            height="315"
-            src="src/Uncharted4CardsUIDesign/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/WavySectionCSS/index.html" target="_blank"&gt;WavySectionCSS&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="WavySectionCSS"
+            width="460"
+            height="315"
+            src="src/WavySectionCSS/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>96</v>
@@ -6759,7 +6756,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/WavySectionCSS/index.html" target="_blank"&gt;WavySectionCSS&lt;/a&gt;
+        &lt;a href="src/WavyTextVanillaJavascript/index.html" target="_blank"&gt;WavyTextVanillaJavascript&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6767,10 +6764,10 @@
       </c>
       <c r="H95" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">WavySectionCSS"
-            width="460"
-            height="315"
-            src="src/WavySectionCSS/index.html"
+        <v xml:space="preserve">WavyTextVanillaJavascript"
+            width="460"
+            height="315"
+            src="src/WavyTextVanillaJavascript/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6783,26 +6780,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/WavySectionCSS/index.html" target="_blank"&gt;WavySectionCSS&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="WavySectionCSS"
-            width="460"
-            height="315"
-            src="src/WavySectionCSS/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/WavyTextVanillaJavascript/index.html" target="_blank"&gt;WavyTextVanillaJavascript&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="WavyTextVanillaJavascript"
+            width="460"
+            height="315"
+            src="src/WavyTextVanillaJavascript/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>96</v>
@@ -6823,7 +6820,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/WavyTextVanillaJavascript/index.html" target="_blank"&gt;WavyTextVanillaJavascript&lt;/a&gt;
+        &lt;a href="src/WrapTextAroundImage/index.html" target="_blank"&gt;WrapTextAroundImage&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6831,10 +6828,10 @@
       </c>
       <c r="H96" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">WavyTextVanillaJavascript"
-            width="460"
-            height="315"
-            src="src/WavyTextVanillaJavascript/index.html"
+        <v xml:space="preserve">WrapTextAroundImage"
+            width="460"
+            height="315"
+            src="src/WrapTextAroundImage/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6847,26 +6844,26 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/WavyTextVanillaJavascript/index.html" target="_blank"&gt;WavyTextVanillaJavascript&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="WavyTextVanillaJavascript"
-            width="460"
-            height="315"
-            src="src/WavyTextVanillaJavascript/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        &lt;a href="src/WrapTextAroundImage/index.html" target="_blank"&gt;WrapTextAroundImage&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="WrapTextAroundImage"
+            width="460"
+            height="315"
+            src="src/WrapTextAroundImage/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>96</v>
@@ -6887,7 +6884,7 @@
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/WrapTextAroundImage/index.html" target="_blank"&gt;WrapTextAroundImage&lt;/a&gt;
+        &lt;a href="src/zText.js/index.html" target="_blank"&gt;zText.js&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -6895,10 +6892,10 @@
       </c>
       <c r="H97" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">WrapTextAroundImage"
-            width="460"
-            height="315"
-            src="src/WrapTextAroundImage/index.html"
+        <v xml:space="preserve">zText.js"
+            width="460"
+            height="315"
+            src="src/zText.js/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -6908,70 +6905,6 @@
       </v>
       </c>
       <c r="I97" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/WrapTextAroundImage/index.html" target="_blank"&gt;WrapTextAroundImage&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="WrapTextAroundImage"
-            width="460"
-            height="315"
-            src="src/WrapTextAroundImage/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G98" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/zText.js/index.html" target="_blank"&gt;zText.js&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="</v>
-      </c>
-      <c r="H98" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">zText.js"
-            width="460"
-            height="315"
-            src="src/zText.js/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-      <c r="I98" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;

--- a/code.xlsx
+++ b/code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Effects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Effects - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D643E0-2B20-4C7D-9E08-14E767CC67C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2E796F-767D-453E-9364-F928E2757D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="110">
   <si>
     <t>2020-2021TextAnimation</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>CustomSelectDropdown</t>
+  </si>
+  <si>
+    <t>3DWavyCircleLoadingAnimation</t>
   </si>
 </sst>
 </file>
@@ -732,27 +735,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.53125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.19921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="1"/>
+    <col min="5" max="5" width="7.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>93</v>
       </c>
@@ -781,7 +784,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -845,7 +848,7 @@
       </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2021</v>
       </c>
@@ -865,7 +868,7 @@
         <v>103</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G67" si="0">_xlfn.CONCAT($B3,$A3,$C3,$A3,$D3)</f>
+        <f t="shared" ref="G3:G68" si="0">_xlfn.CONCAT($B3,$A3,$C3,$A3,$D3)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/2021/index.html" target="_blank"&gt;2021&lt;/a&gt;
@@ -875,7 +878,7 @@
             title="</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H67" si="1">_xlfn.CONCAT($A3,$E3,$A3,$F3)</f>
+        <f t="shared" ref="H3:H68" si="1">_xlfn.CONCAT($A3,$E3,$A3,$F3)</f>
         <v xml:space="preserve">2021"
             width="460"
             height="315"
@@ -889,7 +892,7 @@
       </v>
       </c>
       <c r="I3" s="7" t="str">
-        <f t="shared" ref="I3:I67" si="2">_xlfn.CONCAT($G3,$H3)</f>
+        <f t="shared" ref="I3:I68" si="2">_xlfn.CONCAT($G3,$H3)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/2021/index.html" target="_blank"&gt;2021&lt;/a&gt;
@@ -909,7 +912,7 @@
       </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -973,7 +976,7 @@
       </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1037,9 +1040,9 @@
       </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>96</v>
@@ -1060,7 +1063,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AlignItemUsingCSSGrid/index.html" target="_blank"&gt;AlignItemUsingCSSGrid&lt;/a&gt;
+        &lt;a href="src/3DWavyCircleLoadingAnimation/index.html" target="_blank"&gt;3DWavyCircleLoadingAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1068,10 +1071,10 @@
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AlignItemUsingCSSGrid"
-            width="460"
-            height="315"
-            src="src/AlignItemUsingCSSGrid/index.html"
+        <v xml:space="preserve">3DWavyCircleLoadingAnimation"
+            width="460"
+            height="315"
+            src="src/3DWavyCircleLoadingAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1084,26 +1087,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AlignItemUsingCSSGrid/index.html" target="_blank"&gt;AlignItemUsingCSSGrid&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AlignItemUsingCSSGrid"
-            width="460"
-            height="315"
-            src="src/AlignItemUsingCSSGrid/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/3DWavyCircleLoadingAnimation/index.html" target="_blank"&gt;3DWavyCircleLoadingAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="3DWavyCircleLoadingAnimation"
+            width="460"
+            height="315"
+            src="src/3DWavyCircleLoadingAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>96</v>
@@ -1124,7 +1127,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AlignTextUsingCSSFlex/index.html" target="_blank"&gt;AlignTextUsingCSSFlex&lt;/a&gt;
+        &lt;a href="src/AlignItemUsingCSSGrid/index.html" target="_blank"&gt;AlignItemUsingCSSGrid&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1132,10 +1135,10 @@
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AlignTextUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/AlignTextUsingCSSFlex/index.html"
+        <v xml:space="preserve">AlignItemUsingCSSGrid"
+            width="460"
+            height="315"
+            src="src/AlignItemUsingCSSGrid/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1148,26 +1151,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AlignTextUsingCSSFlex/index.html" target="_blank"&gt;AlignTextUsingCSSFlex&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AlignTextUsingCSSFlex"
-            width="460"
-            height="315"
-            src="src/AlignTextUsingCSSFlex/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/AlignItemUsingCSSGrid/index.html" target="_blank"&gt;AlignItemUsingCSSGrid&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AlignItemUsingCSSGrid"
+            width="460"
+            height="315"
+            src="src/AlignItemUsingCSSGrid/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>96</v>
@@ -1188,7 +1191,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimatedChristmasBanner2020/index.html" target="_blank"&gt;AnimatedChristmasBanner2020&lt;/a&gt;
+        &lt;a href="src/AlignTextUsingCSSFlex/index.html" target="_blank"&gt;AlignTextUsingCSSFlex&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1196,10 +1199,10 @@
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimatedChristmasBanner2020"
-            width="460"
-            height="315"
-            src="src/AnimatedChristmasBanner2020/index.html"
+        <v xml:space="preserve">AlignTextUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/AlignTextUsingCSSFlex/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1212,26 +1215,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimatedChristmasBanner2020/index.html" target="_blank"&gt;AnimatedChristmasBanner2020&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimatedChristmasBanner2020"
-            width="460"
-            height="315"
-            src="src/AnimatedChristmasBanner2020/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/AlignTextUsingCSSFlex/index.html" target="_blank"&gt;AlignTextUsingCSSFlex&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AlignTextUsingCSSFlex"
+            width="460"
+            height="315"
+            src="src/AlignTextUsingCSSFlex/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>96</v>
@@ -1252,7 +1255,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSAnimatedHeart/index.html" target="_blank"&gt;AnimeJSAnimatedHeart&lt;/a&gt;
+        &lt;a href="src/AnimatedChristmasBanner2020/index.html" target="_blank"&gt;AnimatedChristmasBanner2020&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1260,10 +1263,10 @@
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimeJSAnimatedHeart"
-            width="460"
-            height="315"
-            src="src/AnimeJSAnimatedHeart/index.html"
+        <v xml:space="preserve">AnimatedChristmasBanner2020"
+            width="460"
+            height="315"
+            src="src/AnimatedChristmasBanner2020/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1276,26 +1279,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSAnimatedHeart/index.html" target="_blank"&gt;AnimeJSAnimatedHeart&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimeJSAnimatedHeart"
-            width="460"
-            height="315"
-            src="src/AnimeJSAnimatedHeart/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/AnimatedChristmasBanner2020/index.html" target="_blank"&gt;AnimatedChristmasBanner2020&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimatedChristmasBanner2020"
+            width="460"
+            height="315"
+            src="src/AnimatedChristmasBanner2020/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>96</v>
@@ -1316,7 +1319,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSFlyingTextAnimation/index.html" target="_blank"&gt;AnimeJSFlyingTextAnimation&lt;/a&gt;
+        &lt;a href="src/AnimeJSAnimatedHeart/index.html" target="_blank"&gt;AnimeJSAnimatedHeart&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1324,10 +1327,10 @@
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimeJSFlyingTextAnimation"
-            width="460"
-            height="315"
-            src="src/AnimeJSFlyingTextAnimation/index.html"
+        <v xml:space="preserve">AnimeJSAnimatedHeart"
+            width="460"
+            height="315"
+            src="src/AnimeJSAnimatedHeart/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1340,26 +1343,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSFlyingTextAnimation/index.html" target="_blank"&gt;AnimeJSFlyingTextAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimeJSFlyingTextAnimation"
-            width="460"
-            height="315"
-            src="src/AnimeJSFlyingTextAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/AnimeJSAnimatedHeart/index.html" target="_blank"&gt;AnimeJSAnimatedHeart&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimeJSAnimatedHeart"
+            width="460"
+            height="315"
+            src="src/AnimeJSAnimatedHeart/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>96</v>
@@ -1380,7 +1383,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSRandomBackgroundAnimation/index.html" target="_blank"&gt;AnimeJSRandomBackgroundAnimation&lt;/a&gt;
+        &lt;a href="src/AnimeJSFlyingTextAnimation/index.html" target="_blank"&gt;AnimeJSFlyingTextAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1388,10 +1391,10 @@
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimeJSRandomBackgroundAnimation"
-            width="460"
-            height="315"
-            src="src/AnimeJSRandomBackgroundAnimation/index.html"
+        <v xml:space="preserve">AnimeJSFlyingTextAnimation"
+            width="460"
+            height="315"
+            src="src/AnimeJSFlyingTextAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1404,26 +1407,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSRandomBackgroundAnimation/index.html" target="_blank"&gt;AnimeJSRandomBackgroundAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimeJSRandomBackgroundAnimation"
-            width="460"
-            height="315"
-            src="src/AnimeJSRandomBackgroundAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/AnimeJSFlyingTextAnimation/index.html" target="_blank"&gt;AnimeJSFlyingTextAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimeJSFlyingTextAnimation"
+            width="460"
+            height="315"
+            src="src/AnimeJSFlyingTextAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>96</v>
@@ -1444,7 +1447,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AutopopupDiv/index.html" target="_blank"&gt;AutopopupDiv&lt;/a&gt;
+        &lt;a href="src/AnimeJSRandomBackgroundAnimation/index.html" target="_blank"&gt;AnimeJSRandomBackgroundAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1452,10 +1455,10 @@
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AutopopupDiv"
-            width="460"
-            height="315"
-            src="src/AutopopupDiv/index.html"
+        <v xml:space="preserve">AnimeJSRandomBackgroundAnimation"
+            width="460"
+            height="315"
+            src="src/AnimeJSRandomBackgroundAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1468,26 +1471,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AutopopupDiv/index.html" target="_blank"&gt;AutopopupDiv&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AutopopupDiv"
-            width="460"
-            height="315"
-            src="src/AutopopupDiv/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/AnimeJSRandomBackgroundAnimation/index.html" target="_blank"&gt;AnimeJSRandomBackgroundAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimeJSRandomBackgroundAnimation"
+            width="460"
+            height="315"
+            src="src/AnimeJSRandomBackgroundAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>96</v>
@@ -1508,7 +1511,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html" target="_blank"&gt;BouncingBallLoadingAnimationEffectsPerpetual&lt;/a&gt;
+        &lt;a href="src/AutopopupDiv/index.html" target="_blank"&gt;AutopopupDiv&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1516,10 +1519,10 @@
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">BouncingBallLoadingAnimationEffectsPerpetual"
-            width="460"
-            height="315"
-            src="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html"
+        <v xml:space="preserve">AutopopupDiv"
+            width="460"
+            height="315"
+            src="src/AutopopupDiv/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1532,26 +1535,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html" target="_blank"&gt;BouncingBallLoadingAnimationEffectsPerpetual&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="BouncingBallLoadingAnimationEffectsPerpetual"
-            width="460"
-            height="315"
-            src="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/AutopopupDiv/index.html" target="_blank"&gt;AutopopupDiv&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AutopopupDiv"
+            width="460"
+            height="315"
+            src="src/AutopopupDiv/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>96</v>
@@ -1572,7 +1575,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/BubblyBackgroundEffects/index.html" target="_blank"&gt;BubblyBackgroundEffects&lt;/a&gt;
+        &lt;a href="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html" target="_blank"&gt;BouncingBallLoadingAnimationEffectsPerpetual&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1580,10 +1583,10 @@
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">BubblyBackgroundEffects"
-            width="460"
-            height="315"
-            src="src/BubblyBackgroundEffects/index.html"
+        <v xml:space="preserve">BouncingBallLoadingAnimationEffectsPerpetual"
+            width="460"
+            height="315"
+            src="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1596,26 +1599,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/BubblyBackgroundEffects/index.html" target="_blank"&gt;BubblyBackgroundEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="BubblyBackgroundEffects"
-            width="460"
-            height="315"
-            src="src/BubblyBackgroundEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html" target="_blank"&gt;BouncingBallLoadingAnimationEffectsPerpetual&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="BouncingBallLoadingAnimationEffectsPerpetual"
+            width="460"
+            height="315"
+            src="src/BouncingBallLoadingAnimationEffectsPerpetual/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>96</v>
@@ -1636,7 +1639,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CalculatorGlassmorphism/index.html" target="_blank"&gt;CalculatorGlassmorphism&lt;/a&gt;
+        &lt;a href="src/BubblyBackgroundEffects/index.html" target="_blank"&gt;BubblyBackgroundEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1644,10 +1647,10 @@
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CalculatorGlassmorphism"
-            width="460"
-            height="315"
-            src="src/CalculatorGlassmorphism/index.html"
+        <v xml:space="preserve">BubblyBackgroundEffects"
+            width="460"
+            height="315"
+            src="src/BubblyBackgroundEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1660,26 +1663,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CalculatorGlassmorphism/index.html" target="_blank"&gt;CalculatorGlassmorphism&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CalculatorGlassmorphism"
-            width="460"
-            height="315"
-            src="src/CalculatorGlassmorphism/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/BubblyBackgroundEffects/index.html" target="_blank"&gt;BubblyBackgroundEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="BubblyBackgroundEffects"
+            width="460"
+            height="315"
+            src="src/BubblyBackgroundEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>96</v>
@@ -1700,7 +1703,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleProgressCSSGlassmorphism/index.html" target="_blank"&gt;CircleProgressCSSGlassmorphism&lt;/a&gt;
+        &lt;a href="src/CalculatorGlassmorphism/index.html" target="_blank"&gt;CalculatorGlassmorphism&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1708,10 +1711,10 @@
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CircleProgressCSSGlassmorphism"
-            width="460"
-            height="315"
-            src="src/CircleProgressCSSGlassmorphism/index.html"
+        <v xml:space="preserve">CalculatorGlassmorphism"
+            width="460"
+            height="315"
+            src="src/CalculatorGlassmorphism/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1724,26 +1727,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleProgressCSSGlassmorphism/index.html" target="_blank"&gt;CircleProgressCSSGlassmorphism&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CircleProgressCSSGlassmorphism"
-            width="460"
-            height="315"
-            src="src/CircleProgressCSSGlassmorphism/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CalculatorGlassmorphism/index.html" target="_blank"&gt;CalculatorGlassmorphism&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CalculatorGlassmorphism"
+            width="460"
+            height="315"
+            src="src/CalculatorGlassmorphism/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>96</v>
@@ -1764,7 +1767,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleTextAnimationMousemove/index.html" target="_blank"&gt;CircleTextAnimationMousemove&lt;/a&gt;
+        &lt;a href="src/CircleProgressCSSGlassmorphism/index.html" target="_blank"&gt;CircleProgressCSSGlassmorphism&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1772,10 +1775,10 @@
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CircleTextAnimationMousemove"
-            width="460"
-            height="315"
-            src="src/CircleTextAnimationMousemove/index.html"
+        <v xml:space="preserve">CircleProgressCSSGlassmorphism"
+            width="460"
+            height="315"
+            src="src/CircleProgressCSSGlassmorphism/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1788,26 +1791,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleTextAnimationMousemove/index.html" target="_blank"&gt;CircleTextAnimationMousemove&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CircleTextAnimationMousemove"
-            width="460"
-            height="315"
-            src="src/CircleTextAnimationMousemove/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CircleProgressCSSGlassmorphism/index.html" target="_blank"&gt;CircleProgressCSSGlassmorphism&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CircleProgressCSSGlassmorphism"
+            width="460"
+            height="315"
+            src="src/CircleProgressCSSGlassmorphism/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>96</v>
@@ -1828,7 +1831,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleTextMousemove/index.html" target="_blank"&gt;CircleTextMousemove&lt;/a&gt;
+        &lt;a href="src/CircleTextAnimationMousemove/index.html" target="_blank"&gt;CircleTextAnimationMousemove&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1836,10 +1839,10 @@
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CircleTextMousemove"
-            width="460"
-            height="315"
-            src="src/CircleTextMousemove/index.html"
+        <v xml:space="preserve">CircleTextAnimationMousemove"
+            width="460"
+            height="315"
+            src="src/CircleTextAnimationMousemove/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1852,26 +1855,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CircleTextMousemove/index.html" target="_blank"&gt;CircleTextMousemove&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CircleTextMousemove"
-            width="460"
-            height="315"
-            src="src/CircleTextMousemove/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CircleTextAnimationMousemove/index.html" target="_blank"&gt;CircleTextAnimationMousemove&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CircleTextAnimationMousemove"
+            width="460"
+            height="315"
+            src="src/CircleTextAnimationMousemove/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>96</v>
@@ -1892,7 +1895,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Clip-pathVideoSlider/index.html" target="_blank"&gt;Clip-pathVideoSlider&lt;/a&gt;
+        &lt;a href="src/CircleTextMousemove/index.html" target="_blank"&gt;CircleTextMousemove&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1900,10 +1903,10 @@
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clip-pathVideoSlider"
-            width="460"
-            height="315"
-            src="src/Clip-pathVideoSlider/index.html"
+        <v xml:space="preserve">CircleTextMousemove"
+            width="460"
+            height="315"
+            src="src/CircleTextMousemove/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1916,26 +1919,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Clip-pathVideoSlider/index.html" target="_blank"&gt;Clip-pathVideoSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Clip-pathVideoSlider"
-            width="460"
-            height="315"
-            src="src/Clip-pathVideoSlider/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CircleTextMousemove/index.html" target="_blank"&gt;CircleTextMousemove&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CircleTextMousemove"
+            width="460"
+            height="315"
+            src="src/CircleTextMousemove/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>96</v>
@@ -1956,7 +1959,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ClockUIGlassmorphism/index.html" target="_blank"&gt;ClockUIGlassmorphism&lt;/a&gt;
+        &lt;a href="src/Clip-pathVideoSlider/index.html" target="_blank"&gt;Clip-pathVideoSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1964,10 +1967,10 @@
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ClockUIGlassmorphism"
-            width="460"
-            height="315"
-            src="src/ClockUIGlassmorphism/index.html"
+        <v xml:space="preserve">Clip-pathVideoSlider"
+            width="460"
+            height="315"
+            src="src/Clip-pathVideoSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1980,26 +1983,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ClockUIGlassmorphism/index.html" target="_blank"&gt;ClockUIGlassmorphism&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ClockUIGlassmorphism"
-            width="460"
-            height="315"
-            src="src/ClockUIGlassmorphism/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/Clip-pathVideoSlider/index.html" target="_blank"&gt;Clip-pathVideoSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Clip-pathVideoSlider"
+            width="460"
+            height="315"
+            src="src/Clip-pathVideoSlider/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>96</v>
@@ -2020,7 +2023,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseNavbarWhenClickOutsideOrMenuItem&lt;/a&gt;
+        &lt;a href="src/ClockUIGlassmorphism/index.html" target="_blank"&gt;ClockUIGlassmorphism&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2028,10 +2031,10 @@
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CloseNavbarWhenClickOutsideOrMenuItem"
-            width="460"
-            height="315"
-            src="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html"
+        <v xml:space="preserve">ClockUIGlassmorphism"
+            width="460"
+            height="315"
+            src="src/ClockUIGlassmorphism/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2044,26 +2047,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseNavbarWhenClickOutsideOrMenuItem&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CloseNavbarWhenClickOutsideOrMenuItem"
-            width="460"
-            height="315"
-            src="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/ClockUIGlassmorphism/index.html" target="_blank"&gt;ClockUIGlassmorphism&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ClockUIGlassmorphism"
+            width="460"
+            height="315"
+            src="src/ClockUIGlassmorphism/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>96</v>
@@ -2084,7 +2087,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseSidebarWhenClickOutsideOrMenuItem&lt;/a&gt;
+        &lt;a href="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseNavbarWhenClickOutsideOrMenuItem&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2092,10 +2095,10 @@
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CloseSidebarWhenClickOutsideOrMenuItem"
-            width="460"
-            height="315"
-            src="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html"
+        <v xml:space="preserve">CloseNavbarWhenClickOutsideOrMenuItem"
+            width="460"
+            height="315"
+            src="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2108,26 +2111,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseSidebarWhenClickOutsideOrMenuItem&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CloseSidebarWhenClickOutsideOrMenuItem"
-            width="460"
-            height="315"
-            src="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseNavbarWhenClickOutsideOrMenuItem&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CloseNavbarWhenClickOutsideOrMenuItem"
+            width="460"
+            height="315"
+            src="src/CloseNavbarWhenClickOutsideOrMenuItem/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>96</v>
@@ -2148,7 +2151,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ColorfulRotatingSquare002/index.html" target="_blank"&gt;ColorfulRotatingSquare002&lt;/a&gt;
+        &lt;a href="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseSidebarWhenClickOutsideOrMenuItem&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2156,10 +2159,10 @@
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ColorfulRotatingSquare002"
-            width="460"
-            height="315"
-            src="src/ColorfulRotatingSquare002/index.html"
+        <v xml:space="preserve">CloseSidebarWhenClickOutsideOrMenuItem"
+            width="460"
+            height="315"
+            src="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2172,26 +2175,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ColorfulRotatingSquare002/index.html" target="_blank"&gt;ColorfulRotatingSquare002&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ColorfulRotatingSquare002"
-            width="460"
-            height="315"
-            src="src/ColorfulRotatingSquare002/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html" target="_blank"&gt;CloseSidebarWhenClickOutsideOrMenuItem&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CloseSidebarWhenClickOutsideOrMenuItem"
+            width="460"
+            height="315"
+            src="src/CloseSidebarWhenClickOutsideOrMenuItem/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>96</v>
@@ -2212,7 +2215,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ContactForm/index.html" target="_blank"&gt;ContactForm&lt;/a&gt;
+        &lt;a href="src/ColorfulRotatingSquare002/index.html" target="_blank"&gt;ColorfulRotatingSquare002&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2220,10 +2223,10 @@
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ContactForm"
-            width="460"
-            height="315"
-            src="src/ContactForm/index.html"
+        <v xml:space="preserve">ColorfulRotatingSquare002"
+            width="460"
+            height="315"
+            src="src/ColorfulRotatingSquare002/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2236,26 +2239,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ContactForm/index.html" target="_blank"&gt;ContactForm&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ContactForm"
-            width="460"
-            height="315"
-            src="src/ContactForm/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/ColorfulRotatingSquare002/index.html" target="_blank"&gt;ColorfulRotatingSquare002&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ColorfulRotatingSquare002"
+            width="460"
+            height="315"
+            src="src/ColorfulRotatingSquare002/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>96</v>
@@ -2276,7 +2279,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeBannerEffects/index.html" target="_blank"&gt;CreativeBannerEffects&lt;/a&gt;
+        &lt;a href="src/ContactForm/index.html" target="_blank"&gt;ContactForm&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2284,10 +2287,10 @@
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CreativeBannerEffects"
-            width="460"
-            height="315"
-            src="src/CreativeBannerEffects/index.html"
+        <v xml:space="preserve">ContactForm"
+            width="460"
+            height="315"
+            src="src/ContactForm/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2300,26 +2303,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeBannerEffects/index.html" target="_blank"&gt;CreativeBannerEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CreativeBannerEffects"
-            width="460"
-            height="315"
-            src="src/CreativeBannerEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/ContactForm/index.html" target="_blank"&gt;ContactForm&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ContactForm"
+            width="460"
+            height="315"
+            src="src/ContactForm/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>96</v>
@@ -2340,7 +2343,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeCSSRadioButton/index.html" target="_blank"&gt;CreativeCSSRadioButton&lt;/a&gt;
+        &lt;a href="src/CreativeBannerEffects/index.html" target="_blank"&gt;CreativeBannerEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2348,10 +2351,10 @@
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CreativeCSSRadioButton"
-            width="460"
-            height="315"
-            src="src/CreativeCSSRadioButton/index.html"
+        <v xml:space="preserve">CreativeBannerEffects"
+            width="460"
+            height="315"
+            src="src/CreativeBannerEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2364,26 +2367,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeCSSRadioButton/index.html" target="_blank"&gt;CreativeCSSRadioButton&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CreativeCSSRadioButton"
-            width="460"
-            height="315"
-            src="src/CreativeCSSRadioButton/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CreativeBannerEffects/index.html" target="_blank"&gt;CreativeBannerEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CreativeBannerEffects"
+            width="460"
+            height="315"
+            src="src/CreativeBannerEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>96</v>
@@ -2404,7 +2407,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeProductCard/index.html" target="_blank"&gt;CreativeProductCard&lt;/a&gt;
+        &lt;a href="src/CreativeCSSRadioButton/index.html" target="_blank"&gt;CreativeCSSRadioButton&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2412,10 +2415,10 @@
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CreativeProductCard"
-            width="460"
-            height="315"
-            src="src/CreativeProductCard/index.html"
+        <v xml:space="preserve">CreativeCSSRadioButton"
+            width="460"
+            height="315"
+            src="src/CreativeCSSRadioButton/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2428,26 +2431,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeProductCard/index.html" target="_blank"&gt;CreativeProductCard&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CreativeProductCard"
-            width="460"
-            height="315"
-            src="src/CreativeProductCard/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CreativeCSSRadioButton/index.html" target="_blank"&gt;CreativeCSSRadioButton&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CreativeCSSRadioButton"
+            width="460"
+            height="315"
+            src="src/CreativeCSSRadioButton/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>96</v>
@@ -2468,7 +2471,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSAnimationEffects/index.html" target="_blank"&gt;CSSAnimationEffects&lt;/a&gt;
+        &lt;a href="src/CreativeProductCard/index.html" target="_blank"&gt;CreativeProductCard&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2476,10 +2479,10 @@
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CSSAnimationEffects"
-            width="460"
-            height="315"
-            src="src/CSSAnimationEffects/index.html"
+        <v xml:space="preserve">CreativeProductCard"
+            width="460"
+            height="315"
+            src="src/CreativeProductCard/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2492,26 +2495,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSAnimationEffects/index.html" target="_blank"&gt;CSSAnimationEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CSSAnimationEffects"
-            width="460"
-            height="315"
-            src="src/CSSAnimationEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CreativeProductCard/index.html" target="_blank"&gt;CreativeProductCard&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CreativeProductCard"
+            width="460"
+            height="315"
+            src="src/CreativeProductCard/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>96</v>
@@ -2532,7 +2535,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSLoadingBarUIDesign/index.html" target="_blank"&gt;CSSLoadingBarUIDesign&lt;/a&gt;
+        &lt;a href="src/CSSAnimationEffects/index.html" target="_blank"&gt;CSSAnimationEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2540,10 +2543,10 @@
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CSSLoadingBarUIDesign"
-            width="460"
-            height="315"
-            src="src/CSSLoadingBarUIDesign/index.html"
+        <v xml:space="preserve">CSSAnimationEffects"
+            width="460"
+            height="315"
+            src="src/CSSAnimationEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2556,26 +2559,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSLoadingBarUIDesign/index.html" target="_blank"&gt;CSSLoadingBarUIDesign&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CSSLoadingBarUIDesign"
-            width="460"
-            height="315"
-            src="src/CSSLoadingBarUIDesign/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CSSAnimationEffects/index.html" target="_blank"&gt;CSSAnimationEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSSAnimationEffects"
+            width="460"
+            height="315"
+            src="src/CSSAnimationEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>96</v>
@@ -2596,7 +2599,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSVerticalText/index.html" target="_blank"&gt;CSSVerticalText&lt;/a&gt;
+        &lt;a href="src/CSSLoadingBarUIDesign/index.html" target="_blank"&gt;CSSLoadingBarUIDesign&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2604,10 +2607,10 @@
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CSSVerticalText"
-            width="460"
-            height="315"
-            src="src/CSSVerticalText/index.html"
+        <v xml:space="preserve">CSSLoadingBarUIDesign"
+            width="460"
+            height="315"
+            src="src/CSSLoadingBarUIDesign/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2620,26 +2623,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSVerticalText/index.html" target="_blank"&gt;CSSVerticalText&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CSSVerticalText"
-            width="460"
-            height="315"
-            src="src/CSSVerticalText/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CSSLoadingBarUIDesign/index.html" target="_blank"&gt;CSSLoadingBarUIDesign&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSSLoadingBarUIDesign"
+            width="460"
+            height="315"
+            src="src/CSSLoadingBarUIDesign/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>96</v>
@@ -2660,7 +2663,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CurtainLayerMenu/index.html" target="_blank"&gt;CurtainLayerMenu&lt;/a&gt;
+        &lt;a href="src/CSSVerticalText/index.html" target="_blank"&gt;CSSVerticalText&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2668,10 +2671,10 @@
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CurtainLayerMenu"
-            width="460"
-            height="315"
-            src="src/CurtainLayerMenu/index.html"
+        <v xml:space="preserve">CSSVerticalText"
+            width="460"
+            height="315"
+            src="src/CSSVerticalText/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2684,26 +2687,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CurtainLayerMenu/index.html" target="_blank"&gt;CurtainLayerMenu&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CurtainLayerMenu"
-            width="460"
-            height="315"
-            src="src/CurtainLayerMenu/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CSSVerticalText/index.html" target="_blank"&gt;CSSVerticalText&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSSVerticalText"
+            width="460"
+            height="315"
+            src="src/CSSVerticalText/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>96</v>
@@ -2724,7 +2727,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CurvedAndColoredDropShadow/index.html" target="_blank"&gt;CurvedAndColoredDropShadow&lt;/a&gt;
+        &lt;a href="src/CurtainLayerMenu/index.html" target="_blank"&gt;CurtainLayerMenu&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2732,10 +2735,10 @@
       </c>
       <c r="H32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CurvedAndColoredDropShadow"
-            width="460"
-            height="315"
-            src="src/CurvedAndColoredDropShadow/index.html"
+        <v xml:space="preserve">CurtainLayerMenu"
+            width="460"
+            height="315"
+            src="src/CurtainLayerMenu/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2748,26 +2751,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CurvedAndColoredDropShadow/index.html" target="_blank"&gt;CurvedAndColoredDropShadow&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CurvedAndColoredDropShadow"
-            width="460"
-            height="315"
-            src="src/CurvedAndColoredDropShadow/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CurtainLayerMenu/index.html" target="_blank"&gt;CurtainLayerMenu&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CurtainLayerMenu"
+            width="460"
+            height="315"
+            src="src/CurtainLayerMenu/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>96</v>
@@ -2788,7 +2791,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CustomSelectDropdown/index.html" target="_blank"&gt;CustomSelectDropdown&lt;/a&gt;
+        &lt;a href="src/CurvedAndColoredDropShadow/index.html" target="_blank"&gt;CurvedAndColoredDropShadow&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2796,10 +2799,10 @@
       </c>
       <c r="H33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CustomSelectDropdown"
-            width="460"
-            height="315"
-            src="src/CustomSelectDropdown/index.html"
+        <v xml:space="preserve">CurvedAndColoredDropShadow"
+            width="460"
+            height="315"
+            src="src/CurvedAndColoredDropShadow/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2812,26 +2815,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CustomSelectDropdown/index.html" target="_blank"&gt;CustomSelectDropdown&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CustomSelectDropdown"
-            width="460"
-            height="315"
-            src="src/CustomSelectDropdown/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CurvedAndColoredDropShadow/index.html" target="_blank"&gt;CurvedAndColoredDropShadow&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CurvedAndColoredDropShadow"
+            width="460"
+            height="315"
+            src="src/CurvedAndColoredDropShadow/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>96</v>
@@ -2852,7 +2855,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/DarkLightToggle/index.html" target="_blank"&gt;DarkLightToggle&lt;/a&gt;
+        &lt;a href="src/CustomSelectDropdown/index.html" target="_blank"&gt;CustomSelectDropdown&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2860,10 +2863,10 @@
       </c>
       <c r="H34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">DarkLightToggle"
-            width="460"
-            height="315"
-            src="src/DarkLightToggle/index.html"
+        <v xml:space="preserve">CustomSelectDropdown"
+            width="460"
+            height="315"
+            src="src/CustomSelectDropdown/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2876,26 +2879,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/DarkLightToggle/index.html" target="_blank"&gt;DarkLightToggle&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="DarkLightToggle"
-            width="460"
-            height="315"
-            src="src/DarkLightToggle/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/CustomSelectDropdown/index.html" target="_blank"&gt;CustomSelectDropdown&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CustomSelectDropdown"
+            width="460"
+            height="315"
+            src="src/CustomSelectDropdown/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>96</v>
@@ -2916,7 +2919,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Dashboard/index.html" target="_blank"&gt;Dashboard&lt;/a&gt;
+        &lt;a href="src/DarkLightToggle/index.html" target="_blank"&gt;DarkLightToggle&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2924,10 +2927,10 @@
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Dashboard"
-            width="460"
-            height="315"
-            src="src/Dashboard/index.html"
+        <v xml:space="preserve">DarkLightToggle"
+            width="460"
+            height="315"
+            src="src/DarkLightToggle/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2940,26 +2943,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Dashboard/index.html" target="_blank"&gt;Dashboard&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Dashboard"
-            width="460"
-            height="315"
-            src="src/Dashboard/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/DarkLightToggle/index.html" target="_blank"&gt;DarkLightToggle&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="DarkLightToggle"
+            width="460"
+            height="315"
+            src="src/DarkLightToggle/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>96</v>
@@ -2980,7 +2983,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/DropdonwMenu03/index.html" target="_blank"&gt;DropdonwMenu03&lt;/a&gt;
+        &lt;a href="src/Dashboard/index.html" target="_blank"&gt;Dashboard&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2988,10 +2991,10 @@
       </c>
       <c r="H36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">DropdonwMenu03"
-            width="460"
-            height="315"
-            src="src/DropdonwMenu03/index.html"
+        <v xml:space="preserve">Dashboard"
+            width="460"
+            height="315"
+            src="src/Dashboard/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3004,26 +3007,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/DropdonwMenu03/index.html" target="_blank"&gt;DropdonwMenu03&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="DropdonwMenu03"
-            width="460"
-            height="315"
-            src="src/DropdonwMenu03/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/Dashboard/index.html" target="_blank"&gt;Dashboard&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Dashboard"
+            width="460"
+            height="315"
+            src="src/Dashboard/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>96</v>
@@ -3044,7 +3047,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FireTextSVG01/index.html" target="_blank"&gt;FireTextSVG01&lt;/a&gt;
+        &lt;a href="src/DropdonwMenu03/index.html" target="_blank"&gt;DropdonwMenu03&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3052,10 +3055,10 @@
       </c>
       <c r="H37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FireTextSVG01"
-            width="460"
-            height="315"
-            src="src/FireTextSVG01/index.html"
+        <v xml:space="preserve">DropdonwMenu03"
+            width="460"
+            height="315"
+            src="src/DropdonwMenu03/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3068,26 +3071,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FireTextSVG01/index.html" target="_blank"&gt;FireTextSVG01&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="FireTextSVG01"
-            width="460"
-            height="315"
-            src="src/FireTextSVG01/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/DropdonwMenu03/index.html" target="_blank"&gt;DropdonwMenu03&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="DropdonwMenu03"
+            width="460"
+            height="315"
+            src="src/DropdonwMenu03/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>96</v>
@@ -3108,7 +3111,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FlipImageCheckBox/index.html" target="_blank"&gt;FlipImageCheckBox&lt;/a&gt;
+        &lt;a href="src/FireTextSVG01/index.html" target="_blank"&gt;FireTextSVG01&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3116,10 +3119,10 @@
       </c>
       <c r="H38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FlipImageCheckBox"
-            width="460"
-            height="315"
-            src="src/FlipImageCheckBox/index.html"
+        <v xml:space="preserve">FireTextSVG01"
+            width="460"
+            height="315"
+            src="src/FireTextSVG01/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3132,26 +3135,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FlipImageCheckBox/index.html" target="_blank"&gt;FlipImageCheckBox&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="FlipImageCheckBox"
-            width="460"
-            height="315"
-            src="src/FlipImageCheckBox/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/FireTextSVG01/index.html" target="_blank"&gt;FireTextSVG01&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="FireTextSVG01"
+            width="460"
+            height="315"
+            src="src/FireTextSVG01/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>96</v>
@@ -3172,7 +3175,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FontawesomeBackgroundAnimation/index.html" target="_blank"&gt;FontawesomeBackgroundAnimation&lt;/a&gt;
+        &lt;a href="src/FlipImageCheckBox/index.html" target="_blank"&gt;FlipImageCheckBox&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3180,10 +3183,10 @@
       </c>
       <c r="H39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FontawesomeBackgroundAnimation"
-            width="460"
-            height="315"
-            src="src/FontawesomeBackgroundAnimation/index.html"
+        <v xml:space="preserve">FlipImageCheckBox"
+            width="460"
+            height="315"
+            src="src/FlipImageCheckBox/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3196,26 +3199,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FontawesomeBackgroundAnimation/index.html" target="_blank"&gt;FontawesomeBackgroundAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="FontawesomeBackgroundAnimation"
-            width="460"
-            height="315"
-            src="src/FontawesomeBackgroundAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/FlipImageCheckBox/index.html" target="_blank"&gt;FlipImageCheckBox&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="FlipImageCheckBox"
+            width="460"
+            height="315"
+            src="src/FlipImageCheckBox/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>96</v>
@@ -3236,7 +3239,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FullscreenMenuSticky/index.html" target="_blank"&gt;FullscreenMenuSticky&lt;/a&gt;
+        &lt;a href="src/FontawesomeBackgroundAnimation/index.html" target="_blank"&gt;FontawesomeBackgroundAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3244,10 +3247,10 @@
       </c>
       <c r="H40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FullscreenMenuSticky"
-            width="460"
-            height="315"
-            src="src/FullscreenMenuSticky/index.html"
+        <v xml:space="preserve">FontawesomeBackgroundAnimation"
+            width="460"
+            height="315"
+            src="src/FontawesomeBackgroundAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3260,26 +3263,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FullscreenMenuSticky/index.html" target="_blank"&gt;FullscreenMenuSticky&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="FullscreenMenuSticky"
-            width="460"
-            height="315"
-            src="src/FullscreenMenuSticky/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/FontawesomeBackgroundAnimation/index.html" target="_blank"&gt;FontawesomeBackgroundAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="FontawesomeBackgroundAnimation"
+            width="460"
+            height="315"
+            src="src/FontawesomeBackgroundAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>96</v>
@@ -3300,7 +3303,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismButton/index.html" target="_blank"&gt;GlassmorphismButton&lt;/a&gt;
+        &lt;a href="src/FullscreenMenuSticky/index.html" target="_blank"&gt;FullscreenMenuSticky&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3308,10 +3311,10 @@
       </c>
       <c r="H41" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismButton"
-            width="460"
-            height="315"
-            src="src/GlassmorphismButton/index.html"
+        <v xml:space="preserve">FullscreenMenuSticky"
+            width="460"
+            height="315"
+            src="src/FullscreenMenuSticky/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3324,26 +3327,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismButton/index.html" target="_blank"&gt;GlassmorphismButton&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismButton"
-            width="460"
-            height="315"
-            src="src/GlassmorphismButton/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/FullscreenMenuSticky/index.html" target="_blank"&gt;FullscreenMenuSticky&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="FullscreenMenuSticky"
+            width="460"
+            height="315"
+            src="src/FullscreenMenuSticky/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>96</v>
@@ -3364,7 +3367,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismCardsHoverEffects02/index.html" target="_blank"&gt;GlassmorphismCardsHoverEffects02&lt;/a&gt;
+        &lt;a href="src/GlassmorphismButton/index.html" target="_blank"&gt;GlassmorphismButton&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3372,10 +3375,10 @@
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismCardsHoverEffects02"
-            width="460"
-            height="315"
-            src="src/GlassmorphismCardsHoverEffects02/index.html"
+        <v xml:space="preserve">GlassmorphismButton"
+            width="460"
+            height="315"
+            src="src/GlassmorphismButton/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3388,26 +3391,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismCardsHoverEffects02/index.html" target="_blank"&gt;GlassmorphismCardsHoverEffects02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismCardsHoverEffects02"
-            width="460"
-            height="315"
-            src="src/GlassmorphismCardsHoverEffects02/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismButton/index.html" target="_blank"&gt;GlassmorphismButton&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismButton"
+            width="460"
+            height="315"
+            src="src/GlassmorphismButton/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>96</v>
@@ -3428,7 +3431,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismDigitalClock/index.html" target="_blank"&gt;GlassmorphismDigitalClock&lt;/a&gt;
+        &lt;a href="src/GlassmorphismCardsHoverEffects02/index.html" target="_blank"&gt;GlassmorphismCardsHoverEffects02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3436,10 +3439,10 @@
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismDigitalClock"
-            width="460"
-            height="315"
-            src="src/GlassmorphismDigitalClock/index.html"
+        <v xml:space="preserve">GlassmorphismCardsHoverEffects02"
+            width="460"
+            height="315"
+            src="src/GlassmorphismCardsHoverEffects02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3452,26 +3455,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismDigitalClock/index.html" target="_blank"&gt;GlassmorphismDigitalClock&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismDigitalClock"
-            width="460"
-            height="315"
-            src="src/GlassmorphismDigitalClock/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismCardsHoverEffects02/index.html" target="_blank"&gt;GlassmorphismCardsHoverEffects02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismCardsHoverEffects02"
+            width="460"
+            height="315"
+            src="src/GlassmorphismCardsHoverEffects02/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>96</v>
@@ -3492,7 +3495,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismHoverEffectsZ-index/index.html" target="_blank"&gt;GlassmorphismHoverEffectsZ-index&lt;/a&gt;
+        &lt;a href="src/GlassmorphismDigitalClock/index.html" target="_blank"&gt;GlassmorphismDigitalClock&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3500,10 +3503,10 @@
       </c>
       <c r="H44" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismHoverEffectsZ-index"
-            width="460"
-            height="315"
-            src="src/GlassmorphismHoverEffectsZ-index/index.html"
+        <v xml:space="preserve">GlassmorphismDigitalClock"
+            width="460"
+            height="315"
+            src="src/GlassmorphismDigitalClock/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3516,26 +3519,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismHoverEffectsZ-index/index.html" target="_blank"&gt;GlassmorphismHoverEffectsZ-index&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismHoverEffectsZ-index"
-            width="460"
-            height="315"
-            src="src/GlassmorphismHoverEffectsZ-index/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismDigitalClock/index.html" target="_blank"&gt;GlassmorphismDigitalClock&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismDigitalClock"
+            width="460"
+            height="315"
+            src="src/GlassmorphismDigitalClock/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>96</v>
@@ -3556,7 +3559,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismIconHoverEffects/index.html" target="_blank"&gt;GlassmorphismIconHoverEffects&lt;/a&gt;
+        &lt;a href="src/GlassmorphismHoverEffectsZ-index/index.html" target="_blank"&gt;GlassmorphismHoverEffectsZ-index&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3564,10 +3567,10 @@
       </c>
       <c r="H45" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismIconHoverEffects"
-            width="460"
-            height="315"
-            src="src/GlassmorphismIconHoverEffects/index.html"
+        <v xml:space="preserve">GlassmorphismHoverEffectsZ-index"
+            width="460"
+            height="315"
+            src="src/GlassmorphismHoverEffectsZ-index/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3580,26 +3583,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismIconHoverEffects/index.html" target="_blank"&gt;GlassmorphismIconHoverEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismIconHoverEffects"
-            width="460"
-            height="315"
-            src="src/GlassmorphismIconHoverEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismHoverEffectsZ-index/index.html" target="_blank"&gt;GlassmorphismHoverEffectsZ-index&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismHoverEffectsZ-index"
+            width="460"
+            height="315"
+            src="src/GlassmorphismHoverEffectsZ-index/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>96</v>
@@ -3620,7 +3623,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismLoginForm/index.html" target="_blank"&gt;GlassmorphismLoginForm&lt;/a&gt;
+        &lt;a href="src/GlassmorphismIconHoverEffects/index.html" target="_blank"&gt;GlassmorphismIconHoverEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3628,10 +3631,10 @@
       </c>
       <c r="H46" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismLoginForm"
-            width="460"
-            height="315"
-            src="src/GlassmorphismLoginForm/index.html"
+        <v xml:space="preserve">GlassmorphismIconHoverEffects"
+            width="460"
+            height="315"
+            src="src/GlassmorphismIconHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3644,26 +3647,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismLoginForm/index.html" target="_blank"&gt;GlassmorphismLoginForm&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismLoginForm"
-            width="460"
-            height="315"
-            src="src/GlassmorphismLoginForm/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismIconHoverEffects/index.html" target="_blank"&gt;GlassmorphismIconHoverEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismIconHoverEffects"
+            width="460"
+            height="315"
+            src="src/GlassmorphismIconHoverEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>96</v>
@@ -3684,7 +3687,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismParallax/index.html" target="_blank"&gt;GlassmorphismParallax&lt;/a&gt;
+        &lt;a href="src/GlassmorphismLoginForm/index.html" target="_blank"&gt;GlassmorphismLoginForm&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3692,10 +3695,10 @@
       </c>
       <c r="H47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismParallax"
-            width="460"
-            height="315"
-            src="src/GlassmorphismParallax/index.html"
+        <v xml:space="preserve">GlassmorphismLoginForm"
+            width="460"
+            height="315"
+            src="src/GlassmorphismLoginForm/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3708,26 +3711,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismParallax/index.html" target="_blank"&gt;GlassmorphismParallax&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismParallax"
-            width="460"
-            height="315"
-            src="src/GlassmorphismParallax/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismLoginForm/index.html" target="_blank"&gt;GlassmorphismLoginForm&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismLoginForm"
+            width="460"
+            height="315"
+            src="src/GlassmorphismLoginForm/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>96</v>
@@ -3748,7 +3751,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismProductCards/index.html" target="_blank"&gt;GlassmorphismProductCards&lt;/a&gt;
+        &lt;a href="src/GlassmorphismParallax/index.html" target="_blank"&gt;GlassmorphismParallax&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3756,10 +3759,10 @@
       </c>
       <c r="H48" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismProductCards"
-            width="460"
-            height="315"
-            src="src/GlassmorphismProductCards/index.html"
+        <v xml:space="preserve">GlassmorphismParallax"
+            width="460"
+            height="315"
+            src="src/GlassmorphismParallax/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3772,26 +3775,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismProductCards/index.html" target="_blank"&gt;GlassmorphismProductCards&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismProductCards"
-            width="460"
-            height="315"
-            src="src/GlassmorphismProductCards/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismParallax/index.html" target="_blank"&gt;GlassmorphismParallax&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismParallax"
+            width="460"
+            height="315"
+            src="src/GlassmorphismParallax/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>96</v>
@@ -3812,7 +3815,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismUserCard/index.html" target="_blank"&gt;GlassmorphismUserCard&lt;/a&gt;
+        &lt;a href="src/GlassmorphismProductCards/index.html" target="_blank"&gt;GlassmorphismProductCards&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3820,10 +3823,10 @@
       </c>
       <c r="H49" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismUserCard"
-            width="460"
-            height="315"
-            src="src/GlassmorphismUserCard/index.html"
+        <v xml:space="preserve">GlassmorphismProductCards"
+            width="460"
+            height="315"
+            src="src/GlassmorphismProductCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3836,26 +3839,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismUserCard/index.html" target="_blank"&gt;GlassmorphismUserCard&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismUserCard"
-            width="460"
-            height="315"
-            src="src/GlassmorphismUserCard/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismProductCards/index.html" target="_blank"&gt;GlassmorphismProductCards&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismProductCards"
+            width="460"
+            height="315"
+            src="src/GlassmorphismProductCards/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>96</v>
@@ -3876,7 +3879,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismWebSite/index.html" target="_blank"&gt;GlassmorphismWebSite&lt;/a&gt;
+        &lt;a href="src/GlassmorphismUserCard/index.html" target="_blank"&gt;GlassmorphismUserCard&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3884,10 +3887,10 @@
       </c>
       <c r="H50" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismWebSite"
-            width="460"
-            height="315"
-            src="src/GlassmorphismWebSite/index.html"
+        <v xml:space="preserve">GlassmorphismUserCard"
+            width="460"
+            height="315"
+            src="src/GlassmorphismUserCard/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3900,26 +3903,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismWebSite/index.html" target="_blank"&gt;GlassmorphismWebSite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismWebSite"
-            width="460"
-            height="315"
-            src="src/GlassmorphismWebSite/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismUserCard/index.html" target="_blank"&gt;GlassmorphismUserCard&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismUserCard"
+            width="460"
+            height="315"
+            src="src/GlassmorphismUserCard/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>96</v>
@@ -3940,7 +3943,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassShutter/index.html" target="_blank"&gt;GlassShutter&lt;/a&gt;
+        &lt;a href="src/GlassmorphismWebSite/index.html" target="_blank"&gt;GlassmorphismWebSite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3948,10 +3951,10 @@
       </c>
       <c r="H51" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassShutter"
-            width="460"
-            height="315"
-            src="src/GlassShutter/index.html"
+        <v xml:space="preserve">GlassmorphismWebSite"
+            width="460"
+            height="315"
+            src="src/GlassmorphismWebSite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3964,26 +3967,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassShutter/index.html" target="_blank"&gt;GlassShutter&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassShutter"
-            width="460"
-            height="315"
-            src="src/GlassShutter/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassmorphismWebSite/index.html" target="_blank"&gt;GlassmorphismWebSite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismWebSite"
+            width="460"
+            height="315"
+            src="src/GlassmorphismWebSite/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>96</v>
@@ -4004,7 +4007,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlobeCircleTextAnimation/index.html" target="_blank"&gt;GlobeCircleTextAnimation&lt;/a&gt;
+        &lt;a href="src/GlassShutter/index.html" target="_blank"&gt;GlassShutter&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4012,10 +4015,10 @@
       </c>
       <c r="H52" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlobeCircleTextAnimation"
-            width="460"
-            height="315"
-            src="src/GlobeCircleTextAnimation/index.html"
+        <v xml:space="preserve">GlassShutter"
+            width="460"
+            height="315"
+            src="src/GlassShutter/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4028,26 +4031,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlobeCircleTextAnimation/index.html" target="_blank"&gt;GlobeCircleTextAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlobeCircleTextAnimation"
-            width="460"
-            height="315"
-            src="src/GlobeCircleTextAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlassShutter/index.html" target="_blank"&gt;GlassShutter&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassShutter"
+            width="460"
+            height="315"
+            src="src/GlassShutter/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>96</v>
@@ -4068,7 +4071,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlowingDots03/index.html" target="_blank"&gt;GlowingDots03&lt;/a&gt;
+        &lt;a href="src/GlobeCircleTextAnimation/index.html" target="_blank"&gt;GlobeCircleTextAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4076,10 +4079,10 @@
       </c>
       <c r="H53" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlowingDots03"
-            width="460"
-            height="315"
-            src="src/GlowingDots03/index.html"
+        <v xml:space="preserve">GlobeCircleTextAnimation"
+            width="460"
+            height="315"
+            src="src/GlobeCircleTextAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4092,26 +4095,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlowingDots03/index.html" target="_blank"&gt;GlowingDots03&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlowingDots03"
-            width="460"
-            height="315"
-            src="src/GlowingDots03/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlobeCircleTextAnimation/index.html" target="_blank"&gt;GlobeCircleTextAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlobeCircleTextAnimation"
+            width="460"
+            height="315"
+            src="src/GlobeCircleTextAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>96</v>
@@ -4132,7 +4135,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GooeyCircleLoader/index.html" target="_blank"&gt;GooeyCircleLoader&lt;/a&gt;
+        &lt;a href="src/GlowingDots03/index.html" target="_blank"&gt;GlowingDots03&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4140,10 +4143,10 @@
       </c>
       <c r="H54" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GooeyCircleLoader"
-            width="460"
-            height="315"
-            src="src/GooeyCircleLoader/index.html"
+        <v xml:space="preserve">GlowingDots03"
+            width="460"
+            height="315"
+            src="src/GlowingDots03/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4156,26 +4159,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GooeyCircleLoader/index.html" target="_blank"&gt;GooeyCircleLoader&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GooeyCircleLoader"
-            width="460"
-            height="315"
-            src="src/GooeyCircleLoader/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GlowingDots03/index.html" target="_blank"&gt;GlowingDots03&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlowingDots03"
+            width="460"
+            height="315"
+            src="src/GlowingDots03/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>96</v>
@@ -4196,7 +4199,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
+        &lt;a href="src/GooeyCircleLoader/index.html" target="_blank"&gt;GooeyCircleLoader&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4204,10 +4207,10 @@
       </c>
       <c r="H55" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GradientBorderCards"
-            width="460"
-            height="315"
-            src="src/GradientBorderCards/index.html"
+        <v xml:space="preserve">GooeyCircleLoader"
+            width="460"
+            height="315"
+            src="src/GooeyCircleLoader/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4220,26 +4223,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GradientBorderCards"
-            width="460"
-            height="315"
-            src="src/GradientBorderCards/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GooeyCircleLoader/index.html" target="_blank"&gt;GooeyCircleLoader&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GooeyCircleLoader"
+            width="460"
+            height="315"
+            src="src/GooeyCircleLoader/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>96</v>
@@ -4260,7 +4263,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GradientGlowingGlassmorphismCards/index.html" target="_blank"&gt;GradientGlowingGlassmorphismCards&lt;/a&gt;
+        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4268,10 +4271,10 @@
       </c>
       <c r="H56" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GradientGlowingGlassmorphismCards"
-            width="460"
-            height="315"
-            src="src/GradientGlowingGlassmorphismCards/index.html"
+        <v xml:space="preserve">GradientBorderCards"
+            width="460"
+            height="315"
+            src="src/GradientBorderCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4284,26 +4287,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GradientGlowingGlassmorphismCards/index.html" target="_blank"&gt;GradientGlowingGlassmorphismCards&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GradientGlowingGlassmorphismCards"
-            width="460"
-            height="315"
-            src="src/GradientGlowingGlassmorphismCards/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GradientBorderCards"
+            width="460"
+            height="315"
+            src="src/GradientBorderCards/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>96</v>
@@ -4324,7 +4327,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GSAPMousemoveFollowFun/index.html" target="_blank"&gt;GSAPMousemoveFollowFun&lt;/a&gt;
+        &lt;a href="src/GradientGlowingGlassmorphismCards/index.html" target="_blank"&gt;GradientGlowingGlassmorphismCards&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4332,10 +4335,10 @@
       </c>
       <c r="H57" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GSAPMousemoveFollowFun"
-            width="460"
-            height="315"
-            src="src/GSAPMousemoveFollowFun/index.html"
+        <v xml:space="preserve">GradientGlowingGlassmorphismCards"
+            width="460"
+            height="315"
+            src="src/GradientGlowingGlassmorphismCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4348,26 +4351,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GSAPMousemoveFollowFun/index.html" target="_blank"&gt;GSAPMousemoveFollowFun&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GSAPMousemoveFollowFun"
-            width="460"
-            height="315"
-            src="src/GSAPMousemoveFollowFun/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GradientGlowingGlassmorphismCards/index.html" target="_blank"&gt;GradientGlowingGlassmorphismCards&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GradientGlowingGlassmorphismCards"
+            width="460"
+            height="315"
+            src="src/GradientGlowingGlassmorphismCards/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>96</v>
@@ -4388,7 +4391,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GSAPTextMousemoveFollowFun/index.html" target="_blank"&gt;GSAPTextMousemoveFollowFun&lt;/a&gt;
+        &lt;a href="src/GSAPMousemoveFollowFun/index.html" target="_blank"&gt;GSAPMousemoveFollowFun&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4396,10 +4399,10 @@
       </c>
       <c r="H58" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GSAPTextMousemoveFollowFun"
-            width="460"
-            height="315"
-            src="src/GSAPTextMousemoveFollowFun/index.html"
+        <v xml:space="preserve">GSAPMousemoveFollowFun"
+            width="460"
+            height="315"
+            src="src/GSAPMousemoveFollowFun/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4412,26 +4415,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GSAPTextMousemoveFollowFun/index.html" target="_blank"&gt;GSAPTextMousemoveFollowFun&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GSAPTextMousemoveFollowFun"
-            width="460"
-            height="315"
-            src="src/GSAPTextMousemoveFollowFun/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GSAPMousemoveFollowFun/index.html" target="_blank"&gt;GSAPMousemoveFollowFun&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GSAPMousemoveFollowFun"
+            width="460"
+            height="315"
+            src="src/GSAPMousemoveFollowFun/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>96</v>
@@ -4452,7 +4455,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/HappyChristmas2020/index.html" target="_blank"&gt;HappyChristmas2020&lt;/a&gt;
+        &lt;a href="src/GSAPTextMousemoveFollowFun/index.html" target="_blank"&gt;GSAPTextMousemoveFollowFun&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4460,10 +4463,10 @@
       </c>
       <c r="H59" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">HappyChristmas2020"
-            width="460"
-            height="315"
-            src="src/HappyChristmas2020/index.html"
+        <v xml:space="preserve">GSAPTextMousemoveFollowFun"
+            width="460"
+            height="315"
+            src="src/GSAPTextMousemoveFollowFun/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4476,26 +4479,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/HappyChristmas2020/index.html" target="_blank"&gt;HappyChristmas2020&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="HappyChristmas2020"
-            width="460"
-            height="315"
-            src="src/HappyChristmas2020/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/GSAPTextMousemoveFollowFun/index.html" target="_blank"&gt;GSAPTextMousemoveFollowFun&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GSAPTextMousemoveFollowFun"
+            width="460"
+            height="315"
+            src="src/GSAPTextMousemoveFollowFun/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>96</v>
@@ -4516,7 +4519,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
+        &lt;a href="src/HappyChristmas2020/index.html" target="_blank"&gt;HappyChristmas2020&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4524,10 +4527,10 @@
       </c>
       <c r="H60" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Heroes_ResponsiveWebsiteLandingPage"
-            width="460"
-            height="315"
-            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
+        <v xml:space="preserve">HappyChristmas2020"
+            width="460"
+            height="315"
+            src="src/HappyChristmas2020/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4540,26 +4543,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Heroes_ResponsiveWebsiteLandingPage"
-            width="460"
-            height="315"
-            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/HappyChristmas2020/index.html" target="_blank"&gt;HappyChristmas2020&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="HappyChristmas2020"
+            width="460"
+            height="315"
+            src="src/HappyChristmas2020/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>96</v>
@@ -4580,7 +4583,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/HexagonShapeDiv/index.html" target="_blank"&gt;HexagonShapeDiv&lt;/a&gt;
+        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4588,10 +4591,10 @@
       </c>
       <c r="H61" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">HexagonShapeDiv"
-            width="460"
-            height="315"
-            src="src/HexagonShapeDiv/index.html"
+        <v xml:space="preserve">Heroes_ResponsiveWebsiteLandingPage"
+            width="460"
+            height="315"
+            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4604,26 +4607,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/HexagonShapeDiv/index.html" target="_blank"&gt;HexagonShapeDiv&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="HexagonShapeDiv"
-            width="460"
-            height="315"
-            src="src/HexagonShapeDiv/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Heroes_ResponsiveWebsiteLandingPage"
+            width="460"
+            height="315"
+            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>96</v>
@@ -4644,7 +4647,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/imageHoverEffects/index.html" target="_blank"&gt;imageHoverEffects&lt;/a&gt;
+        &lt;a href="src/HexagonShapeDiv/index.html" target="_blank"&gt;HexagonShapeDiv&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4652,10 +4655,10 @@
       </c>
       <c r="H62" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">imageHoverEffects"
-            width="460"
-            height="315"
-            src="src/imageHoverEffects/index.html"
+        <v xml:space="preserve">HexagonShapeDiv"
+            width="460"
+            height="315"
+            src="src/HexagonShapeDiv/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4668,26 +4671,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/imageHoverEffects/index.html" target="_blank"&gt;imageHoverEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="imageHoverEffects"
-            width="460"
-            height="315"
-            src="src/imageHoverEffects/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/HexagonShapeDiv/index.html" target="_blank"&gt;HexagonShapeDiv&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="HexagonShapeDiv"
+            width="460"
+            height="315"
+            src="src/HexagonShapeDiv/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>96</v>
@@ -4708,7 +4711,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JavascriptClipPathScroll02/index.html" target="_blank"&gt;JavascriptClipPathScroll02&lt;/a&gt;
+        &lt;a href="src/imageHoverEffects/index.html" target="_blank"&gt;imageHoverEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4716,10 +4719,10 @@
       </c>
       <c r="H63" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">JavascriptClipPathScroll02"
-            width="460"
-            height="315"
-            src="src/JavascriptClipPathScroll02/index.html"
+        <v xml:space="preserve">imageHoverEffects"
+            width="460"
+            height="315"
+            src="src/imageHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4732,26 +4735,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JavascriptClipPathScroll02/index.html" target="_blank"&gt;JavascriptClipPathScroll02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="JavascriptClipPathScroll02"
-            width="460"
-            height="315"
-            src="src/JavascriptClipPathScroll02/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/imageHoverEffects/index.html" target="_blank"&gt;imageHoverEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="imageHoverEffects"
+            width="460"
+            height="315"
+            src="src/imageHoverEffects/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>96</v>
@@ -4772,7 +4775,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JsAnimation/index.html" target="_blank"&gt;JsAnimation&lt;/a&gt;
+        &lt;a href="src/JavascriptClipPathScroll02/index.html" target="_blank"&gt;JavascriptClipPathScroll02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4780,10 +4783,10 @@
       </c>
       <c r="H64" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">JsAnimation"
-            width="460"
-            height="315"
-            src="src/JsAnimation/index.html"
+        <v xml:space="preserve">JavascriptClipPathScroll02"
+            width="460"
+            height="315"
+            src="src/JavascriptClipPathScroll02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4796,26 +4799,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JsAnimation/index.html" target="_blank"&gt;JsAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="JsAnimation"
-            width="460"
-            height="315"
-            src="src/JsAnimation/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/JavascriptClipPathScroll02/index.html" target="_blank"&gt;JavascriptClipPathScroll02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="JavascriptClipPathScroll02"
+            width="460"
+            height="315"
+            src="src/JavascriptClipPathScroll02/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>96</v>
@@ -4836,7 +4839,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
+        &lt;a href="src/JsAnimation/index.html" target="_blank"&gt;JsAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4844,10 +4847,10 @@
       </c>
       <c r="H65" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">JsAnimation2"
-            width="460"
-            height="315"
-            src="src/JsAnimation2/index.html"
+        <v xml:space="preserve">JsAnimation"
+            width="460"
+            height="315"
+            src="src/JsAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4860,26 +4863,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="JsAnimation2"
-            width="460"
-            height="315"
-            src="src/JsAnimation2/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/JsAnimation/index.html" target="_blank"&gt;JsAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="JsAnimation"
+            width="460"
+            height="315"
+            src="src/JsAnimation/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>96</v>
@@ -4900,7 +4903,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JustForFunMousemoveEffectsJS/index.html" target="_blank"&gt;JustForFunMousemoveEffectsJS&lt;/a&gt;
+        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4908,10 +4911,10 @@
       </c>
       <c r="H66" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">JustForFunMousemoveEffectsJS"
-            width="460"
-            height="315"
-            src="src/JustForFunMousemoveEffectsJS/index.html"
+        <v xml:space="preserve">JsAnimation2"
+            width="460"
+            height="315"
+            src="src/JsAnimation2/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4924,26 +4927,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JustForFunMousemoveEffectsJS/index.html" target="_blank"&gt;JustForFunMousemoveEffectsJS&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="JustForFunMousemoveEffectsJS"
-            width="460"
-            height="315"
-            src="src/JustForFunMousemoveEffectsJS/index.html"
-            frameborder="0"
-            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
-            allowfullscreen
-          &gt;&lt;/iframe&gt;
-        &lt;/div&gt;
-      &lt;/section&gt;
-      </v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="JsAnimation2"
+            width="460"
+            height="315"
+            src="src/JsAnimation2/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>96</v>
@@ -4964,7 +4967,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/LettersCountJavascript/index.html" target="_blank"&gt;LettersCountJavascript&lt;/a&gt;
+        &lt;a href="src/JustForFunMousemoveEffectsJS/index.html" target="_blank"&gt;JustForFunMousemoveEffectsJS&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4972,10 +4975,10 @@
       </c>
       <c r="H67" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">LettersCountJavascript"
-            width="460"
-            height="315"
-            src="src/LettersCountJavascript/index.html"
+        <v xml:space="preserve">JustForFunMousemoveEffectsJS"
+            width="460"
+            height="315"
+            src="src/JustForFunMousemoveEffectsJS/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4988,10 +4991,74 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
+        &lt;a href="src/JustForFunMousemoveEffectsJS/index.html" target="_blank"&gt;JustForFunMousemoveEffectsJS&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="JustForFunMousemoveEffectsJS"
+            width="460"
+            height="315"
+            src="src/JustForFunMousemoveEffectsJS/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
         &lt;a href="src/LettersCountJavascript/index.html" target="_blank"&gt;LettersCountJavascript&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
+            title="</v>
+      </c>
+      <c r="H68" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">LettersCountJavascript"
+            width="460"
+            height="315"
+            src="src/LettersCountJavascript/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I68" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/LettersCountJavascript/index.html" target="_blank"&gt;LettersCountJavascript&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
             title="LettersCountJavascript"
             width="460"
             height="315"
@@ -5005,27 +5072,27 @@
       </v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="4" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G68" s="3" t="str">
-        <f t="shared" ref="G68:G97" si="3">_xlfn.CONCAT($B68,$A68,$C68,$A68,$D68)</f>
+      <c r="B69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" ref="G69:G98" si="3">_xlfn.CONCAT($B69,$A69,$C69,$A69,$D69)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/LoadingAnimationEffects/index.html" target="_blank"&gt;LoadingAnimationEffects&lt;/a&gt;
@@ -5034,8 +5101,8 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H68" s="3" t="str">
-        <f t="shared" ref="H68:H97" si="4">_xlfn.CONCAT($A68,$E68,$A68,$F68)</f>
+      <c r="H69" s="3" t="str">
+        <f t="shared" ref="H69:H98" si="4">_xlfn.CONCAT($A69,$E69,$A69,$F69)</f>
         <v xml:space="preserve">LoadingAnimationEffects"
             width="460"
             height="315"
@@ -5048,8 +5115,8 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I68" s="7" t="str">
-        <f t="shared" ref="I68:I97" si="5">_xlfn.CONCAT($G68,$H68)</f>
+      <c r="I69" s="7" t="str">
+        <f t="shared" ref="I69:I98" si="5">_xlfn.CONCAT($G69,$H69)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/LoadingAnimationEffects/index.html" target="_blank"&gt;LoadingAnimationEffects&lt;/a&gt;
@@ -5069,26 +5136,26 @@
       </v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="4" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G69" s="3" t="str">
+      <c r="B70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G70" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5098,7 +5165,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H69" s="3" t="str">
+      <c r="H70" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">MenuToggleJavascript"
             width="460"
@@ -5112,7 +5179,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I69" s="7" t="str">
+      <c r="I70" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5133,26 +5200,26 @@
       </v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G70" s="3" t="str">
+      <c r="B71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G71" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5162,7 +5229,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H70" s="3" t="str">
+      <c r="H71" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NavigationDrawer"
             width="460"
@@ -5176,7 +5243,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I70" s="7" t="str">
+      <c r="I71" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5197,26 +5264,26 @@
       </v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="4" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G71" s="3" t="str">
+      <c r="B72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G72" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5226,7 +5293,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H71" s="3" t="str">
+      <c r="H72" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NavigationMenuHoverEffects"
             width="460"
@@ -5240,7 +5307,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I71" s="7" t="str">
+      <c r="I72" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5261,26 +5328,26 @@
       </v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="4" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G72" s="3" t="str">
+      <c r="B73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G73" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5290,7 +5357,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H72" s="3" t="str">
+      <c r="H73" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NavigationTooltip"
             width="460"
@@ -5304,7 +5371,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I72" s="7" t="str">
+      <c r="I73" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5325,26 +5392,26 @@
       </v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G73" s="3" t="str">
+      <c r="B74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G74" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5354,7 +5421,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H73" s="3" t="str">
+      <c r="H74" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NavigationWithIcons"
             width="460"
@@ -5368,7 +5435,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I73" s="7" t="str">
+      <c r="I74" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5389,26 +5456,26 @@
       </v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="4" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G74" s="3" t="str">
+      <c r="B75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G75" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5418,7 +5485,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H74" s="3" t="str">
+      <c r="H75" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NetflixLandingPageUI"
             width="460"
@@ -5432,7 +5499,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I74" s="7" t="str">
+      <c r="I75" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5453,26 +5520,26 @@
       </v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="4" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G75" s="3" t="str">
+      <c r="B76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G76" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5482,7 +5549,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H75" s="3" t="str">
+      <c r="H76" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NeumorphismCheckBox"
             width="460"
@@ -5496,7 +5563,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I75" s="7" t="str">
+      <c r="I76" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5517,26 +5584,26 @@
       </v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="4" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G76" s="3" t="str">
+      <c r="B77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G77" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5546,7 +5613,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H76" s="3" t="str">
+      <c r="H77" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">NeumorphismPricingCardUIDesign"
             width="460"
@@ -5560,7 +5627,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I76" s="7" t="str">
+      <c r="I77" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5581,26 +5648,26 @@
       </v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="4" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G77" s="3" t="str">
+      <c r="B78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G78" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5610,7 +5677,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H77" s="3" t="str">
+      <c r="H78" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PaintBrushTextEffects"
             width="460"
@@ -5624,7 +5691,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I77" s="7" t="str">
+      <c r="I78" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5645,26 +5712,26 @@
       </v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="4" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G78" s="3" t="str">
+      <c r="B79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G79" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5674,7 +5741,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H78" s="3" t="str">
+      <c r="H79" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PepsiCardHoverEffects"
             width="460"
@@ -5688,7 +5755,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I78" s="7" t="str">
+      <c r="I79" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5709,26 +5776,26 @@
       </v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="4" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G79" s="3" t="str">
+      <c r="B80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G80" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5738,7 +5805,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H79" s="3" t="str">
+      <c r="H80" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PersonalPortfolio"
             width="460"
@@ -5752,7 +5819,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I79" s="7" t="str">
+      <c r="I80" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5773,26 +5840,26 @@
       </v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="4" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G80" s="3" t="str">
+      <c r="B81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G81" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5802,7 +5869,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H80" s="3" t="str">
+      <c r="H81" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PlaceImageInsideSilhouette"
             width="460"
@@ -5816,7 +5883,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I80" s="7" t="str">
+      <c r="I81" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5837,26 +5904,26 @@
       </v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="4" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G81" s="3" t="str">
+      <c r="B82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G82" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5866,7 +5933,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H81" s="3" t="str">
+      <c r="H82" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PlayPausedVideoToggleOnHover"
             width="460"
@@ -5880,7 +5947,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I81" s="7" t="str">
+      <c r="I82" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5901,26 +5968,26 @@
       </v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="4" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G82" s="3" t="str">
+      <c r="B83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G83" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5930,7 +5997,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H82" s="3" t="str">
+      <c r="H83" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PopupNewsletter"
             width="460"
@@ -5944,7 +6011,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I82" s="7" t="str">
+      <c r="I83" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5965,26 +6032,26 @@
       </v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="4" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G83" s="3" t="str">
+      <c r="B84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G84" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5994,7 +6061,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H83" s="3" t="str">
+      <c r="H84" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PortfolioWebsite"
             width="460"
@@ -6008,7 +6075,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I83" s="7" t="str">
+      <c r="I84" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6029,26 +6096,26 @@
       </v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="4" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G84" s="3" t="str">
+      <c r="B85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G85" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6058,7 +6125,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H84" s="3" t="str">
+      <c r="H85" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">PortfolioWebsite02"
             width="460"
@@ -6072,7 +6139,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I84" s="7" t="str">
+      <c r="I85" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6093,26 +6160,26 @@
       </v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="4" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G85" s="3" t="str">
+      <c r="B86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G86" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6122,7 +6189,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H85" s="3" t="str">
+      <c r="H86" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">RainyDayJS"
             width="460"
@@ -6136,7 +6203,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I85" s="7" t="str">
+      <c r="I86" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6157,26 +6224,26 @@
       </v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A86" s="4" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G86" s="3" t="str">
+      <c r="B87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G87" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6186,7 +6253,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H86" s="3" t="str">
+      <c r="H87" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">RamadanKareem"
             width="460"
@@ -6200,7 +6267,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I86" s="7" t="str">
+      <c r="I87" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6221,26 +6288,26 @@
       </v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A87" s="4" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G87" s="3" t="str">
+      <c r="B88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G88" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6250,7 +6317,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H87" s="3" t="str">
+      <c r="H88" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">RandomColorSlotGentor"
             width="460"
@@ -6264,7 +6331,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I87" s="7" t="str">
+      <c r="I88" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6285,26 +6352,26 @@
       </v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A88" s="4" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G88" s="3" t="str">
+      <c r="B89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G89" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6314,7 +6381,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H88" s="3" t="str">
+      <c r="H89" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">SignIn_SignUpForm02"
             width="460"
@@ -6328,7 +6395,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I88" s="7" t="str">
+      <c r="I89" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6349,26 +6416,26 @@
       </v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A89" s="4" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G89" s="3" t="str">
+      <c r="B90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G90" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6378,7 +6445,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H89" s="3" t="str">
+      <c r="H90" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">SmokeJavascriptAnimationEffects"
             width="460"
@@ -6392,7 +6459,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I89" s="7" t="str">
+      <c r="I90" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6413,26 +6480,26 @@
       </v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A90" s="4" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" s="3" t="str">
+      <c r="B91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G91" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6442,7 +6509,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H90" s="3" t="str">
+      <c r="H91" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">SnapScrollingParallaxEffects02"
             width="460"
@@ -6456,7 +6523,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I90" s="7" t="str">
+      <c r="I91" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6477,26 +6544,26 @@
       </v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A91" s="4" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G91" s="3" t="str">
+      <c r="B92" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G92" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6506,7 +6573,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H91" s="3" t="str">
+      <c r="H92" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">StarbucksResponsive"
             width="460"
@@ -6520,7 +6587,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I91" s="7" t="str">
+      <c r="I92" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6541,26 +6608,26 @@
       </v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A92" s="4" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" s="3" t="str">
+      <c r="B93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G93" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6570,7 +6637,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H92" s="3" t="str">
+      <c r="H93" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">TextTypingLoading"
             width="460"
@@ -6584,7 +6651,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I92" s="7" t="str">
+      <c r="I93" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6605,26 +6672,26 @@
       </v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A93" s="4" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G93" s="3" t="str">
+      <c r="B94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G94" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6634,7 +6701,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H93" s="3" t="str">
+      <c r="H94" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Uncharted4CardsUIDesign"
             width="460"
@@ -6648,7 +6715,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I93" s="7" t="str">
+      <c r="I94" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6669,26 +6736,26 @@
       </v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A94" s="4" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G94" s="3" t="str">
+      <c r="B95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G95" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6698,7 +6765,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H94" s="3" t="str">
+      <c r="H95" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">WavySectionCSS"
             width="460"
@@ -6712,7 +6779,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I94" s="7" t="str">
+      <c r="I95" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6733,26 +6800,26 @@
       </v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A95" s="4" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" s="3" t="str">
+      <c r="B96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G96" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6762,7 +6829,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H95" s="3" t="str">
+      <c r="H96" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">WavyTextVanillaJavascript"
             width="460"
@@ -6776,7 +6843,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I95" s="7" t="str">
+      <c r="I96" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6797,26 +6864,26 @@
       </v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A96" s="4" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G96" s="3" t="str">
+      <c r="B97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G97" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6826,7 +6893,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H96" s="3" t="str">
+      <c r="H97" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">WrapTextAroundImage"
             width="460"
@@ -6840,7 +6907,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I96" s="7" t="str">
+      <c r="I97" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6861,26 +6928,26 @@
       </v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A97" s="4" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G97" s="3" t="str">
+      <c r="B98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G98" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -6890,7 +6957,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H97" s="3" t="str">
+      <c r="H98" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">zText.js"
             width="460"
@@ -6904,7 +6971,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I97" s="7" t="str">
+      <c r="I98" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
